--- a/data/exp_raw/ssexp_data.xlsx
+++ b/data/exp_raw/ssexp_data.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vcantarella/Documents/FuhrbergerColumns/data/exp_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF4273F-0CF9-BD49-990B-768776ABBFE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF13E4D-269A-2B42-BA38-952C520B1A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16680" xr2:uid="{82067E57-95C1-4A4D-B858-7597035F15DE}"/>
+    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16680" activeTab="3" xr2:uid="{82067E57-95C1-4A4D-B858-7597035F15DE}"/>
   </bookViews>
   <sheets>
-    <sheet name="general_samples" sheetId="1" r:id="rId1"/>
-    <sheet name="fe" sheetId="2" r:id="rId2"/>
-    <sheet name="hs" sheetId="3" r:id="rId3"/>
+    <sheet name="general_samples_p1" sheetId="1" r:id="rId1"/>
+    <sheet name="general_samples_p2" sheetId="4" r:id="rId2"/>
+    <sheet name="general_samples_p3" sheetId="5" r:id="rId3"/>
+    <sheet name="general_samples_p4" sheetId="6" r:id="rId4"/>
+    <sheet name="fe" sheetId="2" r:id="rId5"/>
+    <sheet name="hs" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="164">
   <si>
     <t>Sample</t>
   </si>
@@ -185,6 +188,351 @@
   </si>
   <si>
     <t>no3_mg_L</t>
+  </si>
+  <si>
+    <t>P1F2</t>
+  </si>
+  <si>
+    <t>P2F2</t>
+  </si>
+  <si>
+    <t>P3F2</t>
+  </si>
+  <si>
+    <t>P4F2</t>
+  </si>
+  <si>
+    <t>P1T9</t>
+  </si>
+  <si>
+    <t>P1T10</t>
+  </si>
+  <si>
+    <t>P1T11</t>
+  </si>
+  <si>
+    <t>P1T12</t>
+  </si>
+  <si>
+    <t>P1T13</t>
+  </si>
+  <si>
+    <t>P1T14</t>
+  </si>
+  <si>
+    <t>P1T15</t>
+  </si>
+  <si>
+    <t>P1T16</t>
+  </si>
+  <si>
+    <t>P1T17</t>
+  </si>
+  <si>
+    <t>P1T18</t>
+  </si>
+  <si>
+    <t>P1T19</t>
+  </si>
+  <si>
+    <t>P1T20</t>
+  </si>
+  <si>
+    <t>P1T21</t>
+  </si>
+  <si>
+    <t>P1T22</t>
+  </si>
+  <si>
+    <t>P1T23</t>
+  </si>
+  <si>
+    <t>P1T24</t>
+  </si>
+  <si>
+    <t>P1T25</t>
+  </si>
+  <si>
+    <t>P1T26</t>
+  </si>
+  <si>
+    <t>P1T27</t>
+  </si>
+  <si>
+    <t>P1T28</t>
+  </si>
+  <si>
+    <t>P1T29</t>
+  </si>
+  <si>
+    <t>P1T30</t>
+  </si>
+  <si>
+    <t>P1T31</t>
+  </si>
+  <si>
+    <t>P1T32</t>
+  </si>
+  <si>
+    <t>P1T33</t>
+  </si>
+  <si>
+    <t>P1T34</t>
+  </si>
+  <si>
+    <t>P1T35</t>
+  </si>
+  <si>
+    <t>P2T9</t>
+  </si>
+  <si>
+    <t>P2T10</t>
+  </si>
+  <si>
+    <t>P2T11</t>
+  </si>
+  <si>
+    <t>P2T12</t>
+  </si>
+  <si>
+    <t>P2T13</t>
+  </si>
+  <si>
+    <t>P2T14</t>
+  </si>
+  <si>
+    <t>P2T15</t>
+  </si>
+  <si>
+    <t>P2T16</t>
+  </si>
+  <si>
+    <t>P2T17</t>
+  </si>
+  <si>
+    <t>P2T18</t>
+  </si>
+  <si>
+    <t>P2T19</t>
+  </si>
+  <si>
+    <t>P2T20</t>
+  </si>
+  <si>
+    <t>P2T21</t>
+  </si>
+  <si>
+    <t>P2T22</t>
+  </si>
+  <si>
+    <t>P2T23</t>
+  </si>
+  <si>
+    <t>P2T24</t>
+  </si>
+  <si>
+    <t>P2T25</t>
+  </si>
+  <si>
+    <t>P2T26</t>
+  </si>
+  <si>
+    <t>P2T27</t>
+  </si>
+  <si>
+    <t>P2T28</t>
+  </si>
+  <si>
+    <t>P2T29</t>
+  </si>
+  <si>
+    <t>P2T30</t>
+  </si>
+  <si>
+    <t>P2T31</t>
+  </si>
+  <si>
+    <t>P2T32</t>
+  </si>
+  <si>
+    <t>P2T33</t>
+  </si>
+  <si>
+    <t>P2T34</t>
+  </si>
+  <si>
+    <t>P2T35</t>
+  </si>
+  <si>
+    <t>P3T9</t>
+  </si>
+  <si>
+    <t>P3T10</t>
+  </si>
+  <si>
+    <t>P3T11</t>
+  </si>
+  <si>
+    <t>P3T12</t>
+  </si>
+  <si>
+    <t>P3T13</t>
+  </si>
+  <si>
+    <t>P3T14</t>
+  </si>
+  <si>
+    <t>P3T15</t>
+  </si>
+  <si>
+    <t>P3T16</t>
+  </si>
+  <si>
+    <t>P3T17</t>
+  </si>
+  <si>
+    <t>P3T18</t>
+  </si>
+  <si>
+    <t>P3T19</t>
+  </si>
+  <si>
+    <t>P3T20</t>
+  </si>
+  <si>
+    <t>P3T21</t>
+  </si>
+  <si>
+    <t>P3T22</t>
+  </si>
+  <si>
+    <t>P3T23</t>
+  </si>
+  <si>
+    <t>P3T24</t>
+  </si>
+  <si>
+    <t>P3T25</t>
+  </si>
+  <si>
+    <t>P3T26</t>
+  </si>
+  <si>
+    <t>P3T27</t>
+  </si>
+  <si>
+    <t>P3T28</t>
+  </si>
+  <si>
+    <t>P3T29</t>
+  </si>
+  <si>
+    <t>P3T30</t>
+  </si>
+  <si>
+    <t>P3T31</t>
+  </si>
+  <si>
+    <t>P3T32</t>
+  </si>
+  <si>
+    <t>P3T33</t>
+  </si>
+  <si>
+    <t>P3T34</t>
+  </si>
+  <si>
+    <t>P3T35</t>
+  </si>
+  <si>
+    <t>P4T9</t>
+  </si>
+  <si>
+    <t>P4T10</t>
+  </si>
+  <si>
+    <t>P4T11</t>
+  </si>
+  <si>
+    <t>P4T12</t>
+  </si>
+  <si>
+    <t>P4T13</t>
+  </si>
+  <si>
+    <t>P4T14</t>
+  </si>
+  <si>
+    <t>P4T15</t>
+  </si>
+  <si>
+    <t>P4T16</t>
+  </si>
+  <si>
+    <t>P4T17</t>
+  </si>
+  <si>
+    <t>P4T18</t>
+  </si>
+  <si>
+    <t>P4T19</t>
+  </si>
+  <si>
+    <t>P4T20</t>
+  </si>
+  <si>
+    <t>P4T21</t>
+  </si>
+  <si>
+    <t>P4T22</t>
+  </si>
+  <si>
+    <t>P4T23</t>
+  </si>
+  <si>
+    <t>P4T24</t>
+  </si>
+  <si>
+    <t>P4T25</t>
+  </si>
+  <si>
+    <t>P4T26</t>
+  </si>
+  <si>
+    <t>P4T27</t>
+  </si>
+  <si>
+    <t>P4T28</t>
+  </si>
+  <si>
+    <t>P4T29</t>
+  </si>
+  <si>
+    <t>P4T30</t>
+  </si>
+  <si>
+    <t>P4T31</t>
+  </si>
+  <si>
+    <t>P4T32</t>
+  </si>
+  <si>
+    <t>P4T33</t>
+  </si>
+  <si>
+    <t>P4T34</t>
+  </si>
+  <si>
+    <t>P4T35</t>
+  </si>
+  <si>
+    <t>obs</t>
+  </si>
+  <si>
+    <t>*new calibration of pH EC</t>
+  </si>
+  <si>
+    <t>* volume sample interrupted because of Fe sampling</t>
   </si>
 </sst>
 </file>
@@ -563,19 +911,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE2E69C-B565-9948-8744-019B7DBC9C60}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -609,8 +958,11 @@
       <c r="K1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -618,17 +970,18 @@
         <v>45922.71597222222</v>
       </c>
       <c r="C2" s="1">
+        <f>B2+6/24</f>
         <v>45922.96597222222</v>
       </c>
       <c r="D2">
         <v>18.91</v>
       </c>
       <c r="E2">
-        <f>(D2-6.75)/6</f>
+        <f t="shared" ref="E2:E24" si="0">(D2-6.75)/6</f>
         <v>2.0266666666666668</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -637,25 +990,27 @@
         <v>45922.96597222222</v>
       </c>
       <c r="C3" s="1">
+        <f>B3+6/24</f>
         <v>45923.21597222222</v>
       </c>
       <c r="D3">
         <v>18.79</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E13" si="0">(D3-6.75)/6</f>
+        <f t="shared" si="0"/>
         <v>2.0066666666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1">
-        <f>C3</f>
+        <f t="shared" ref="B4:B36" si="1">C3</f>
         <v>45923.21597222222</v>
       </c>
       <c r="C4" s="1">
+        <f t="shared" ref="C4:C36" si="2">B4+6/24</f>
         <v>45923.46597222222</v>
       </c>
       <c r="D4">
@@ -675,435 +1030,579 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1">
-        <v>45922.71597222222</v>
+        <f t="shared" si="1"/>
+        <v>45923.46597222222</v>
       </c>
       <c r="C5" s="1">
-        <v>45922.96597222222</v>
+        <f t="shared" si="2"/>
+        <v>45923.71597222222</v>
       </c>
       <c r="D5">
-        <v>17.7</v>
+        <v>18.79</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>1.825</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2.0066666666666664</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1">
-        <f>C5</f>
-        <v>45922.96597222222</v>
+        <f t="shared" si="1"/>
+        <v>45923.71597222222</v>
       </c>
       <c r="C6" s="1">
-        <v>45923.21597222222</v>
+        <f t="shared" si="2"/>
+        <v>45923.96597222222</v>
       </c>
       <c r="D6">
-        <v>16.89</v>
+        <v>18.3</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>1.6900000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1.925</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1">
-        <f>C6</f>
-        <v>45923.21597222222</v>
+        <f t="shared" si="1"/>
+        <v>45923.96597222222</v>
       </c>
       <c r="C7" s="1">
-        <v>45923.46597222222</v>
+        <f t="shared" si="2"/>
+        <v>45924.21597222222</v>
       </c>
       <c r="D7">
-        <v>17.32</v>
+        <v>18.350000000000001</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>1.7616666666666667</v>
-      </c>
-      <c r="F7">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="G7">
-        <v>699</v>
-      </c>
-      <c r="H7">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1.9333333333333336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="1"/>
+        <v>45924.21597222222</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="2"/>
+        <v>45924.46597222222</v>
+      </c>
+      <c r="D8">
+        <v>18.55</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>1.9666666666666668</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="1"/>
+        <v>45924.46597222222</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="2"/>
+        <v>45924.71597222222</v>
+      </c>
+      <c r="F9">
+        <v>8.24</v>
+      </c>
+      <c r="G9">
+        <v>596</v>
+      </c>
+      <c r="H9">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="1"/>
+        <v>45924.71597222222</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="2"/>
+        <v>45924.96597222222</v>
+      </c>
+      <c r="D10">
+        <v>18.52</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>1.9616666666666667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="1"/>
+        <v>45924.96597222222</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="2"/>
+        <v>45925.21597222222</v>
+      </c>
+      <c r="D11">
+        <v>18.48</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>1.9550000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="1"/>
+        <v>45925.21597222222</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="2"/>
+        <v>45925.46597222222</v>
+      </c>
+      <c r="D12">
+        <v>18.329999999999998</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>1.9299999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="1"/>
+        <v>45925.46597222222</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="2"/>
+        <v>45925.71597222222</v>
+      </c>
+      <c r="D13">
+        <v>18.510000000000002</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>1.9600000000000002</v>
+      </c>
+      <c r="L13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" si="1"/>
+        <v>45925.71597222222</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="2"/>
+        <v>45925.96597222222</v>
+      </c>
+      <c r="D14">
+        <v>18.18</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>1.905</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" si="1"/>
+        <v>45925.96597222222</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="2"/>
+        <v>45926.21597222222</v>
+      </c>
+      <c r="D15">
+        <v>18.21</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>1.9100000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" si="1"/>
+        <v>45926.21597222222</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="2"/>
+        <v>45926.46597222222</v>
+      </c>
+      <c r="D16">
+        <v>18.27</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>1.92</v>
+      </c>
+      <c r="F16">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="G16">
+        <v>991</v>
+      </c>
+      <c r="H16">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" si="1"/>
+        <v>45926.46597222222</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="2"/>
+        <v>45926.71597222222</v>
+      </c>
+      <c r="L17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="1"/>
+        <v>45926.71597222222</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="2"/>
+        <v>45926.96597222222</v>
+      </c>
+      <c r="D18">
+        <v>18.079999999999998</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>1.888333333333333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="1"/>
+        <v>45926.96597222222</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="2"/>
+        <v>45927.21597222222</v>
+      </c>
+      <c r="D19">
+        <v>18.12</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>1.8950000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" si="1"/>
+        <v>45927.21597222222</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="2"/>
+        <v>45927.46597222222</v>
+      </c>
+      <c r="D20">
+        <v>18.14</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>1.8983333333333334</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" si="1"/>
+        <v>45927.46597222222</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="2"/>
+        <v>45927.71597222222</v>
+      </c>
+      <c r="D21">
+        <v>18.22</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>1.9116666666666664</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" si="1"/>
+        <v>45927.71597222222</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="2"/>
+        <v>45927.96597222222</v>
+      </c>
+      <c r="D22">
+        <v>18.260000000000002</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>1.9183333333333337</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="1">
+        <f t="shared" si="1"/>
+        <v>45927.96597222222</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" si="2"/>
+        <v>45928.21597222222</v>
+      </c>
+      <c r="D23">
+        <v>18.2</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>1.9083333333333332</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" si="1"/>
+        <v>45928.21597222222</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" si="2"/>
+        <v>45928.46597222222</v>
+      </c>
+      <c r="D24">
+        <v>18.260000000000002</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>1.9183333333333337</v>
+      </c>
+      <c r="F24">
+        <v>8.31</v>
+      </c>
+      <c r="G24">
+        <v>852</v>
+      </c>
+      <c r="H24">
         <v>14</v>
       </c>
-      <c r="B8" s="1">
-        <v>45922.71597222222</v>
-      </c>
-      <c r="C8" s="1">
-        <v>45922.96597222222</v>
-      </c>
-      <c r="D8">
-        <v>17.64</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>1.8150000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="1">
-        <f>C8</f>
-        <v>45922.96597222222</v>
-      </c>
-      <c r="C9" s="1">
-        <v>45923.21597222222</v>
-      </c>
-      <c r="D9">
-        <v>17.88</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>1.8549999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="1">
-        <f>C9</f>
-        <v>45923.21597222222</v>
-      </c>
-      <c r="C10" s="1">
-        <v>45923.46597222222</v>
-      </c>
-      <c r="D10">
-        <v>17.850000000000001</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>1.8500000000000003</v>
-      </c>
-      <c r="F10">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="G10">
-        <v>773</v>
-      </c>
-      <c r="H10">
-        <v>13.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1">
-        <v>45922.71597222222</v>
-      </c>
-      <c r="C11" s="1">
-        <v>45922.96597222222</v>
-      </c>
-      <c r="D11">
-        <v>18.05</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>1.8833333333333335</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="1">
-        <f>C11</f>
-        <v>45922.96597222222</v>
-      </c>
-      <c r="C12" s="1">
-        <v>45923.21597222222</v>
-      </c>
-      <c r="D12">
-        <v>17.12</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>1.7283333333333335</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="1">
-        <f>C12</f>
-        <v>45923.21597222222</v>
-      </c>
-      <c r="C13" s="1">
-        <v>45923.46597222222</v>
-      </c>
-      <c r="D13">
-        <v>19.850000000000001</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>2.1833333333333336</v>
-      </c>
-      <c r="F13">
-        <v>8.1</v>
-      </c>
-      <c r="G13">
-        <v>473</v>
-      </c>
-      <c r="H13">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="1">
-        <v>45923.46597222222</v>
-      </c>
-      <c r="C14" s="1">
-        <v>45923.71597222222</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="1">
-        <v>45923.71597222222</v>
-      </c>
-      <c r="C15" s="1">
-        <v>45923.96597222222</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="1">
-        <f>C15</f>
-        <v>45923.96597222222</v>
-      </c>
-      <c r="C16" s="1">
-        <v>45924.21597222222</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="1">
-        <f>C16</f>
-        <v>45924.21597222222</v>
-      </c>
-      <c r="C17" s="1">
-        <v>45924.46597222222</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="1">
-        <f>C17</f>
-        <v>45924.46597222222</v>
-      </c>
-      <c r="C18" s="1">
-        <f>B18+6/24</f>
-        <v>45924.71597222222</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="1">
-        <v>45923.46597222222</v>
-      </c>
-      <c r="C19" s="1">
-        <v>45923.71597222222</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="1">
-        <v>45923.71597222222</v>
-      </c>
-      <c r="C20" s="1">
-        <v>45923.96597222222</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="1">
-        <f>C20</f>
-        <v>45923.96597222222</v>
-      </c>
-      <c r="C21" s="1">
-        <v>45924.21597222222</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="1">
-        <f>C21</f>
-        <v>45924.21597222222</v>
-      </c>
-      <c r="C22" s="1">
-        <v>45924.46597222222</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="1">
-        <f>C22</f>
-        <v>45924.46597222222</v>
-      </c>
-      <c r="C23" s="1">
-        <f>B23+6/24</f>
-        <v>45924.71597222222</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="1">
-        <v>45923.46597222222</v>
-      </c>
-      <c r="C24" s="1">
-        <v>45923.71597222222</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="B25" s="1">
-        <v>45923.71597222222</v>
+        <f t="shared" si="1"/>
+        <v>45928.46597222222</v>
       </c>
       <c r="C25" s="1">
-        <v>45923.96597222222</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>45928.71597222222</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="B26" s="1">
-        <f>C25</f>
-        <v>45923.96597222222</v>
+        <f t="shared" si="1"/>
+        <v>45928.71597222222</v>
       </c>
       <c r="C26" s="1">
-        <v>45924.21597222222</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>45928.96597222222</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="B27" s="1">
-        <f>C26</f>
-        <v>45924.21597222222</v>
+        <f t="shared" si="1"/>
+        <v>45928.96597222222</v>
       </c>
       <c r="C27" s="1">
-        <v>45924.46597222222</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>45929.21597222222</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="B28" s="1">
-        <f>C27</f>
-        <v>45924.46597222222</v>
+        <f t="shared" si="1"/>
+        <v>45929.21597222222</v>
       </c>
       <c r="C28" s="1">
-        <f>B28+6/24</f>
-        <v>45924.71597222222</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>45929.46597222222</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="B29" s="1">
-        <v>45923.46597222222</v>
+        <f t="shared" si="1"/>
+        <v>45929.46597222222</v>
       </c>
       <c r="C29" s="1">
-        <v>45923.71597222222</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>45929.71597222222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="B30" s="1">
-        <v>45923.71597222222</v>
+        <f t="shared" si="1"/>
+        <v>45929.71597222222</v>
       </c>
       <c r="C30" s="1">
-        <v>45923.96597222222</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>45929.96597222222</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="B31" s="1">
-        <f>C30</f>
-        <v>45923.96597222222</v>
+        <f t="shared" si="1"/>
+        <v>45929.96597222222</v>
       </c>
       <c r="C31" s="1">
-        <v>45924.21597222222</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>45930.21597222222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="B32" s="1">
-        <f>C31</f>
-        <v>45924.21597222222</v>
+        <f t="shared" si="1"/>
+        <v>45930.21597222222</v>
       </c>
       <c r="C32" s="1">
-        <v>45924.46597222222</v>
+        <f t="shared" si="2"/>
+        <v>45930.46597222222</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="B33" s="1">
-        <f>C32</f>
-        <v>45924.46597222222</v>
+        <f t="shared" si="1"/>
+        <v>45930.46597222222</v>
       </c>
       <c r="C33" s="1">
-        <f>B33+6/24</f>
-        <v>45924.71597222222</v>
+        <f t="shared" si="2"/>
+        <v>45930.71597222222</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="1">
+        <f t="shared" si="1"/>
+        <v>45930.71597222222</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" si="2"/>
+        <v>45930.96597222222</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="1">
+        <f t="shared" si="1"/>
+        <v>45930.96597222222</v>
+      </c>
+      <c r="C35" s="1">
+        <f t="shared" si="2"/>
+        <v>45931.21597222222</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="1">
+        <f t="shared" si="1"/>
+        <v>45931.21597222222</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" si="2"/>
+        <v>45931.46597222222</v>
       </c>
     </row>
   </sheetData>
@@ -1113,11 +1612,2275 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16994493-3AAA-0649-9876-DE782407159B}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046BB4A8-8683-FF42-8F76-0A791D85765F}">
+  <dimension ref="A1:L62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45922.71597222222</v>
+      </c>
+      <c r="C2" s="1">
+        <f>B2+6/24</f>
+        <v>45922.96597222222</v>
+      </c>
+      <c r="D2">
+        <v>17.7</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E24" si="0">(D2-6.75)/6</f>
+        <v>1.825</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1">
+        <f>C2</f>
+        <v>45922.96597222222</v>
+      </c>
+      <c r="C3" s="1">
+        <f>B3+6/24</f>
+        <v>45923.21597222222</v>
+      </c>
+      <c r="D3">
+        <v>16.89</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>1.6900000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1">
+        <f t="shared" ref="B4:B36" si="1">C3</f>
+        <v>45923.21597222222</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" ref="C4:C36" si="2">B4+6/24</f>
+        <v>45923.46597222222</v>
+      </c>
+      <c r="D4">
+        <v>17.32</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1.7616666666666667</v>
+      </c>
+      <c r="F4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G4">
+        <v>699</v>
+      </c>
+      <c r="H4">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" si="1"/>
+        <v>45923.46597222222</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="2"/>
+        <v>45923.71597222222</v>
+      </c>
+      <c r="D5">
+        <v>18.46</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1.9516666666666669</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" si="1"/>
+        <v>45923.71597222222</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="2"/>
+        <v>45923.96597222222</v>
+      </c>
+      <c r="D6">
+        <v>19.52</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>2.1283333333333334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="1"/>
+        <v>45923.96597222222</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="2"/>
+        <v>45924.21597222222</v>
+      </c>
+      <c r="D7">
+        <v>19.54</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>2.1316666666666664</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="1"/>
+        <v>45924.21597222222</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="2"/>
+        <v>45924.46597222222</v>
+      </c>
+      <c r="D8">
+        <v>19.64</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>2.1483333333333334</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="1"/>
+        <v>45924.46597222222</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="2"/>
+        <v>45924.71597222222</v>
+      </c>
+      <c r="F9">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="G9">
+        <v>641</v>
+      </c>
+      <c r="H9">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="1"/>
+        <v>45924.71597222222</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="2"/>
+        <v>45924.96597222222</v>
+      </c>
+      <c r="D10">
+        <v>19.37</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>2.1033333333333335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="1"/>
+        <v>45924.96597222222</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="2"/>
+        <v>45925.21597222222</v>
+      </c>
+      <c r="D11">
+        <v>19.54</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>2.1316666666666664</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="1"/>
+        <v>45925.21597222222</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="2"/>
+        <v>45925.46597222222</v>
+      </c>
+      <c r="D12">
+        <v>19.559999999999999</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>2.1349999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="1"/>
+        <v>45925.46597222222</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="2"/>
+        <v>45925.71597222222</v>
+      </c>
+      <c r="D13">
+        <v>19.579999999999998</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>2.1383333333333332</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" si="1"/>
+        <v>45925.71597222222</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="2"/>
+        <v>45925.96597222222</v>
+      </c>
+      <c r="D14">
+        <v>19.39</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>2.1066666666666669</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" si="1"/>
+        <v>45925.96597222222</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="2"/>
+        <v>45926.21597222222</v>
+      </c>
+      <c r="D15">
+        <v>19.45</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>2.1166666666666667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" si="1"/>
+        <v>45926.21597222222</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="2"/>
+        <v>45926.46597222222</v>
+      </c>
+      <c r="D16">
+        <v>19.43</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>2.1133333333333333</v>
+      </c>
+      <c r="F16">
+        <v>8.09</v>
+      </c>
+      <c r="G16">
+        <v>955</v>
+      </c>
+      <c r="H16">
+        <v>14.1</v>
+      </c>
+      <c r="L16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" si="1"/>
+        <v>45926.46597222222</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="2"/>
+        <v>45926.71597222222</v>
+      </c>
+      <c r="L17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="1"/>
+        <v>45926.71597222222</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="2"/>
+        <v>45926.96597222222</v>
+      </c>
+      <c r="D18">
+        <v>18.87</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="1"/>
+        <v>45926.96597222222</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="2"/>
+        <v>45927.21597222222</v>
+      </c>
+      <c r="D19">
+        <v>19.25</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333335</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" si="1"/>
+        <v>45927.21597222222</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="2"/>
+        <v>45927.46597222222</v>
+      </c>
+      <c r="D20">
+        <v>19.21</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>2.0766666666666667</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" si="1"/>
+        <v>45927.46597222222</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="2"/>
+        <v>45927.71597222222</v>
+      </c>
+      <c r="D21">
+        <v>19.329999999999998</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>2.0966666666666662</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" si="1"/>
+        <v>45927.71597222222</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="2"/>
+        <v>45927.96597222222</v>
+      </c>
+      <c r="D22">
+        <v>19.350000000000001</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="1">
+        <f t="shared" si="1"/>
+        <v>45927.96597222222</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" si="2"/>
+        <v>45928.21597222222</v>
+      </c>
+      <c r="D23">
+        <v>19.41</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" si="1"/>
+        <v>45928.21597222222</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" si="2"/>
+        <v>45928.46597222222</v>
+      </c>
+      <c r="D24">
+        <v>19.329999999999998</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>2.0966666666666662</v>
+      </c>
+      <c r="F24">
+        <v>8.25</v>
+      </c>
+      <c r="G24">
+        <v>879</v>
+      </c>
+      <c r="H24">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" si="1"/>
+        <v>45928.46597222222</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="2"/>
+        <v>45928.71597222222</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" si="1"/>
+        <v>45928.71597222222</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="2"/>
+        <v>45928.96597222222</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="1">
+        <f t="shared" si="1"/>
+        <v>45928.96597222222</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="2"/>
+        <v>45929.21597222222</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="1">
+        <f t="shared" si="1"/>
+        <v>45929.21597222222</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="2"/>
+        <v>45929.46597222222</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="1">
+        <f t="shared" si="1"/>
+        <v>45929.46597222222</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="2"/>
+        <v>45929.71597222222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="1">
+        <f t="shared" si="1"/>
+        <v>45929.71597222222</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" si="2"/>
+        <v>45929.96597222222</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="1">
+        <f t="shared" si="1"/>
+        <v>45929.96597222222</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" si="2"/>
+        <v>45930.21597222222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="1">
+        <f t="shared" si="1"/>
+        <v>45930.21597222222</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" si="2"/>
+        <v>45930.46597222222</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="1"/>
+        <v>45930.46597222222</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="2"/>
+        <v>45930.71597222222</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="1">
+        <f t="shared" si="1"/>
+        <v>45930.71597222222</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" si="2"/>
+        <v>45930.96597222222</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" s="1">
+        <f t="shared" si="1"/>
+        <v>45930.96597222222</v>
+      </c>
+      <c r="C35" s="1">
+        <f t="shared" si="2"/>
+        <v>45931.21597222222</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="1">
+        <f t="shared" si="1"/>
+        <v>45931.21597222222</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" si="2"/>
+        <v>45931.46597222222</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{649DD004-07E5-F04F-B76F-816E14D1C8AC}">
+  <dimension ref="A1:L51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45922.71597222222</v>
+      </c>
+      <c r="C2" s="1">
+        <f>B2+6/24</f>
+        <v>45922.96597222222</v>
+      </c>
+      <c r="D2">
+        <v>17.64</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E24" si="0">(D2-6.75)/6</f>
+        <v>1.8150000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1">
+        <f>C2</f>
+        <v>45922.96597222222</v>
+      </c>
+      <c r="C3" s="1">
+        <f>B3+6/24</f>
+        <v>45923.21597222222</v>
+      </c>
+      <c r="D3">
+        <v>17.88</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>1.8549999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1">
+        <f t="shared" ref="B4:B36" si="1">C3</f>
+        <v>45923.21597222222</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" ref="C4:C36" si="2">B4+6/24</f>
+        <v>45923.46597222222</v>
+      </c>
+      <c r="D4">
+        <v>17.850000000000001</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1.8500000000000003</v>
+      </c>
+      <c r="F4">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="G4">
+        <v>773</v>
+      </c>
+      <c r="H4">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" si="1"/>
+        <v>45923.46597222222</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="2"/>
+        <v>45923.71597222222</v>
+      </c>
+      <c r="D5">
+        <v>18.5</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1.9583333333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" si="1"/>
+        <v>45923.71597222222</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="2"/>
+        <v>45923.96597222222</v>
+      </c>
+      <c r="D6">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>2.1833333333333336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="1"/>
+        <v>45923.96597222222</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="2"/>
+        <v>45924.21597222222</v>
+      </c>
+      <c r="D7">
+        <v>19.760000000000002</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>2.1683333333333334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="1"/>
+        <v>45924.21597222222</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="2"/>
+        <v>45924.46597222222</v>
+      </c>
+      <c r="D8">
+        <v>19.88</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>2.188333333333333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="1"/>
+        <v>45924.46597222222</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="2"/>
+        <v>45924.71597222222</v>
+      </c>
+      <c r="F9">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="G9">
+        <v>648</v>
+      </c>
+      <c r="H9">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="1"/>
+        <v>45924.71597222222</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="2"/>
+        <v>45924.96597222222</v>
+      </c>
+      <c r="D10">
+        <v>20.010000000000002</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>2.2100000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="1"/>
+        <v>45924.96597222222</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="2"/>
+        <v>45925.21597222222</v>
+      </c>
+      <c r="D11">
+        <v>19.77</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="1"/>
+        <v>45925.21597222222</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="2"/>
+        <v>45925.46597222222</v>
+      </c>
+      <c r="D12">
+        <v>19.96</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>2.2016666666666667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="1"/>
+        <v>45925.46597222222</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="2"/>
+        <v>45925.71597222222</v>
+      </c>
+      <c r="D13">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>2.2250000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" si="1"/>
+        <v>45925.71597222222</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="2"/>
+        <v>45925.96597222222</v>
+      </c>
+      <c r="D14">
+        <v>19.57</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>2.1366666666666667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" si="1"/>
+        <v>45925.96597222222</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="2"/>
+        <v>45926.21597222222</v>
+      </c>
+      <c r="D15">
+        <v>19.86</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>2.1850000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" si="1"/>
+        <v>45926.21597222222</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="2"/>
+        <v>45926.46597222222</v>
+      </c>
+      <c r="D16">
+        <v>19.89</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>2.19</v>
+      </c>
+      <c r="F16">
+        <v>8.19</v>
+      </c>
+      <c r="G16">
+        <v>878</v>
+      </c>
+      <c r="H16">
+        <v>14</v>
+      </c>
+      <c r="L16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" si="1"/>
+        <v>45926.46597222222</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="2"/>
+        <v>45926.71597222222</v>
+      </c>
+      <c r="L17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="1"/>
+        <v>45926.71597222222</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="2"/>
+        <v>45926.96597222222</v>
+      </c>
+      <c r="D18">
+        <v>19.53</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>2.1300000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="1"/>
+        <v>45926.96597222222</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="2"/>
+        <v>45927.21597222222</v>
+      </c>
+      <c r="D19">
+        <v>19.510000000000002</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>2.1266666666666669</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" si="1"/>
+        <v>45927.21597222222</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="2"/>
+        <v>45927.46597222222</v>
+      </c>
+      <c r="D20">
+        <v>19.71</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" si="1"/>
+        <v>45927.46597222222</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="2"/>
+        <v>45927.71597222222</v>
+      </c>
+      <c r="D21">
+        <v>19.45</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>2.1166666666666667</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" si="1"/>
+        <v>45927.71597222222</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="2"/>
+        <v>45927.96597222222</v>
+      </c>
+      <c r="D22">
+        <v>19.66</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>2.1516666666666668</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" s="1">
+        <f t="shared" si="1"/>
+        <v>45927.96597222222</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" si="2"/>
+        <v>45928.21597222222</v>
+      </c>
+      <c r="D23">
+        <v>19.86</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>2.1850000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" si="1"/>
+        <v>45928.21597222222</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" si="2"/>
+        <v>45928.46597222222</v>
+      </c>
+      <c r="D24">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>2.1833333333333336</v>
+      </c>
+      <c r="F24">
+        <v>8.08</v>
+      </c>
+      <c r="G24">
+        <v>905</v>
+      </c>
+      <c r="H24">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" si="1"/>
+        <v>45928.46597222222</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="2"/>
+        <v>45928.71597222222</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" si="1"/>
+        <v>45928.71597222222</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="2"/>
+        <v>45928.96597222222</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" s="1">
+        <f t="shared" si="1"/>
+        <v>45928.96597222222</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="2"/>
+        <v>45929.21597222222</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" s="1">
+        <f t="shared" si="1"/>
+        <v>45929.21597222222</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="2"/>
+        <v>45929.46597222222</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="1">
+        <f t="shared" si="1"/>
+        <v>45929.46597222222</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="2"/>
+        <v>45929.71597222222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" s="1">
+        <f t="shared" si="1"/>
+        <v>45929.71597222222</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" si="2"/>
+        <v>45929.96597222222</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>128</v>
+      </c>
+      <c r="B31" s="1">
+        <f t="shared" si="1"/>
+        <v>45929.96597222222</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" si="2"/>
+        <v>45930.21597222222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" s="1">
+        <f t="shared" si="1"/>
+        <v>45930.21597222222</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" si="2"/>
+        <v>45930.46597222222</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>130</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="1"/>
+        <v>45930.46597222222</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="2"/>
+        <v>45930.71597222222</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34" s="1">
+        <f t="shared" si="1"/>
+        <v>45930.71597222222</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" si="2"/>
+        <v>45930.96597222222</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>132</v>
+      </c>
+      <c r="B35" s="1">
+        <f t="shared" si="1"/>
+        <v>45930.96597222222</v>
+      </c>
+      <c r="C35" s="1">
+        <f t="shared" si="2"/>
+        <v>45931.21597222222</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>133</v>
+      </c>
+      <c r="B36" s="1">
+        <f t="shared" si="1"/>
+        <v>45931.21597222222</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" si="2"/>
+        <v>45931.46597222222</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CEAE0A4-BA85-AC4B-952F-A9D4082FC119}">
+  <dimension ref="A1:L36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45922.71597222222</v>
+      </c>
+      <c r="C2" s="1">
+        <f>B2+6/24</f>
+        <v>45922.96597222222</v>
+      </c>
+      <c r="D2">
+        <v>18.05</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E24" si="0">(D2-6.75)/6</f>
+        <v>1.8833333333333335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1">
+        <f>C2</f>
+        <v>45922.96597222222</v>
+      </c>
+      <c r="C3" s="1">
+        <f>B3+6/24</f>
+        <v>45923.21597222222</v>
+      </c>
+      <c r="D3">
+        <v>17.12</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>1.7283333333333335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1">
+        <f t="shared" ref="B4:B36" si="1">C3</f>
+        <v>45923.21597222222</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" ref="C4:C36" si="2">B4+6/24</f>
+        <v>45923.46597222222</v>
+      </c>
+      <c r="D4">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>2.1833333333333336</v>
+      </c>
+      <c r="F4">
+        <v>8.1</v>
+      </c>
+      <c r="G4">
+        <v>473</v>
+      </c>
+      <c r="H4">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" si="1"/>
+        <v>45923.46597222222</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="2"/>
+        <v>45923.71597222222</v>
+      </c>
+      <c r="D5">
+        <v>20.21</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>2.2433333333333336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" si="1"/>
+        <v>45923.71597222222</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="2"/>
+        <v>45923.96597222222</v>
+      </c>
+      <c r="D6">
+        <v>20.74</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>2.3316666666666666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="1"/>
+        <v>45923.96597222222</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="2"/>
+        <v>45924.21597222222</v>
+      </c>
+      <c r="D7">
+        <v>20.36</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>2.2683333333333331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="1"/>
+        <v>45924.21597222222</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="2"/>
+        <v>45924.46597222222</v>
+      </c>
+      <c r="D8">
+        <v>21.01</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>2.3766666666666669</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="1"/>
+        <v>45924.46597222222</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="2"/>
+        <v>45924.71597222222</v>
+      </c>
+      <c r="F9">
+        <v>7.98</v>
+      </c>
+      <c r="G9">
+        <v>484</v>
+      </c>
+      <c r="H9">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="1"/>
+        <v>45924.71597222222</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="2"/>
+        <v>45924.96597222222</v>
+      </c>
+      <c r="D10">
+        <v>21.15</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="1"/>
+        <v>45924.96597222222</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="2"/>
+        <v>45925.21597222222</v>
+      </c>
+      <c r="D11">
+        <v>20.98</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>2.3716666666666666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="1"/>
+        <v>45925.21597222222</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="2"/>
+        <v>45925.46597222222</v>
+      </c>
+      <c r="D12">
+        <v>17.38</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>1.7716666666666665</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="1"/>
+        <v>45925.46597222222</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="2"/>
+        <v>45925.71597222222</v>
+      </c>
+      <c r="D13">
+        <v>21.34</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>2.4316666666666666</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" si="1"/>
+        <v>45925.71597222222</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="2"/>
+        <v>45925.96597222222</v>
+      </c>
+      <c r="D14">
+        <v>21.16</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>2.4016666666666668</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" si="1"/>
+        <v>45925.96597222222</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="2"/>
+        <v>45926.21597222222</v>
+      </c>
+      <c r="D15">
+        <v>21.19</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>2.4066666666666667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" si="1"/>
+        <v>45926.21597222222</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="2"/>
+        <v>45926.46597222222</v>
+      </c>
+      <c r="D16">
+        <v>21.3</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>2.4250000000000003</v>
+      </c>
+      <c r="F16">
+        <v>7.88</v>
+      </c>
+      <c r="G16">
+        <v>621</v>
+      </c>
+      <c r="H16">
+        <v>4.7E-2</v>
+      </c>
+      <c r="L16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" si="1"/>
+        <v>45926.46597222222</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="2"/>
+        <v>45926.71597222222</v>
+      </c>
+      <c r="L17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="1"/>
+        <v>45926.71597222222</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="2"/>
+        <v>45926.96597222222</v>
+      </c>
+      <c r="D18">
+        <v>20.8</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>2.3416666666666668</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="1"/>
+        <v>45926.96597222222</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="2"/>
+        <v>45927.21597222222</v>
+      </c>
+      <c r="D19">
+        <v>21.05</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>2.3833333333333333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" si="1"/>
+        <v>45927.21597222222</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="2"/>
+        <v>45927.46597222222</v>
+      </c>
+      <c r="D20">
+        <v>20.87</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>2.3533333333333335</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" si="1"/>
+        <v>45927.46597222222</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="2"/>
+        <v>45927.71597222222</v>
+      </c>
+      <c r="D21">
+        <v>21.15</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" si="1"/>
+        <v>45927.71597222222</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="2"/>
+        <v>45927.96597222222</v>
+      </c>
+      <c r="D22">
+        <v>21.16</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>2.4016666666666668</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" s="1">
+        <f t="shared" si="1"/>
+        <v>45927.96597222222</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" si="2"/>
+        <v>45928.21597222222</v>
+      </c>
+      <c r="D23">
+        <v>20.93</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>2.3633333333333333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" si="1"/>
+        <v>45928.21597222222</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" si="2"/>
+        <v>45928.46597222222</v>
+      </c>
+      <c r="D24">
+        <v>21.63</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>2.48</v>
+      </c>
+      <c r="F24">
+        <v>8.07</v>
+      </c>
+      <c r="G24">
+        <v>583</v>
+      </c>
+      <c r="H24">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>149</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" si="1"/>
+        <v>45928.46597222222</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="2"/>
+        <v>45928.71597222222</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" si="1"/>
+        <v>45928.71597222222</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="2"/>
+        <v>45928.96597222222</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" s="1">
+        <f t="shared" si="1"/>
+        <v>45928.96597222222</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="2"/>
+        <v>45929.21597222222</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28" s="1">
+        <f t="shared" si="1"/>
+        <v>45929.21597222222</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="2"/>
+        <v>45929.46597222222</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>153</v>
+      </c>
+      <c r="B29" s="1">
+        <f t="shared" si="1"/>
+        <v>45929.46597222222</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="2"/>
+        <v>45929.71597222222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>154</v>
+      </c>
+      <c r="B30" s="1">
+        <f t="shared" si="1"/>
+        <v>45929.71597222222</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" si="2"/>
+        <v>45929.96597222222</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>155</v>
+      </c>
+      <c r="B31" s="1">
+        <f t="shared" si="1"/>
+        <v>45929.96597222222</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" si="2"/>
+        <v>45930.21597222222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>156</v>
+      </c>
+      <c r="B32" s="1">
+        <f t="shared" si="1"/>
+        <v>45930.21597222222</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" si="2"/>
+        <v>45930.46597222222</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>157</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="1"/>
+        <v>45930.46597222222</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="2"/>
+        <v>45930.71597222222</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>158</v>
+      </c>
+      <c r="B34" s="1">
+        <f t="shared" si="1"/>
+        <v>45930.71597222222</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" si="2"/>
+        <v>45930.96597222222</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>159</v>
+      </c>
+      <c r="B35" s="1">
+        <f t="shared" si="1"/>
+        <v>45930.96597222222</v>
+      </c>
+      <c r="C35" s="1">
+        <f t="shared" si="2"/>
+        <v>45931.21597222222</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>160</v>
+      </c>
+      <c r="B36" s="1">
+        <f t="shared" si="1"/>
+        <v>45931.21597222222</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" si="2"/>
+        <v>45931.46597222222</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16994493-3AAA-0649-9876-DE782407159B}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1184,12 +3947,56 @@
         <v>45924.708333333336</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45926.600694444445</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45926.642361111109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45926.600694444445</v>
+      </c>
+      <c r="C7" s="1">
+        <v>45926.642361111109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45926.600694444445</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45926.642361111109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45926.600694444445</v>
+      </c>
+      <c r="C9" s="1">
+        <v>45926.642361111109</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5BDF59F-AB87-404D-AFD3-7683E8E88CAC}">
   <dimension ref="A1:H1"/>
   <sheetViews>

--- a/data/exp_raw/ssexp_data.xlsx
+++ b/data/exp_raw/ssexp_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vcantarella/Documents/FuhrbergerColumns/data/exp_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF13E4D-269A-2B42-BA38-952C520B1A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BBF40B-AB9E-A84B-A02E-54BDD392B269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16680" activeTab="3" xr2:uid="{82067E57-95C1-4A4D-B858-7597035F15DE}"/>
+    <workbookView xWindow="620" yWindow="800" windowWidth="28040" windowHeight="16680" activeTab="3" xr2:uid="{82067E57-95C1-4A4D-B858-7597035F15DE}"/>
   </bookViews>
   <sheets>
     <sheet name="general_samples_p1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,12 @@
     <sheet name="general_samples_p4" sheetId="6" r:id="rId4"/>
     <sheet name="fe" sheetId="2" r:id="rId5"/>
     <sheet name="hs" sheetId="3" r:id="rId6"/>
+    <sheet name="standard_curve_no2" sheetId="7" r:id="rId7"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="190">
   <si>
     <t>Sample</t>
   </si>
@@ -533,13 +538,91 @@
   </si>
   <si>
     <t>* volume sample interrupted because of Fe sampling</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>column/batch</t>
+  </si>
+  <si>
+    <t>val1</t>
+  </si>
+  <si>
+    <t>dil</t>
+  </si>
+  <si>
+    <t>no2- [micromol/L]</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Value 1</t>
+  </si>
+  <si>
+    <t>Value 2</t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>19-20B</t>
+  </si>
+  <si>
+    <t>13-14A</t>
+  </si>
+  <si>
+    <t>13-14B</t>
+  </si>
+  <si>
+    <t>17-18B</t>
+  </si>
+  <si>
+    <t>16-17B</t>
+  </si>
+  <si>
+    <t>17-18A</t>
+  </si>
+  <si>
+    <t>18-19</t>
+  </si>
+  <si>
+    <t>19-20A</t>
+  </si>
+  <si>
+    <t>16-17A</t>
+  </si>
+  <si>
+    <t>P1T0</t>
+  </si>
+  <si>
+    <t>P2T0</t>
+  </si>
+  <si>
+    <t>P3T0</t>
+  </si>
+  <si>
+    <t>P4T0</t>
+  </si>
+  <si>
+    <t>* cleaned pump tubing</t>
+  </si>
+  <si>
+    <t>* vial broke + cleaned pump tubing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -549,6 +632,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -574,9 +664,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -592,6 +683,1148 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>calibration range</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.8468522626868989E-2"/>
+                  <c:y val="-1.6007093312307215E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-DE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>standard_curve_no2!$J$2:$J$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.59166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34966666666666663</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27066666666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.6000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[2]standard_curve_plate 2'!$H$2:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-088E-7F4D-9215-C1CC9BC3BE0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1885324960"/>
+        <c:axId val="1885326672"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1885324960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1885326672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1885326672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1885324960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>379240</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>50494</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07996E71-4B72-9647-A6A7-F60A119B0F97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="standard_curve_no2-test"/>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="J2">
+            <v>0.59166666666666667</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="J3">
+            <v>0.48500000000000004</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="J4">
+            <v>0.34966666666666663</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>0.27066666666666667</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>0.15166666666666667</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="J7">
+            <v>8.6000000000000007E-2</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="J8">
+            <v>4.6000000000000006E-2</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="J9">
+            <v>4.4999999999999998E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="standard_curve_plate_1"/>
+      <sheetName val="standard_curve_plate 2"/>
+      <sheetName val="standard_curve_plate_3"/>
+      <sheetName val="standard_curve_plate 4"/>
+      <sheetName val="fe_plate_1"/>
+      <sheetName val="br_standard_curve"/>
+      <sheetName val="sampling"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="data"/>
+      <sheetName val="new_data"/>
+      <sheetName val="Sheet2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="H2">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="H3">
+            <v>40</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="H4">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="H5">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="H6">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="H7">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="H8">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -914,7 +2147,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -977,7 +2210,7 @@
         <v>18.91</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E24" si="0">(D2-6.75)/6</f>
+        <f t="shared" ref="E2:E28" si="0">(D2-6.75)/6</f>
         <v>2.0266666666666668</v>
       </c>
     </row>
@@ -1461,6 +2694,13 @@
         <f t="shared" si="2"/>
         <v>45928.71597222222</v>
       </c>
+      <c r="D25">
+        <v>18.350000000000001</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>1.9333333333333336</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -1474,6 +2714,13 @@
         <f t="shared" si="2"/>
         <v>45928.96597222222</v>
       </c>
+      <c r="D26">
+        <v>18.22</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>1.9116666666666664</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -1487,6 +2734,13 @@
         <f t="shared" si="2"/>
         <v>45929.21597222222</v>
       </c>
+      <c r="D27">
+        <v>18.29</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>1.9233333333333331</v>
+      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -1499,6 +2753,25 @@
       <c r="C28" s="1">
         <f t="shared" si="2"/>
         <v>45929.46597222222</v>
+      </c>
+      <c r="D28">
+        <v>18.190000000000001</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>1.906666666666667</v>
+      </c>
+      <c r="F28">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="G28">
+        <v>924</v>
+      </c>
+      <c r="H28">
+        <v>14.4</v>
+      </c>
+      <c r="L28" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -1616,7 +2889,7 @@
   <dimension ref="A1:L62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1677,7 +2950,7 @@
         <v>17.7</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E24" si="0">(D2-6.75)/6</f>
+        <f t="shared" ref="E2:E27" si="0">(D2-6.75)/6</f>
         <v>1.825</v>
       </c>
     </row>
@@ -2161,6 +3434,13 @@
         <f t="shared" si="2"/>
         <v>45928.71597222222</v>
       </c>
+      <c r="D25">
+        <v>19.48</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>2.1216666666666666</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -2174,6 +3454,13 @@
         <f t="shared" si="2"/>
         <v>45928.96597222222</v>
       </c>
+      <c r="D26">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>2.1083333333333329</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -2187,6 +3474,22 @@
         <f t="shared" si="2"/>
         <v>45929.21597222222</v>
       </c>
+      <c r="D27">
+        <v>19.63</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>2.1466666666666665</v>
+      </c>
+      <c r="F27">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="G27">
+        <v>846</v>
+      </c>
+      <c r="H27">
+        <v>13.3</v>
+      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -2199,6 +3502,9 @@
       <c r="C28" s="1">
         <f t="shared" si="2"/>
         <v>45929.46597222222</v>
+      </c>
+      <c r="L28" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -2420,7 +3726,7 @@
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2481,7 +3787,7 @@
         <v>17.64</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E24" si="0">(D2-6.75)/6</f>
+        <f t="shared" ref="E2:E28" si="0">(D2-6.75)/6</f>
         <v>1.8150000000000002</v>
       </c>
     </row>
@@ -2965,6 +4271,13 @@
         <f t="shared" si="2"/>
         <v>45928.71597222222</v>
       </c>
+      <c r="D25">
+        <v>19.88</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>2.188333333333333</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -2978,6 +4291,13 @@
         <f t="shared" si="2"/>
         <v>45928.96597222222</v>
       </c>
+      <c r="D26">
+        <v>19.73</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>2.1633333333333336</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -2991,6 +4311,13 @@
         <f t="shared" si="2"/>
         <v>45929.21597222222</v>
       </c>
+      <c r="D27">
+        <v>19.77</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>2.17</v>
+      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -3003,6 +4330,25 @@
       <c r="C28" s="1">
         <f t="shared" si="2"/>
         <v>45929.46597222222</v>
+      </c>
+      <c r="D28">
+        <v>19.89</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>2.19</v>
+      </c>
+      <c r="F28">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="G28">
+        <v>872</v>
+      </c>
+      <c r="H28">
+        <v>13.2</v>
+      </c>
+      <c r="L28" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -3180,7 +4526,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3241,7 +4587,7 @@
         <v>18.05</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E24" si="0">(D2-6.75)/6</f>
+        <f t="shared" ref="E2:E28" si="0">(D2-6.75)/6</f>
         <v>1.8833333333333335</v>
       </c>
     </row>
@@ -3725,6 +5071,13 @@
         <f t="shared" si="2"/>
         <v>45928.71597222222</v>
       </c>
+      <c r="D25">
+        <v>21.45</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>2.4499999999999997</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -3738,6 +5091,13 @@
         <f t="shared" si="2"/>
         <v>45928.96597222222</v>
       </c>
+      <c r="D26">
+        <v>21.28</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>2.4216666666666669</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -3751,6 +5111,13 @@
         <f t="shared" si="2"/>
         <v>45929.21597222222</v>
       </c>
+      <c r="D27">
+        <v>20.92</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>2.3616666666666668</v>
+      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -3763,6 +5130,25 @@
       <c r="C28" s="1">
         <f t="shared" si="2"/>
         <v>45929.46597222222</v>
+      </c>
+      <c r="D28">
+        <v>20.99</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>2.3733333333333331</v>
+      </c>
+      <c r="F28">
+        <v>7.95</v>
+      </c>
+      <c r="G28">
+        <v>635</v>
+      </c>
+      <c r="H28">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L28" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -4035,4 +5421,750 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A1C8F7-0C5B-6045-992F-0FD6B0162923}">
+  <dimension ref="A1:J37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>12.09</v>
+      </c>
+      <c r="B2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" t="str">
+        <f>_xlfn.CONCAT("F",B2,"-",A2)</f>
+        <v>FP1-12.09</v>
+      </c>
+      <c r="D2">
+        <v>0.314</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F12" si="0">64.069*AVERAGE(D2:D2)-2.8707</f>
+        <v>17.246966</v>
+      </c>
+      <c r="G2">
+        <v>50</v>
+      </c>
+      <c r="H2">
+        <v>0.873</v>
+      </c>
+      <c r="I2">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J8" si="1">SUM(H2:I2)/3</f>
+        <v>0.59166666666666667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>12.09</v>
+      </c>
+      <c r="B3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C13" si="2">_xlfn.CONCAT("F",B3,"-",A3)</f>
+        <v>Fcontrol-12.09</v>
+      </c>
+      <c r="D3">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>11.672963000000001</v>
+      </c>
+      <c r="G3">
+        <v>40</v>
+      </c>
+      <c r="H3">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="I3">
+        <v>0.74</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="1"/>
+        <v>0.48500000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>12.09</v>
+      </c>
+      <c r="B4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="2"/>
+        <v>F19-20B-12.09</v>
+      </c>
+      <c r="D4">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>10.263445000000001</v>
+      </c>
+      <c r="G4">
+        <v>30</v>
+      </c>
+      <c r="H4">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="I4">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>0.34966666666666663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>12.09</v>
+      </c>
+      <c r="B5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="2"/>
+        <v>F13-14A-12.09</v>
+      </c>
+      <c r="D5">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0.90937100000000015</v>
+      </c>
+      <c r="G5">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="I5">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>0.27066666666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>12.09</v>
+      </c>
+      <c r="B6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="2"/>
+        <v>F13-14B-12.09</v>
+      </c>
+      <c r="D6">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>8.1491679999999995</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>0.15166666666666667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>12.09</v>
+      </c>
+      <c r="B7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="2"/>
+        <v>F17-18B-12.09</v>
+      </c>
+      <c r="D7">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>1.5500610000000008</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>0.128</v>
+      </c>
+      <c r="I7">
+        <v>0.13</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>8.6000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>12.09</v>
+      </c>
+      <c r="B8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="2"/>
+        <v>F16-17B-12.09</v>
+      </c>
+      <c r="D8">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>3.4721310000000005</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I8">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>4.6000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>12.09</v>
+      </c>
+      <c r="B9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="2"/>
+        <v>F17-18A-12.09</v>
+      </c>
+      <c r="D9">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>2.7033030000000005</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="I9">
+        <v>3.9E-2</v>
+      </c>
+      <c r="J9">
+        <f>SUM(H9:I9)/2</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>12.09</v>
+      </c>
+      <c r="B10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="2"/>
+        <v>F18-19-12.09</v>
+      </c>
+      <c r="D10">
+        <v>0.09</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>2.8955100000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>12.09</v>
+      </c>
+      <c r="B11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="2"/>
+        <v>F19-20A-12.09</v>
+      </c>
+      <c r="D11">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0.84530200000000066</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>12.09</v>
+      </c>
+      <c r="B12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="2"/>
+        <v>F16-17A-12.09</v>
+      </c>
+      <c r="D12">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>7.8288230000000016</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>14.09</v>
+      </c>
+      <c r="B13" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="2"/>
+        <v>FP1-14.09</v>
+      </c>
+      <c r="D13">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <f>(64.069*AVERAGE(D13:D13)-2.8707)*E13</f>
+        <v>153.04639200000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>184</v>
+      </c>
+      <c r="D14">
+        <v>0.126</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ref="F14:F37" si="3">(64.069*AVERAGE(D14:D14)-2.8707)*E14</f>
+        <v>20.807976000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>39.259848000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16">
+        <v>0.19</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>37.209640000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>34.390604000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>39.003572000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19">
+        <v>0.183</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>35.415708000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>185</v>
+      </c>
+      <c r="D20">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="3"/>
+        <v>-2.5131399999999982</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="3"/>
+        <v>985.62932000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="E22">
+        <v>20</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="3"/>
+        <v>817.76854000000014</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23">
+        <v>0.51</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="3"/>
+        <v>298.04489999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="3"/>
+        <v>216.03658000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25">
+        <v>0.31</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="3"/>
+        <v>169.90690000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>186</v>
+      </c>
+      <c r="D26">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="3"/>
+        <v>-0.71920799999999829</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="E27">
+        <v>20</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="3"/>
+        <v>812.64302000000021</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28">
+        <v>0.629</v>
+      </c>
+      <c r="E28">
+        <v>20</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="3"/>
+        <v>748.57402000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="3"/>
+        <v>488.32983000000007</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30">
+        <v>0.626</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="3"/>
+        <v>372.36493999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>125</v>
+      </c>
+      <c r="D31">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="3"/>
+        <v>328.79802000000007</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C32" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D32">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="3"/>
+        <v>0.65309500000000043</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="3"/>
+        <v>-0.56421600000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="3"/>
+        <v>-0.62828499999999954</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C35" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D35">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="3"/>
+        <v>-0.50014699999999968</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C36" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D36">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="3"/>
+        <v>-0.43607799999999974</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C37" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D37">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="3"/>
+        <v>-0.69235399999999947</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/exp_raw/ssexp_data.xlsx
+++ b/data/exp_raw/ssexp_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vcantarella/Documents/FuhrbergerColumns/data/exp_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BBF40B-AB9E-A84B-A02E-54BDD392B269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9CE55B-1902-1A41-B0FC-625C86104041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="800" windowWidth="28040" windowHeight="16680" activeTab="3" xr2:uid="{82067E57-95C1-4A4D-B858-7597035F15DE}"/>
+    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16680" activeTab="6" xr2:uid="{82067E57-95C1-4A4D-B858-7597035F15DE}"/>
   </bookViews>
   <sheets>
     <sheet name="general_samples_p1" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,9 @@
     <sheet name="fe" sheetId="2" r:id="rId5"/>
     <sheet name="hs" sheetId="3" r:id="rId6"/>
     <sheet name="standard_curve_no2" sheetId="7" r:id="rId7"/>
+    <sheet name="fe_plate_1" sheetId="8" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
   </externalReferences>
   <calcPr calcId="191029"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="291">
   <si>
     <t>Sample</t>
   </si>
@@ -616,6 +616,309 @@
   </si>
   <si>
     <t>* vial broke + cleaned pump tubing</t>
+  </si>
+  <si>
+    <t>time_label</t>
+  </si>
+  <si>
+    <t>column</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>val2</t>
+  </si>
+  <si>
+    <t>fe2+ [micromol/L]</t>
+  </si>
+  <si>
+    <t>Value 3</t>
+  </si>
+  <si>
+    <t>slope</t>
+  </si>
+  <si>
+    <t>P1F3</t>
+  </si>
+  <si>
+    <t>P2F3</t>
+  </si>
+  <si>
+    <t>P3F3</t>
+  </si>
+  <si>
+    <t>P4F3</t>
+  </si>
+  <si>
+    <t>P1T36</t>
+  </si>
+  <si>
+    <t>P1T37</t>
+  </si>
+  <si>
+    <t>P1T38</t>
+  </si>
+  <si>
+    <t>P1T39</t>
+  </si>
+  <si>
+    <t>P1T40</t>
+  </si>
+  <si>
+    <t>P1T41</t>
+  </si>
+  <si>
+    <t>P1T42</t>
+  </si>
+  <si>
+    <t>P1T43</t>
+  </si>
+  <si>
+    <t>P1T44</t>
+  </si>
+  <si>
+    <t>P1T45</t>
+  </si>
+  <si>
+    <t>P1T46</t>
+  </si>
+  <si>
+    <t>P1T47</t>
+  </si>
+  <si>
+    <t>P1T48</t>
+  </si>
+  <si>
+    <t>P1T49</t>
+  </si>
+  <si>
+    <t>P1T50</t>
+  </si>
+  <si>
+    <t>P1T51</t>
+  </si>
+  <si>
+    <t>P1T52</t>
+  </si>
+  <si>
+    <t>P1T53</t>
+  </si>
+  <si>
+    <t>P1T54</t>
+  </si>
+  <si>
+    <t>P1T55</t>
+  </si>
+  <si>
+    <t>P2T36</t>
+  </si>
+  <si>
+    <t>P2T37</t>
+  </si>
+  <si>
+    <t>P2T38</t>
+  </si>
+  <si>
+    <t>P2T39</t>
+  </si>
+  <si>
+    <t>P2T40</t>
+  </si>
+  <si>
+    <t>P2T41</t>
+  </si>
+  <si>
+    <t>P2T42</t>
+  </si>
+  <si>
+    <t>P2T43</t>
+  </si>
+  <si>
+    <t>P2T44</t>
+  </si>
+  <si>
+    <t>P2T45</t>
+  </si>
+  <si>
+    <t>P2T46</t>
+  </si>
+  <si>
+    <t>P2T47</t>
+  </si>
+  <si>
+    <t>P2T48</t>
+  </si>
+  <si>
+    <t>P2T49</t>
+  </si>
+  <si>
+    <t>P2T50</t>
+  </si>
+  <si>
+    <t>P2T51</t>
+  </si>
+  <si>
+    <t>P2T52</t>
+  </si>
+  <si>
+    <t>P2T53</t>
+  </si>
+  <si>
+    <t>P2T54</t>
+  </si>
+  <si>
+    <t>P2T55</t>
+  </si>
+  <si>
+    <t>P3T36</t>
+  </si>
+  <si>
+    <t>P3T37</t>
+  </si>
+  <si>
+    <t>P3T38</t>
+  </si>
+  <si>
+    <t>P3T39</t>
+  </si>
+  <si>
+    <t>P3T40</t>
+  </si>
+  <si>
+    <t>P3T41</t>
+  </si>
+  <si>
+    <t>P3T42</t>
+  </si>
+  <si>
+    <t>P3T43</t>
+  </si>
+  <si>
+    <t>P3T44</t>
+  </si>
+  <si>
+    <t>P3T45</t>
+  </si>
+  <si>
+    <t>P3T46</t>
+  </si>
+  <si>
+    <t>P3T47</t>
+  </si>
+  <si>
+    <t>P3T48</t>
+  </si>
+  <si>
+    <t>P3T49</t>
+  </si>
+  <si>
+    <t>P3T50</t>
+  </si>
+  <si>
+    <t>P3T51</t>
+  </si>
+  <si>
+    <t>P3T52</t>
+  </si>
+  <si>
+    <t>P3T53</t>
+  </si>
+  <si>
+    <t>P3T54</t>
+  </si>
+  <si>
+    <t>P3T55</t>
+  </si>
+  <si>
+    <t>P4T36</t>
+  </si>
+  <si>
+    <t>P4T37</t>
+  </si>
+  <si>
+    <t>P4T38</t>
+  </si>
+  <si>
+    <t>P4T39</t>
+  </si>
+  <si>
+    <t>P4T40</t>
+  </si>
+  <si>
+    <t>P4T41</t>
+  </si>
+  <si>
+    <t>P4T42</t>
+  </si>
+  <si>
+    <t>P4T43</t>
+  </si>
+  <si>
+    <t>P4T44</t>
+  </si>
+  <si>
+    <t>P4T45</t>
+  </si>
+  <si>
+    <t>P4T46</t>
+  </si>
+  <si>
+    <t>P4T47</t>
+  </si>
+  <si>
+    <t>P4T48</t>
+  </si>
+  <si>
+    <t>P4T49</t>
+  </si>
+  <si>
+    <t>P4T50</t>
+  </si>
+  <si>
+    <t>P4T51</t>
+  </si>
+  <si>
+    <t>P4T52</t>
+  </si>
+  <si>
+    <t>P4T53</t>
+  </si>
+  <si>
+    <t>P4T54</t>
+  </si>
+  <si>
+    <t>P4T55</t>
+  </si>
+  <si>
+    <t>P1T56</t>
+  </si>
+  <si>
+    <t>P1T57</t>
+  </si>
+  <si>
+    <t>P1T58</t>
+  </si>
+  <si>
+    <t>P1T59</t>
+  </si>
+  <si>
+    <t>P1T60</t>
+  </si>
+  <si>
+    <t>P1T61</t>
+  </si>
+  <si>
+    <t>P1T62</t>
+  </si>
+  <si>
+    <t>P1T63</t>
+  </si>
+  <si>
+    <t>* auto smapler failed</t>
+  </si>
+  <si>
+    <t>* vial leaked (bad cap)</t>
   </si>
 </sst>
 </file>
@@ -905,7 +1208,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]standard_curve_plate 2'!$H$2:$H$8</c:f>
+              <c:f>'[1]standard_curve_plate 2'!$H$2:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1097,6 +1400,421 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fe_plate_1!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.40496723804367729"/>
+                  <c:y val="-3.6085010650264461E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-DE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>fe_plate_1!$M$3:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.82450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1915</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.7499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.5999999999999994E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>fe_plate_1!$I$3:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-965F-5541-BCF4-A4E25A2584BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="683948543"/>
+        <c:axId val="683950255"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="683948543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="683950255"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="683950255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="683948543"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1137,7 +1855,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1696,66 +2970,50 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="standard_curve_no2-test"/>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="J2">
-            <v>0.59166666666666667</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="J3">
-            <v>0.48500000000000004</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="J4">
-            <v>0.34966666666666663</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="J5">
-            <v>0.27066666666666667</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="J6">
-            <v>0.15166666666666667</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="J7">
-            <v>8.6000000000000007E-2</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="J8">
-            <v>4.6000000000000006E-2</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="J9">
-            <v>4.4999999999999998E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA1D0600-A7AC-0A46-ABE2-1798D8ACE7F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -2144,10 +3402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE2E69C-B565-9948-8744-019B7DBC9C60}">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2210,7 +3468,7 @@
         <v>18.91</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E28" si="0">(D2-6.75)/6</f>
+        <f t="shared" ref="E2:E48" si="0">(D2-6.75)/6</f>
         <v>2.0266666666666668</v>
       </c>
     </row>
@@ -2786,6 +4044,13 @@
         <f t="shared" si="2"/>
         <v>45929.71597222222</v>
       </c>
+      <c r="D29">
+        <v>20.87</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>2.3533333333333335</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -2799,6 +4064,13 @@
         <f t="shared" si="2"/>
         <v>45929.96597222222</v>
       </c>
+      <c r="D30">
+        <v>20.440000000000001</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>2.2816666666666667</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -2812,6 +4084,13 @@
         <f t="shared" si="2"/>
         <v>45930.21597222222</v>
       </c>
+      <c r="D31">
+        <v>19.420000000000002</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>2.1116666666666668</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -2825,8 +4104,15 @@
         <f t="shared" si="2"/>
         <v>45930.46597222222</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <v>19.97</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>2.2033333333333331</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>76</v>
       </c>
@@ -2839,7 +4125,7 @@
         <v>45930.71597222222</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -2851,8 +4137,15 @@
         <f t="shared" si="2"/>
         <v>45930.96597222222</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34">
+        <v>19.61</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>2.1433333333333331</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>78</v>
       </c>
@@ -2864,8 +4157,15 @@
         <f t="shared" si="2"/>
         <v>45931.21597222222</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35">
+        <v>19.5</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>2.125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -2876,6 +4176,491 @@
       <c r="C36" s="1">
         <f t="shared" si="2"/>
         <v>45931.46597222222</v>
+      </c>
+      <c r="D36">
+        <v>19.39</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>2.1066666666666669</v>
+      </c>
+      <c r="F36">
+        <v>8.14</v>
+      </c>
+      <c r="G36">
+        <v>897</v>
+      </c>
+      <c r="H36">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>201</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" ref="B37:B49" si="3">C36</f>
+        <v>45931.46597222222</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" ref="C37:C49" si="4">B37+6/24</f>
+        <v>45931.71597222222</v>
+      </c>
+      <c r="D37">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>1.9900000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>202</v>
+      </c>
+      <c r="B38" s="1">
+        <f t="shared" si="3"/>
+        <v>45931.71597222222</v>
+      </c>
+      <c r="C38" s="1">
+        <f t="shared" si="4"/>
+        <v>45931.96597222222</v>
+      </c>
+      <c r="D38">
+        <v>18.61</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>1.9766666666666666</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>203</v>
+      </c>
+      <c r="B39" s="1">
+        <f t="shared" si="3"/>
+        <v>45931.96597222222</v>
+      </c>
+      <c r="C39" s="1">
+        <f t="shared" si="4"/>
+        <v>45932.21597222222</v>
+      </c>
+      <c r="D39">
+        <v>18.55</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>1.9666666666666668</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>204</v>
+      </c>
+      <c r="B40" s="1">
+        <f t="shared" si="3"/>
+        <v>45932.21597222222</v>
+      </c>
+      <c r="C40" s="1">
+        <f t="shared" si="4"/>
+        <v>45932.46597222222</v>
+      </c>
+      <c r="D40">
+        <v>18.52</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>1.9616666666666667</v>
+      </c>
+      <c r="F40">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="G40">
+        <v>866</v>
+      </c>
+      <c r="H40">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>205</v>
+      </c>
+      <c r="B41" s="1">
+        <f t="shared" si="3"/>
+        <v>45932.46597222222</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" si="4"/>
+        <v>45932.71597222222</v>
+      </c>
+      <c r="D41">
+        <v>18.54</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>1.9649999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>206</v>
+      </c>
+      <c r="B42" s="1">
+        <f t="shared" si="3"/>
+        <v>45932.71597222222</v>
+      </c>
+      <c r="C42" s="1">
+        <f t="shared" si="4"/>
+        <v>45932.96597222222</v>
+      </c>
+      <c r="D42">
+        <v>18.28</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>1.9216666666666669</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>207</v>
+      </c>
+      <c r="B43" s="1">
+        <f t="shared" si="3"/>
+        <v>45932.96597222222</v>
+      </c>
+      <c r="C43" s="1">
+        <f t="shared" si="4"/>
+        <v>45933.21597222222</v>
+      </c>
+      <c r="D43">
+        <v>18.28</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>1.9216666666666669</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>208</v>
+      </c>
+      <c r="B44" s="1">
+        <f t="shared" si="3"/>
+        <v>45933.21597222222</v>
+      </c>
+      <c r="C44" s="1">
+        <f t="shared" si="4"/>
+        <v>45933.46597222222</v>
+      </c>
+      <c r="D44">
+        <v>18.3</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>1.925</v>
+      </c>
+      <c r="H44">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>209</v>
+      </c>
+      <c r="B45" s="1">
+        <f t="shared" si="3"/>
+        <v>45933.46597222222</v>
+      </c>
+      <c r="C45" s="1">
+        <f t="shared" si="4"/>
+        <v>45933.71597222222</v>
+      </c>
+      <c r="D45">
+        <v>18.329999999999998</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>1.9299999999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>210</v>
+      </c>
+      <c r="B46" s="1">
+        <f t="shared" si="3"/>
+        <v>45933.71597222222</v>
+      </c>
+      <c r="C46" s="1">
+        <f t="shared" si="4"/>
+        <v>45933.96597222222</v>
+      </c>
+      <c r="D46">
+        <v>17.13</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>1.7299999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>211</v>
+      </c>
+      <c r="B47" s="1">
+        <f t="shared" si="3"/>
+        <v>45933.96597222222</v>
+      </c>
+      <c r="C47" s="1">
+        <f t="shared" si="4"/>
+        <v>45934.21597222222</v>
+      </c>
+      <c r="D47">
+        <v>18.28</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>1.9216666666666669</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>212</v>
+      </c>
+      <c r="B48" s="1">
+        <f t="shared" si="3"/>
+        <v>45934.21597222222</v>
+      </c>
+      <c r="C48" s="1">
+        <f t="shared" si="4"/>
+        <v>45934.46597222222</v>
+      </c>
+      <c r="D48">
+        <v>18.309999999999999</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>1.9266666666666665</v>
+      </c>
+      <c r="F48">
+        <v>8.32</v>
+      </c>
+      <c r="G48">
+        <v>855</v>
+      </c>
+      <c r="H48">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>213</v>
+      </c>
+      <c r="B49" s="1">
+        <f t="shared" si="3"/>
+        <v>45934.46597222222</v>
+      </c>
+      <c r="C49" s="1">
+        <f t="shared" si="4"/>
+        <v>45934.71597222222</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>214</v>
+      </c>
+      <c r="B50" s="1">
+        <f t="shared" ref="B50:B56" si="5">C49</f>
+        <v>45934.71597222222</v>
+      </c>
+      <c r="C50" s="1">
+        <f t="shared" ref="C50:C56" si="6">B50+6/24</f>
+        <v>45934.96597222222</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>215</v>
+      </c>
+      <c r="B51" s="1">
+        <f t="shared" si="5"/>
+        <v>45934.96597222222</v>
+      </c>
+      <c r="C51" s="1">
+        <f t="shared" si="6"/>
+        <v>45935.21597222222</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>216</v>
+      </c>
+      <c r="B52" s="1">
+        <f t="shared" si="5"/>
+        <v>45935.21597222222</v>
+      </c>
+      <c r="C52" s="1">
+        <f t="shared" si="6"/>
+        <v>45935.46597222222</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>217</v>
+      </c>
+      <c r="B53" s="1">
+        <f t="shared" si="5"/>
+        <v>45935.46597222222</v>
+      </c>
+      <c r="C53" s="1">
+        <f t="shared" si="6"/>
+        <v>45935.71597222222</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>218</v>
+      </c>
+      <c r="B54" s="1">
+        <f t="shared" si="5"/>
+        <v>45935.71597222222</v>
+      </c>
+      <c r="C54" s="1">
+        <f t="shared" si="6"/>
+        <v>45935.96597222222</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>219</v>
+      </c>
+      <c r="B55" s="1">
+        <f t="shared" si="5"/>
+        <v>45935.96597222222</v>
+      </c>
+      <c r="C55" s="1">
+        <f t="shared" si="6"/>
+        <v>45936.21597222222</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>220</v>
+      </c>
+      <c r="B56" s="1">
+        <f t="shared" si="5"/>
+        <v>45936.21597222222</v>
+      </c>
+      <c r="C56" s="1">
+        <f t="shared" si="6"/>
+        <v>45936.46597222222</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>281</v>
+      </c>
+      <c r="B57" s="1">
+        <f t="shared" ref="B57:B64" si="7">C56</f>
+        <v>45936.46597222222</v>
+      </c>
+      <c r="C57" s="1">
+        <f t="shared" ref="C57:C64" si="8">B57+6/24</f>
+        <v>45936.71597222222</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>282</v>
+      </c>
+      <c r="B58" s="1">
+        <f t="shared" si="7"/>
+        <v>45936.71597222222</v>
+      </c>
+      <c r="C58" s="1">
+        <f t="shared" si="8"/>
+        <v>45936.96597222222</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>283</v>
+      </c>
+      <c r="B59" s="1">
+        <f t="shared" si="7"/>
+        <v>45936.96597222222</v>
+      </c>
+      <c r="C59" s="1">
+        <f t="shared" si="8"/>
+        <v>45937.21597222222</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>284</v>
+      </c>
+      <c r="B60" s="1">
+        <f t="shared" si="7"/>
+        <v>45937.21597222222</v>
+      </c>
+      <c r="C60" s="1">
+        <f t="shared" si="8"/>
+        <v>45937.46597222222</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>285</v>
+      </c>
+      <c r="B61" s="1">
+        <f t="shared" si="7"/>
+        <v>45937.46597222222</v>
+      </c>
+      <c r="C61" s="1">
+        <f t="shared" si="8"/>
+        <v>45937.71597222222</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>286</v>
+      </c>
+      <c r="B62" s="1">
+        <f t="shared" si="7"/>
+        <v>45937.71597222222</v>
+      </c>
+      <c r="C62" s="1">
+        <f t="shared" si="8"/>
+        <v>45937.96597222222</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>287</v>
+      </c>
+      <c r="B63" s="1">
+        <f t="shared" si="7"/>
+        <v>45937.96597222222</v>
+      </c>
+      <c r="C63" s="1">
+        <f t="shared" si="8"/>
+        <v>45938.21597222222</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>288</v>
+      </c>
+      <c r="B64" s="1">
+        <f t="shared" si="7"/>
+        <v>45938.21597222222</v>
+      </c>
+      <c r="C64" s="1">
+        <f t="shared" si="8"/>
+        <v>45938.46597222222</v>
       </c>
     </row>
   </sheetData>
@@ -2888,8 +4673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046BB4A8-8683-FF42-8F76-0A791D85765F}">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2950,7 +4735,7 @@
         <v>17.7</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E27" si="0">(D2-6.75)/6</f>
+        <f t="shared" ref="E2:E26" si="0">(D2-6.75)/6</f>
         <v>1.825</v>
       </c>
     </row>
@@ -3478,7 +5263,7 @@
         <v>19.63</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
+        <f>(D27-6.75)/6</f>
         <v>2.1466666666666665</v>
       </c>
       <c r="F27">
@@ -3519,6 +5304,13 @@
         <f t="shared" si="2"/>
         <v>45929.71597222222</v>
       </c>
+      <c r="D29">
+        <v>22.34</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ref="E29:E46" si="3">(D29-6.75)/6</f>
+        <v>2.5983333333333332</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -3532,6 +5324,13 @@
         <f t="shared" si="2"/>
         <v>45929.96597222222</v>
       </c>
+      <c r="D30">
+        <v>21.75</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -3545,6 +5344,13 @@
         <f t="shared" si="2"/>
         <v>45930.21597222222</v>
       </c>
+      <c r="D31">
+        <v>21.34</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="3"/>
+        <v>2.4316666666666666</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -3558,8 +5364,15 @@
         <f t="shared" si="2"/>
         <v>45930.46597222222</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <v>20.98</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="3"/>
+        <v>2.3716666666666666</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>103</v>
       </c>
@@ -3572,7 +5385,7 @@
         <v>45930.71597222222</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>104</v>
       </c>
@@ -3584,8 +5397,15 @@
         <f t="shared" si="2"/>
         <v>45930.96597222222</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34">
+        <v>18.440000000000001</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="3"/>
+        <v>1.9483333333333335</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>105</v>
       </c>
@@ -3597,8 +5417,15 @@
         <f t="shared" si="2"/>
         <v>45931.21597222222</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35">
+        <v>18.43</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="3"/>
+        <v>1.9466666666666665</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>106</v>
       </c>
@@ -3610,108 +5437,398 @@
         <f t="shared" si="2"/>
         <v>45931.46597222222</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D36">
+        <v>18.27</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="3"/>
+        <v>1.92</v>
+      </c>
+      <c r="F36">
+        <v>7.95</v>
+      </c>
+      <c r="G36">
+        <v>765</v>
+      </c>
+      <c r="H36">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>221</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" ref="B37:B56" si="4">C36</f>
+        <v>45931.46597222222</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" ref="C37:C56" si="5">B37+6/24</f>
+        <v>45931.71597222222</v>
+      </c>
+      <c r="D37">
+        <v>18.89</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="3"/>
+        <v>2.0233333333333334</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>222</v>
+      </c>
+      <c r="B38" s="1">
+        <f t="shared" si="4"/>
+        <v>45931.71597222222</v>
+      </c>
+      <c r="C38" s="1">
+        <f t="shared" si="5"/>
+        <v>45931.96597222222</v>
+      </c>
+      <c r="D38">
+        <v>18.7</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="3"/>
+        <v>1.9916666666666665</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>223</v>
+      </c>
+      <c r="B39" s="1">
+        <f t="shared" si="4"/>
+        <v>45931.96597222222</v>
+      </c>
+      <c r="C39" s="1">
+        <f t="shared" si="5"/>
+        <v>45932.21597222222</v>
+      </c>
+      <c r="D39">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="3"/>
+        <v>1.9833333333333332</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>224</v>
+      </c>
+      <c r="B40" s="1">
+        <f t="shared" si="4"/>
+        <v>45932.21597222222</v>
+      </c>
+      <c r="C40" s="1">
+        <f t="shared" si="5"/>
+        <v>45932.46597222222</v>
+      </c>
+      <c r="D40">
+        <v>18.64</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="3"/>
+        <v>1.9816666666666667</v>
+      </c>
+      <c r="F40">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="G40">
+        <v>867</v>
+      </c>
+      <c r="H40">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>225</v>
+      </c>
+      <c r="B41" s="1">
+        <f t="shared" si="4"/>
+        <v>45932.46597222222</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" si="5"/>
+        <v>45932.71597222222</v>
+      </c>
+      <c r="D41">
+        <v>18.54</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="3"/>
+        <v>1.9649999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>226</v>
+      </c>
+      <c r="B42" s="1">
+        <f t="shared" si="4"/>
+        <v>45932.71597222222</v>
+      </c>
+      <c r="C42" s="1">
+        <f t="shared" si="5"/>
+        <v>45932.96597222222</v>
+      </c>
+      <c r="D42">
+        <v>18.89</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="3"/>
+        <v>2.0233333333333334</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>227</v>
+      </c>
+      <c r="B43" s="1">
+        <f t="shared" si="4"/>
+        <v>45932.96597222222</v>
+      </c>
+      <c r="C43" s="1">
+        <f t="shared" si="5"/>
+        <v>45933.21597222222</v>
+      </c>
+      <c r="D43">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="3"/>
+        <v>2.0399999999999996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>228</v>
+      </c>
+      <c r="B44" s="1">
+        <f t="shared" si="4"/>
+        <v>45933.21597222222</v>
+      </c>
+      <c r="C44" s="1">
+        <f t="shared" si="5"/>
+        <v>45933.46597222222</v>
+      </c>
+      <c r="D44">
+        <v>19.010000000000002</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="3"/>
+        <v>2.0433333333333334</v>
+      </c>
+      <c r="H44">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>229</v>
+      </c>
+      <c r="B45" s="1">
+        <f t="shared" si="4"/>
+        <v>45933.46597222222</v>
+      </c>
+      <c r="C45" s="1">
+        <f t="shared" si="5"/>
+        <v>45933.71597222222</v>
+      </c>
+      <c r="D45">
+        <v>19.010000000000002</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="3"/>
+        <v>2.0433333333333334</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>230</v>
+      </c>
+      <c r="B46" s="1">
+        <f t="shared" si="4"/>
+        <v>45933.71597222222</v>
+      </c>
+      <c r="C46" s="1">
+        <f t="shared" si="5"/>
+        <v>45933.96597222222</v>
+      </c>
+      <c r="D46">
+        <v>18.96</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="3"/>
+        <v>2.0350000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>231</v>
+      </c>
+      <c r="B47" s="1">
+        <f t="shared" si="4"/>
+        <v>45933.96597222222</v>
+      </c>
+      <c r="C47" s="1">
+        <f t="shared" si="5"/>
+        <v>45934.21597222222</v>
+      </c>
+      <c r="F47">
+        <v>8.18</v>
+      </c>
+      <c r="G47">
+        <v>853</v>
+      </c>
+      <c r="H47">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>232</v>
+      </c>
+      <c r="B48" s="1">
+        <f t="shared" si="4"/>
+        <v>45934.21597222222</v>
+      </c>
+      <c r="C48" s="1">
+        <f t="shared" si="5"/>
+        <v>45934.46597222222</v>
+      </c>
+      <c r="L48" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>233</v>
+      </c>
+      <c r="B49" s="1">
+        <f t="shared" si="4"/>
+        <v>45934.46597222222</v>
+      </c>
+      <c r="C49" s="1">
+        <f t="shared" si="5"/>
+        <v>45934.71597222222</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>234</v>
+      </c>
+      <c r="B50" s="1">
+        <f t="shared" si="4"/>
+        <v>45934.71597222222</v>
+      </c>
+      <c r="C50" s="1">
+        <f t="shared" si="5"/>
+        <v>45934.96597222222</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>235</v>
+      </c>
+      <c r="B51" s="1">
+        <f t="shared" si="4"/>
+        <v>45934.96597222222</v>
+      </c>
+      <c r="C51" s="1">
+        <f t="shared" si="5"/>
+        <v>45935.21597222222</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>236</v>
+      </c>
+      <c r="B52" s="1">
+        <f t="shared" si="4"/>
+        <v>45935.21597222222</v>
+      </c>
+      <c r="C52" s="1">
+        <f t="shared" si="5"/>
+        <v>45935.46597222222</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>237</v>
+      </c>
+      <c r="B53" s="1">
+        <f t="shared" si="4"/>
+        <v>45935.46597222222</v>
+      </c>
+      <c r="C53" s="1">
+        <f t="shared" si="5"/>
+        <v>45935.71597222222</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>238</v>
+      </c>
+      <c r="B54" s="1">
+        <f t="shared" si="4"/>
+        <v>45935.71597222222</v>
+      </c>
+      <c r="C54" s="1">
+        <f t="shared" si="5"/>
+        <v>45935.96597222222</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>239</v>
+      </c>
+      <c r="B55" s="1">
+        <f t="shared" si="4"/>
+        <v>45935.96597222222</v>
+      </c>
+      <c r="C55" s="1">
+        <f t="shared" si="5"/>
+        <v>45936.21597222222</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>240</v>
+      </c>
+      <c r="B56" s="1">
+        <f t="shared" si="4"/>
+        <v>45936.21597222222</v>
+      </c>
+      <c r="C56" s="1">
+        <f t="shared" si="5"/>
+        <v>45936.46597222222</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
     </row>
@@ -3723,10 +5840,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{649DD004-07E5-F04F-B76F-816E14D1C8AC}">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3787,7 +5904,7 @@
         <v>17.64</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E28" si="0">(D2-6.75)/6</f>
+        <f t="shared" ref="E2:E48" si="0">(D2-6.75)/6</f>
         <v>1.8150000000000002</v>
       </c>
     </row>
@@ -4363,6 +6480,13 @@
         <f t="shared" si="2"/>
         <v>45929.71597222222</v>
       </c>
+      <c r="D29">
+        <v>22.55</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>2.6333333333333333</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -4376,6 +6500,13 @@
         <f t="shared" si="2"/>
         <v>45929.96597222222</v>
       </c>
+      <c r="D30">
+        <v>22.41</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>2.61</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -4389,6 +6520,13 @@
         <f t="shared" si="2"/>
         <v>45930.21597222222</v>
       </c>
+      <c r="D31">
+        <v>22.18</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>2.5716666666666668</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -4402,8 +6540,15 @@
         <f t="shared" si="2"/>
         <v>45930.46597222222</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <v>21.67</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>2.4866666666666668</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>130</v>
       </c>
@@ -4416,7 +6561,7 @@
         <v>45930.71597222222</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>131</v>
       </c>
@@ -4428,8 +6573,15 @@
         <f t="shared" si="2"/>
         <v>45930.96597222222</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34">
+        <v>19.86</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>2.1850000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>132</v>
       </c>
@@ -4441,8 +6593,15 @@
         <f t="shared" si="2"/>
         <v>45931.21597222222</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35">
+        <v>20.260000000000002</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>2.2516666666666669</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>133</v>
       </c>
@@ -4454,66 +6613,383 @@
         <f t="shared" si="2"/>
         <v>45931.46597222222</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
+      <c r="D36">
+        <v>19.84</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>2.1816666666666666</v>
+      </c>
+      <c r="F36">
+        <v>7.96</v>
+      </c>
+      <c r="G36">
+        <v>831</v>
+      </c>
+      <c r="H36">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>241</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" ref="B37:B55" si="3">C36</f>
+        <v>45931.46597222222</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" ref="C37:C55" si="4">B37+6/24</f>
+        <v>45931.71597222222</v>
+      </c>
+      <c r="D37">
+        <v>19.64</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>2.1483333333333334</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>242</v>
+      </c>
+      <c r="B38" s="1">
+        <f t="shared" si="3"/>
+        <v>45931.71597222222</v>
+      </c>
+      <c r="C38" s="1">
+        <f t="shared" si="4"/>
+        <v>45931.96597222222</v>
+      </c>
+      <c r="D38">
+        <v>19.37</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>2.1033333333333335</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>243</v>
+      </c>
+      <c r="B39" s="1">
+        <f t="shared" si="3"/>
+        <v>45931.96597222222</v>
+      </c>
+      <c r="C39" s="1">
+        <f t="shared" si="4"/>
+        <v>45932.21597222222</v>
+      </c>
+      <c r="D39">
+        <v>19.05</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>2.0500000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>244</v>
+      </c>
+      <c r="B40" s="1">
+        <f t="shared" si="3"/>
+        <v>45932.21597222222</v>
+      </c>
+      <c r="C40" s="1">
+        <f t="shared" si="4"/>
+        <v>45932.46597222222</v>
+      </c>
+      <c r="D40">
+        <v>19.28</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>2.0883333333333334</v>
+      </c>
+      <c r="F40">
+        <v>8.06</v>
+      </c>
+      <c r="G40">
+        <v>876</v>
+      </c>
+      <c r="H40">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>245</v>
+      </c>
+      <c r="B41" s="1">
+        <f t="shared" si="3"/>
+        <v>45932.46597222222</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" si="4"/>
+        <v>45932.71597222222</v>
+      </c>
+      <c r="D41">
+        <v>19.05</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>2.0500000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>246</v>
+      </c>
+      <c r="B42" s="1">
+        <f t="shared" si="3"/>
+        <v>45932.71597222222</v>
+      </c>
+      <c r="C42" s="1">
+        <f t="shared" si="4"/>
+        <v>45932.96597222222</v>
+      </c>
+      <c r="D42">
+        <v>18.97</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>2.0366666666666666</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>247</v>
+      </c>
+      <c r="B43" s="1">
+        <f t="shared" si="3"/>
+        <v>45932.96597222222</v>
+      </c>
+      <c r="C43" s="1">
+        <f t="shared" si="4"/>
+        <v>45933.21597222222</v>
+      </c>
+      <c r="D43">
+        <v>19.04</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>2.0483333333333333</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>248</v>
+      </c>
+      <c r="B44" s="1">
+        <f t="shared" si="3"/>
+        <v>45933.21597222222</v>
+      </c>
+      <c r="C44" s="1">
+        <f t="shared" si="4"/>
+        <v>45933.46597222222</v>
+      </c>
+      <c r="D44">
+        <v>18.97</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>2.0366666666666666</v>
+      </c>
+      <c r="H44">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>249</v>
+      </c>
+      <c r="B45" s="1">
+        <f t="shared" si="3"/>
+        <v>45933.46597222222</v>
+      </c>
+      <c r="C45" s="1">
+        <f t="shared" si="4"/>
+        <v>45933.71597222222</v>
+      </c>
+      <c r="D45">
+        <v>19.02</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>2.0449999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>250</v>
+      </c>
+      <c r="B46" s="1">
+        <f t="shared" si="3"/>
+        <v>45933.71597222222</v>
+      </c>
+      <c r="C46" s="1">
+        <f t="shared" si="4"/>
+        <v>45933.96597222222</v>
+      </c>
+      <c r="L46" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>251</v>
+      </c>
+      <c r="B47" s="1">
+        <f t="shared" si="3"/>
+        <v>45933.96597222222</v>
+      </c>
+      <c r="C47" s="1">
+        <f t="shared" si="4"/>
+        <v>45934.21597222222</v>
+      </c>
+      <c r="D47">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>2.0249999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>252</v>
+      </c>
+      <c r="B48" s="1">
+        <f t="shared" si="3"/>
+        <v>45934.21597222222</v>
+      </c>
+      <c r="C48" s="1">
+        <f t="shared" si="4"/>
+        <v>45934.46597222222</v>
+      </c>
+      <c r="D48">
+        <v>18.98</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>2.0383333333333336</v>
+      </c>
+      <c r="F48">
+        <v>8.35</v>
+      </c>
+      <c r="G48">
+        <v>862</v>
+      </c>
+      <c r="H48">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>253</v>
+      </c>
+      <c r="B49" s="1">
+        <f t="shared" si="3"/>
+        <v>45934.46597222222</v>
+      </c>
+      <c r="C49" s="1">
+        <f t="shared" si="4"/>
+        <v>45934.71597222222</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>254</v>
+      </c>
+      <c r="B50" s="1">
+        <f t="shared" si="3"/>
+        <v>45934.71597222222</v>
+      </c>
+      <c r="C50" s="1">
+        <f t="shared" si="4"/>
+        <v>45934.96597222222</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>255</v>
+      </c>
+      <c r="B51" s="1">
+        <f t="shared" si="3"/>
+        <v>45934.96597222222</v>
+      </c>
+      <c r="C51" s="1">
+        <f t="shared" si="4"/>
+        <v>45935.21597222222</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>256</v>
+      </c>
+      <c r="B52" s="1">
+        <f t="shared" si="3"/>
+        <v>45935.21597222222</v>
+      </c>
+      <c r="C52" s="1">
+        <f t="shared" si="4"/>
+        <v>45935.46597222222</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>257</v>
+      </c>
+      <c r="B53" s="1">
+        <f t="shared" si="3"/>
+        <v>45935.46597222222</v>
+      </c>
+      <c r="C53" s="1">
+        <f t="shared" si="4"/>
+        <v>45935.71597222222</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>258</v>
+      </c>
+      <c r="B54" s="1">
+        <f t="shared" si="3"/>
+        <v>45935.71597222222</v>
+      </c>
+      <c r="C54" s="1">
+        <f t="shared" si="4"/>
+        <v>45935.96597222222</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>259</v>
+      </c>
+      <c r="B55" s="1">
+        <f t="shared" si="3"/>
+        <v>45935.96597222222</v>
+      </c>
+      <c r="C55" s="1">
+        <f t="shared" si="4"/>
+        <v>45936.21597222222</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>260</v>
+      </c>
+      <c r="B56" s="1">
+        <f t="shared" ref="B56" si="5">C55</f>
+        <v>45936.21597222222</v>
+      </c>
+      <c r="C56" s="1">
+        <f t="shared" ref="C56" si="6">B56+6/24</f>
+        <v>45936.46597222222</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4523,10 +6999,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CEAE0A4-BA85-AC4B-952F-A9D4082FC119}">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4587,7 +7063,7 @@
         <v>18.05</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E28" si="0">(D2-6.75)/6</f>
+        <f t="shared" ref="E2:E48" si="0">(D2-6.75)/6</f>
         <v>1.8833333333333335</v>
       </c>
     </row>
@@ -5163,6 +7639,13 @@
         <f t="shared" si="2"/>
         <v>45929.71597222222</v>
       </c>
+      <c r="D29">
+        <v>22.73</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>2.6633333333333336</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -5176,6 +7659,13 @@
         <f t="shared" si="2"/>
         <v>45929.96597222222</v>
       </c>
+      <c r="D30">
+        <v>23.03</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>2.7133333333333334</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -5189,6 +7679,13 @@
         <f t="shared" si="2"/>
         <v>45930.21597222222</v>
       </c>
+      <c r="D31">
+        <v>23.19</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>2.74</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -5202,8 +7699,15 @@
         <f t="shared" si="2"/>
         <v>45930.46597222222</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <v>23.2</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>2.7416666666666667</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>157</v>
       </c>
@@ -5216,7 +7720,7 @@
         <v>45930.71597222222</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>158</v>
       </c>
@@ -5228,8 +7732,15 @@
         <f t="shared" si="2"/>
         <v>45930.96597222222</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34">
+        <v>21.38</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>2.438333333333333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>159</v>
       </c>
@@ -5241,8 +7752,15 @@
         <f t="shared" si="2"/>
         <v>45931.21597222222</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35">
+        <v>21.15</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>160</v>
       </c>
@@ -5253,6 +7771,375 @@
       <c r="C36" s="1">
         <f t="shared" si="2"/>
         <v>45931.46597222222</v>
+      </c>
+      <c r="D36">
+        <v>21.08</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>2.3883333333333332</v>
+      </c>
+      <c r="F36">
+        <v>7.86</v>
+      </c>
+      <c r="G36">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>261</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" ref="B37:B56" si="3">C36</f>
+        <v>45931.46597222222</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" ref="C37:C56" si="4">B37+6/24</f>
+        <v>45931.71597222222</v>
+      </c>
+      <c r="D37">
+        <v>18.920000000000002</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>2.0283333333333338</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>262</v>
+      </c>
+      <c r="B38" s="1">
+        <f t="shared" si="3"/>
+        <v>45931.71597222222</v>
+      </c>
+      <c r="C38" s="1">
+        <f t="shared" si="4"/>
+        <v>45931.96597222222</v>
+      </c>
+      <c r="D38">
+        <v>18.940000000000001</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>2.0316666666666667</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>263</v>
+      </c>
+      <c r="B39" s="1">
+        <f t="shared" si="3"/>
+        <v>45931.96597222222</v>
+      </c>
+      <c r="C39" s="1">
+        <f t="shared" si="4"/>
+        <v>45932.21597222222</v>
+      </c>
+      <c r="D39">
+        <v>18.329999999999998</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>1.9299999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>264</v>
+      </c>
+      <c r="B40" s="1">
+        <f t="shared" si="3"/>
+        <v>45932.21597222222</v>
+      </c>
+      <c r="C40" s="1">
+        <f t="shared" si="4"/>
+        <v>45932.46597222222</v>
+      </c>
+      <c r="D40">
+        <v>18.63</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>1.9799999999999998</v>
+      </c>
+      <c r="F40">
+        <v>7.88</v>
+      </c>
+      <c r="G40">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>265</v>
+      </c>
+      <c r="B41" s="1">
+        <f t="shared" si="3"/>
+        <v>45932.46597222222</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" si="4"/>
+        <v>45932.71597222222</v>
+      </c>
+      <c r="D41">
+        <v>18.63</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>1.9799999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>266</v>
+      </c>
+      <c r="B42" s="1">
+        <f t="shared" si="3"/>
+        <v>45932.71597222222</v>
+      </c>
+      <c r="C42" s="1">
+        <f t="shared" si="4"/>
+        <v>45932.96597222222</v>
+      </c>
+      <c r="D42">
+        <v>18.329999999999998</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>1.9299999999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>267</v>
+      </c>
+      <c r="B43" s="1">
+        <f t="shared" si="3"/>
+        <v>45932.96597222222</v>
+      </c>
+      <c r="C43" s="1">
+        <f t="shared" si="4"/>
+        <v>45933.21597222222</v>
+      </c>
+      <c r="D43">
+        <v>18.27</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>268</v>
+      </c>
+      <c r="B44" s="1">
+        <f t="shared" si="3"/>
+        <v>45933.21597222222</v>
+      </c>
+      <c r="C44" s="1">
+        <f t="shared" si="4"/>
+        <v>45933.46597222222</v>
+      </c>
+      <c r="D44">
+        <v>18.28</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>1.9216666666666669</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>269</v>
+      </c>
+      <c r="B45" s="1">
+        <f t="shared" si="3"/>
+        <v>45933.46597222222</v>
+      </c>
+      <c r="C45" s="1">
+        <f t="shared" si="4"/>
+        <v>45933.71597222222</v>
+      </c>
+      <c r="D45">
+        <v>18.29</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>1.9233333333333331</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>270</v>
+      </c>
+      <c r="B46" s="1">
+        <f t="shared" si="3"/>
+        <v>45933.71597222222</v>
+      </c>
+      <c r="C46" s="1">
+        <f t="shared" si="4"/>
+        <v>45933.96597222222</v>
+      </c>
+      <c r="D46">
+        <v>18.309999999999999</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>1.9266666666666665</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>271</v>
+      </c>
+      <c r="B47" s="1">
+        <f t="shared" si="3"/>
+        <v>45933.96597222222</v>
+      </c>
+      <c r="C47" s="1">
+        <f t="shared" si="4"/>
+        <v>45934.21597222222</v>
+      </c>
+      <c r="D47">
+        <v>18.29</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>1.9233333333333331</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>272</v>
+      </c>
+      <c r="B48" s="1">
+        <f t="shared" si="3"/>
+        <v>45934.21597222222</v>
+      </c>
+      <c r="C48" s="1">
+        <f t="shared" si="4"/>
+        <v>45934.46597222222</v>
+      </c>
+      <c r="D48">
+        <v>18.329999999999998</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>1.9299999999999997</v>
+      </c>
+      <c r="F48">
+        <v>8.16</v>
+      </c>
+      <c r="G48">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>273</v>
+      </c>
+      <c r="B49" s="1">
+        <f t="shared" si="3"/>
+        <v>45934.46597222222</v>
+      </c>
+      <c r="C49" s="1">
+        <f t="shared" si="4"/>
+        <v>45934.71597222222</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>274</v>
+      </c>
+      <c r="B50" s="1">
+        <f t="shared" si="3"/>
+        <v>45934.71597222222</v>
+      </c>
+      <c r="C50" s="1">
+        <f t="shared" si="4"/>
+        <v>45934.96597222222</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>275</v>
+      </c>
+      <c r="B51" s="1">
+        <f t="shared" si="3"/>
+        <v>45934.96597222222</v>
+      </c>
+      <c r="C51" s="1">
+        <f t="shared" si="4"/>
+        <v>45935.21597222222</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>276</v>
+      </c>
+      <c r="B52" s="1">
+        <f t="shared" si="3"/>
+        <v>45935.21597222222</v>
+      </c>
+      <c r="C52" s="1">
+        <f t="shared" si="4"/>
+        <v>45935.46597222222</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>277</v>
+      </c>
+      <c r="B53" s="1">
+        <f t="shared" si="3"/>
+        <v>45935.46597222222</v>
+      </c>
+      <c r="C53" s="1">
+        <f t="shared" si="4"/>
+        <v>45935.71597222222</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>278</v>
+      </c>
+      <c r="B54" s="1">
+        <f t="shared" si="3"/>
+        <v>45935.71597222222</v>
+      </c>
+      <c r="C54" s="1">
+        <f t="shared" si="4"/>
+        <v>45935.96597222222</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>279</v>
+      </c>
+      <c r="B55" s="1">
+        <f t="shared" si="3"/>
+        <v>45935.96597222222</v>
+      </c>
+      <c r="C55" s="1">
+        <f t="shared" si="4"/>
+        <v>45936.21597222222</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>280</v>
+      </c>
+      <c r="B56" s="1">
+        <f t="shared" si="3"/>
+        <v>45936.21597222222</v>
+      </c>
+      <c r="C56" s="1">
+        <f t="shared" si="4"/>
+        <v>45936.46597222222</v>
       </c>
     </row>
   </sheetData>
@@ -5425,10 +8312,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A1C8F7-0C5B-6045-992F-0FD6B0162923}">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5814,7 +8701,7 @@
         <v>4</v>
       </c>
       <c r="F14">
-        <f t="shared" ref="F14:F37" si="3">(64.069*AVERAGE(D14:D14)-2.8707)*E14</f>
+        <f t="shared" ref="F14:F53" si="3">(64.069*AVERAGE(D14:D14)-2.8707)*E14</f>
         <v>20.807976000000004</v>
       </c>
     </row>
@@ -6161,10 +9048,554 @@
       <c r="F37">
         <f t="shared" si="3"/>
         <v>-0.69235399999999947</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C38" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38">
+        <v>0.159</v>
+      </c>
+      <c r="E38">
+        <v>4</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="3"/>
+        <v>29.265084000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C39" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D39">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="3"/>
+        <v>30.802740000000007</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C40" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="E40">
+        <v>4</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="3"/>
+        <v>47.204404000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C41" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D41">
+        <v>0.126</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="3"/>
+        <v>20.807976000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C42" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D42">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="E42">
+        <v>4</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="3"/>
+        <v>205.326696</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C43" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D43">
+        <v>0.79</v>
+      </c>
+      <c r="E43">
+        <v>4</v>
+      </c>
+      <c r="F43">
+        <f>(64.069*AVERAGE(D43:D43)-2.8707)*E43</f>
+        <v>190.97524000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C44" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D44">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="3"/>
+        <v>-0.88456099999999971</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C45" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D45">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="3"/>
+        <v>-0.88456099999999971</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C46" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D46">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="3"/>
+        <v>29.868559000000005</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C47" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D47">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="3"/>
+        <v>28.010558</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C48" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D48">
+        <v>0.193</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="3"/>
+        <v>9.4946170000000016</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C49" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D49">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="3"/>
+        <v>15.965586000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C50" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D50">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="E50">
+        <v>4</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="3"/>
+        <v>160.47839600000003</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C51" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D51">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="3"/>
+        <v>140.74514400000001</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C52" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D52">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="3"/>
+        <v>-0.62828499999999954</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C53" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D53">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="3"/>
+        <v>-0.88456099999999971</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2002340C-AD4C-5C4F-8F00-4A8EC30B67C5}">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="19.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G1" t="s">
+        <v>194</v>
+      </c>
+      <c r="I1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L1" t="s">
+        <v>195</v>
+      </c>
+      <c r="M1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2">
+        <v>3.9E-2</v>
+      </c>
+      <c r="G2">
+        <f>AVERAGE(D2:E2)*$K$11 + $K$12</f>
+        <v>-3.2082434215761744</v>
+      </c>
+      <c r="I2">
+        <v>1000</v>
+      </c>
+      <c r="J2">
+        <v>1.556</v>
+      </c>
+      <c r="K2">
+        <v>1.548</v>
+      </c>
+      <c r="M2">
+        <f t="shared" ref="M2:M7" si="0">AVERAGE(J2:L2)</f>
+        <v>1.552</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G13" si="1">AVERAGE(D3:E3)*$K$11 + $K$12</f>
+        <v>8.3261041095816779E-2</v>
+      </c>
+      <c r="I3">
+        <v>500</v>
+      </c>
+      <c r="J3">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="K3">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="0"/>
+        <v>0.82450000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D4">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>-1.2333407439729775</v>
+      </c>
+      <c r="I4">
+        <v>250</v>
+      </c>
+      <c r="J4">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="K4">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>0.42599999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>-5.1831460991793712</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+      <c r="J5">
+        <v>0.189</v>
+      </c>
+      <c r="K5">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>0.1915</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6">
+        <v>0.04</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>-2.5499425290417754</v>
+      </c>
+      <c r="I6">
+        <v>50</v>
+      </c>
+      <c r="J6">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="K6">
+        <v>0.12</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>-4.5248452066449723</v>
+      </c>
+      <c r="I7">
+        <v>25</v>
+      </c>
+      <c r="J7">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="K7">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>7.7499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>2.716464611233409</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K8">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="M8">
+        <f>AVERAGE(J8:L8)</f>
+        <v>5.5999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>8.3261041095816779E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D10">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>1.3998628261646147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>1.3998628261646147</v>
+      </c>
+      <c r="J11" t="s">
+        <v>196</v>
+      </c>
+      <c r="K11">
+        <f>SLOPE(I2:I8,M2:M8)</f>
+        <v>658.30089253439814</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>-4.5248452066449723</v>
+      </c>
+      <c r="K12">
+        <f>INTERCEPT(I2:I8,M2:M8)</f>
+        <v>-28.881978230417701</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>200</v>
+      </c>
+      <c r="D13">
+        <v>0.04</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>-2.5499425290417754</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/exp_raw/ssexp_data.xlsx
+++ b/data/exp_raw/ssexp_data.xlsx
@@ -8,23 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vcantarella/Documents/FuhrbergerColumns/data/exp_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9CE55B-1902-1A41-B0FC-625C86104041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7E4A6E-6873-3149-98C9-4726A98149D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16680" activeTab="6" xr2:uid="{82067E57-95C1-4A4D-B858-7597035F15DE}"/>
+    <workbookView xWindow="1320" yWindow="740" windowWidth="28040" windowHeight="16680" xr2:uid="{82067E57-95C1-4A4D-B858-7597035F15DE}"/>
   </bookViews>
   <sheets>
     <sheet name="general_samples_p1" sheetId="1" r:id="rId1"/>
     <sheet name="general_samples_p2" sheetId="4" r:id="rId2"/>
     <sheet name="general_samples_p3" sheetId="5" r:id="rId3"/>
     <sheet name="general_samples_p4" sheetId="6" r:id="rId4"/>
-    <sheet name="fe" sheetId="2" r:id="rId5"/>
+    <sheet name="fe_total" sheetId="2" r:id="rId5"/>
     <sheet name="hs" sheetId="3" r:id="rId6"/>
     <sheet name="standard_curve_no2" sheetId="7" r:id="rId7"/>
     <sheet name="fe_plate_1" sheetId="8" r:id="rId8"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId9"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -46,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="387">
   <si>
     <t>Sample</t>
   </si>
@@ -111,9 +108,6 @@
     <t>conc_mgN_L</t>
   </si>
   <si>
-    <t>conc_mmol_L</t>
-  </si>
-  <si>
     <t>P1F1</t>
   </si>
   <si>
@@ -919,6 +913,297 @@
   </si>
   <si>
     <t>* vial leaked (bad cap)</t>
+  </si>
+  <si>
+    <t>P1F4</t>
+  </si>
+  <si>
+    <t>P2F4</t>
+  </si>
+  <si>
+    <t>P3F4</t>
+  </si>
+  <si>
+    <t>P4F4</t>
+  </si>
+  <si>
+    <t>obs: hacl 50, sample 50, fer 100</t>
+  </si>
+  <si>
+    <t>reading</t>
+  </si>
+  <si>
+    <t>conc_microm</t>
+  </si>
+  <si>
+    <t>P1T64</t>
+  </si>
+  <si>
+    <t>P1T65</t>
+  </si>
+  <si>
+    <t>P1T66</t>
+  </si>
+  <si>
+    <t>P1T67</t>
+  </si>
+  <si>
+    <t>P1T68</t>
+  </si>
+  <si>
+    <t>P1T69</t>
+  </si>
+  <si>
+    <t>P1T70</t>
+  </si>
+  <si>
+    <t>P1T71</t>
+  </si>
+  <si>
+    <t>P1T72</t>
+  </si>
+  <si>
+    <t>P1T73</t>
+  </si>
+  <si>
+    <t>P1T74</t>
+  </si>
+  <si>
+    <t>P1T75</t>
+  </si>
+  <si>
+    <t>P1T76</t>
+  </si>
+  <si>
+    <t>P1T77</t>
+  </si>
+  <si>
+    <t>P1T78</t>
+  </si>
+  <si>
+    <t>P1T79</t>
+  </si>
+  <si>
+    <t>P2T56</t>
+  </si>
+  <si>
+    <t>P2T57</t>
+  </si>
+  <si>
+    <t>P2T58</t>
+  </si>
+  <si>
+    <t>P2T59</t>
+  </si>
+  <si>
+    <t>P2T60</t>
+  </si>
+  <si>
+    <t>P2T61</t>
+  </si>
+  <si>
+    <t>P2T62</t>
+  </si>
+  <si>
+    <t>P2T63</t>
+  </si>
+  <si>
+    <t>P2T64</t>
+  </si>
+  <si>
+    <t>P2T65</t>
+  </si>
+  <si>
+    <t>P2T66</t>
+  </si>
+  <si>
+    <t>P2T67</t>
+  </si>
+  <si>
+    <t>P2T68</t>
+  </si>
+  <si>
+    <t>P2T69</t>
+  </si>
+  <si>
+    <t>P2T70</t>
+  </si>
+  <si>
+    <t>P2T71</t>
+  </si>
+  <si>
+    <t>P2T72</t>
+  </si>
+  <si>
+    <t>P2T73</t>
+  </si>
+  <si>
+    <t>P2T74</t>
+  </si>
+  <si>
+    <t>P2T75</t>
+  </si>
+  <si>
+    <t>P2T76</t>
+  </si>
+  <si>
+    <t>P2T77</t>
+  </si>
+  <si>
+    <t>P2T78</t>
+  </si>
+  <si>
+    <t>P2T79</t>
+  </si>
+  <si>
+    <t>P3T56</t>
+  </si>
+  <si>
+    <t>P3T57</t>
+  </si>
+  <si>
+    <t>P3T58</t>
+  </si>
+  <si>
+    <t>P3T59</t>
+  </si>
+  <si>
+    <t>P3T60</t>
+  </si>
+  <si>
+    <t>P3T61</t>
+  </si>
+  <si>
+    <t>P3T62</t>
+  </si>
+  <si>
+    <t>P3T63</t>
+  </si>
+  <si>
+    <t>P3T64</t>
+  </si>
+  <si>
+    <t>P3T65</t>
+  </si>
+  <si>
+    <t>P3T66</t>
+  </si>
+  <si>
+    <t>P3T67</t>
+  </si>
+  <si>
+    <t>P3T68</t>
+  </si>
+  <si>
+    <t>P3T69</t>
+  </si>
+  <si>
+    <t>P3T70</t>
+  </si>
+  <si>
+    <t>P3T71</t>
+  </si>
+  <si>
+    <t>P3T72</t>
+  </si>
+  <si>
+    <t>P3T73</t>
+  </si>
+  <si>
+    <t>P3T74</t>
+  </si>
+  <si>
+    <t>P3T75</t>
+  </si>
+  <si>
+    <t>P3T76</t>
+  </si>
+  <si>
+    <t>P3T77</t>
+  </si>
+  <si>
+    <t>P3T78</t>
+  </si>
+  <si>
+    <t>P3T79</t>
+  </si>
+  <si>
+    <t>P4T56</t>
+  </si>
+  <si>
+    <t>P4T57</t>
+  </si>
+  <si>
+    <t>P4T58</t>
+  </si>
+  <si>
+    <t>P4T59</t>
+  </si>
+  <si>
+    <t>P4T60</t>
+  </si>
+  <si>
+    <t>P4T61</t>
+  </si>
+  <si>
+    <t>P4T62</t>
+  </si>
+  <si>
+    <t>P4T63</t>
+  </si>
+  <si>
+    <t>P4T64</t>
+  </si>
+  <si>
+    <t>P4T65</t>
+  </si>
+  <si>
+    <t>P4T66</t>
+  </si>
+  <si>
+    <t>P4T67</t>
+  </si>
+  <si>
+    <t>P4T68</t>
+  </si>
+  <si>
+    <t>P4T69</t>
+  </si>
+  <si>
+    <t>P4T70</t>
+  </si>
+  <si>
+    <t>P4T71</t>
+  </si>
+  <si>
+    <t>P4T72</t>
+  </si>
+  <si>
+    <t>P4T73</t>
+  </si>
+  <si>
+    <t>P4T74</t>
+  </si>
+  <si>
+    <t>P4T75</t>
+  </si>
+  <si>
+    <t>P4T76</t>
+  </si>
+  <si>
+    <t>P4T77</t>
+  </si>
+  <si>
+    <t>P4T78</t>
+  </si>
+  <si>
+    <t>P4T79</t>
+  </si>
+  <si>
+    <t>slope:</t>
+  </si>
+  <si>
+    <t>intercept:</t>
   </si>
 </sst>
 </file>
@@ -989,6 +1274,432 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Fe total</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>FeT</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.40496723804367729"/>
+                  <c:y val="-3.6085010650264461E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-DE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>fe_total!$H$2:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.129</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45200000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>fe_total!$G$2:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8C8D-BE46-9708-39C1ADBC9635}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="683948543"/>
+        <c:axId val="683950255"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="683948543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="683950255"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="683950255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="683948543"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -1180,25 +1891,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.59166666666666667</c:v>
+                  <c:v>0.88749999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.48500000000000004</c:v>
+                  <c:v>0.72750000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34966666666666663</c:v>
+                  <c:v>0.52449999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.27066666666666667</c:v>
+                  <c:v>0.40600000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.15166666666666667</c:v>
+                  <c:v>0.22750000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.6000000000000007E-2</c:v>
+                  <c:v>0.129</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.6000000000000006E-2</c:v>
+                  <c:v>6.9000000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>4.4999999999999998E-2</c:v>
@@ -1208,10 +1919,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[1]standard_curve_plate 2'!$H$2:$H$8</c:f>
+              <c:f>standard_curve_no2!$G$2:$G$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -1231,6 +1942,9 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1400,7 +2114,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -1856,6 +2570,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2927,7 +3681,566 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62D884D8-9E42-4641-A976-F13C58EC3A05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2970,7 +4283,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3011,78 +4324,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="standard_curve_plate_1"/>
-      <sheetName val="standard_curve_plate 2"/>
-      <sheetName val="standard_curve_plate_3"/>
-      <sheetName val="standard_curve_plate 4"/>
-      <sheetName val="fe_plate_1"/>
-      <sheetName val="br_standard_curve"/>
-      <sheetName val="sampling"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="data"/>
-      <sheetName val="new_data"/>
-      <sheetName val="Sheet2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="H2">
-            <v>50</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="H3">
-            <v>40</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="H4">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="H5">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="H6">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="H7">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="H8">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3402,10 +4643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE2E69C-B565-9948-8744-019B7DBC9C60}">
-  <dimension ref="A1:L64"/>
+  <dimension ref="A1:L80"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3441,16 +4682,16 @@
         <v>20</v>
       </c>
       <c r="I1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" t="s">
         <v>46</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>47</v>
       </c>
-      <c r="K1" t="s">
-        <v>48</v>
-      </c>
       <c r="L1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -3468,7 +4709,7 @@
         <v>18.91</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E48" si="0">(D2-6.75)/6</f>
+        <f t="shared" ref="E2:E56" si="0">(D2-6.75)/6</f>
         <v>2.0266666666666668</v>
       </c>
     </row>
@@ -3523,7 +4764,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1">
         <f t="shared" si="1"/>
@@ -3543,7 +4784,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" si="1"/>
@@ -3563,7 +4804,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" si="1"/>
@@ -3583,7 +4824,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" si="1"/>
@@ -3603,7 +4844,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" si="1"/>
@@ -3625,7 +4866,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" si="1"/>
@@ -3645,7 +4886,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" si="1"/>
@@ -3665,7 +4906,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" si="1"/>
@@ -3685,7 +4926,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" si="1"/>
@@ -3703,12 +4944,12 @@
         <v>1.9600000000000002</v>
       </c>
       <c r="L13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" si="1"/>
@@ -3728,7 +4969,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" si="1"/>
@@ -3748,7 +4989,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" si="1"/>
@@ -3777,7 +5018,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B17" s="1">
         <f t="shared" si="1"/>
@@ -3788,12 +5029,12 @@
         <v>45926.71597222222</v>
       </c>
       <c r="L17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B18" s="1">
         <f t="shared" si="1"/>
@@ -3813,7 +5054,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B19" s="1">
         <f t="shared" si="1"/>
@@ -3833,7 +5074,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B20" s="1">
         <f t="shared" si="1"/>
@@ -3853,7 +5094,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21" s="1">
         <f t="shared" si="1"/>
@@ -3873,7 +5114,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B22" s="1">
         <f t="shared" si="1"/>
@@ -3893,7 +5134,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B23" s="1">
         <f t="shared" si="1"/>
@@ -3913,7 +5154,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B24" s="1">
         <f t="shared" si="1"/>
@@ -3942,7 +5183,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B25" s="1">
         <f t="shared" si="1"/>
@@ -3962,7 +5203,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B26" s="1">
         <f t="shared" si="1"/>
@@ -3982,7 +5223,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B27" s="1">
         <f t="shared" si="1"/>
@@ -4002,7 +5243,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B28" s="1">
         <f t="shared" si="1"/>
@@ -4029,12 +5270,12 @@
         <v>14.4</v>
       </c>
       <c r="L28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B29" s="1">
         <f t="shared" si="1"/>
@@ -4054,7 +5295,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B30" s="1">
         <f t="shared" si="1"/>
@@ -4074,7 +5315,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B31" s="1">
         <f t="shared" si="1"/>
@@ -4094,7 +5335,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B32" s="1">
         <f t="shared" si="1"/>
@@ -4114,7 +5355,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B33" s="1">
         <f t="shared" si="1"/>
@@ -4127,7 +5368,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B34" s="1">
         <f t="shared" si="1"/>
@@ -4147,7 +5388,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B35" s="1">
         <f t="shared" si="1"/>
@@ -4167,7 +5408,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B36" s="1">
         <f t="shared" si="1"/>
@@ -4196,7 +5437,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B37" s="1">
         <f t="shared" ref="B37:B49" si="3">C36</f>
@@ -4216,7 +5457,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B38" s="1">
         <f t="shared" si="3"/>
@@ -4236,7 +5477,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B39" s="1">
         <f t="shared" si="3"/>
@@ -4256,7 +5497,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B40" s="1">
         <f t="shared" si="3"/>
@@ -4285,7 +5526,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B41" s="1">
         <f t="shared" si="3"/>
@@ -4305,7 +5546,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B42" s="1">
         <f t="shared" si="3"/>
@@ -4325,7 +5566,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B43" s="1">
         <f t="shared" si="3"/>
@@ -4345,7 +5586,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B44" s="1">
         <f t="shared" si="3"/>
@@ -4368,7 +5609,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B45" s="1">
         <f t="shared" si="3"/>
@@ -4388,7 +5629,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B46" s="1">
         <f t="shared" si="3"/>
@@ -4408,7 +5649,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B47" s="1">
         <f t="shared" si="3"/>
@@ -4428,7 +5669,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B48" s="1">
         <f t="shared" si="3"/>
@@ -4455,9 +5696,9 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B49" s="1">
         <f t="shared" si="3"/>
@@ -4467,10 +5708,17 @@
         <f t="shared" si="4"/>
         <v>45934.71597222222</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D49">
+        <v>17.97</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>1.8699999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B50" s="1">
         <f t="shared" ref="B50:B56" si="5">C49</f>
@@ -4480,10 +5728,17 @@
         <f t="shared" ref="C50:C56" si="6">B50+6/24</f>
         <v>45934.96597222222</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D50">
+        <v>18.010000000000002</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>1.8766666666666669</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B51" s="1">
         <f t="shared" si="5"/>
@@ -4493,10 +5748,17 @@
         <f t="shared" si="6"/>
         <v>45935.21597222222</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D51">
+        <v>18.079999999999998</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>1.888333333333333</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B52" s="1">
         <f t="shared" si="5"/>
@@ -4506,10 +5768,17 @@
         <f t="shared" si="6"/>
         <v>45935.46597222222</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D52">
+        <v>18.010000000000002</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>1.8766666666666669</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B53" s="1">
         <f t="shared" si="5"/>
@@ -4519,10 +5788,17 @@
         <f t="shared" si="6"/>
         <v>45935.71597222222</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D53">
+        <v>18.04</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>1.8816666666666666</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B54" s="1">
         <f t="shared" si="5"/>
@@ -4532,10 +5808,17 @@
         <f t="shared" si="6"/>
         <v>45935.96597222222</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D54">
+        <v>18.03</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>1.8800000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B55" s="1">
         <f t="shared" si="5"/>
@@ -4545,10 +5828,17 @@
         <f t="shared" si="6"/>
         <v>45936.21597222222</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D55">
+        <v>18.04</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>1.8816666666666666</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B56" s="1">
         <f t="shared" si="5"/>
@@ -4558,10 +5848,26 @@
         <f t="shared" si="6"/>
         <v>45936.46597222222</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D56">
+        <v>18.04</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>1.8816666666666666</v>
+      </c>
+      <c r="F56">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="G56">
+        <v>832</v>
+      </c>
+      <c r="H56">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B57" s="1">
         <f t="shared" ref="B57:B64" si="7">C56</f>
@@ -4571,10 +5877,13 @@
         <f t="shared" ref="C57:C64" si="8">B57+6/24</f>
         <v>45936.71597222222</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H57">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B58" s="1">
         <f t="shared" si="7"/>
@@ -4585,9 +5894,9 @@
         <v>45936.96597222222</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B59" s="1">
         <f t="shared" si="7"/>
@@ -4598,9 +5907,9 @@
         <v>45937.21597222222</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B60" s="1">
         <f t="shared" si="7"/>
@@ -4611,9 +5920,9 @@
         <v>45937.46597222222</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B61" s="1">
         <f t="shared" si="7"/>
@@ -4624,9 +5933,9 @@
         <v>45937.71597222222</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B62" s="1">
         <f t="shared" si="7"/>
@@ -4636,10 +5945,17 @@
         <f t="shared" si="8"/>
         <v>45937.96597222222</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D62">
+        <v>16.7</v>
+      </c>
+      <c r="E62">
+        <f t="shared" ref="E62:E68" si="9">(D62-6.75)/6</f>
+        <v>1.6583333333333332</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B63" s="1">
         <f t="shared" si="7"/>
@@ -4649,10 +5965,17 @@
         <f t="shared" si="8"/>
         <v>45938.21597222222</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D63">
+        <v>17.5</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="9"/>
+        <v>1.7916666666666667</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B64" s="1">
         <f t="shared" si="7"/>
@@ -4661,6 +5984,267 @@
       <c r="C64" s="1">
         <f t="shared" si="8"/>
         <v>45938.46597222222</v>
+      </c>
+      <c r="D64">
+        <v>18.079999999999998</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="9"/>
+        <v>1.888333333333333</v>
+      </c>
+      <c r="F64">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="G64">
+        <v>773</v>
+      </c>
+      <c r="H64">
+        <v>9.1199999999999992</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>297</v>
+      </c>
+      <c r="B65" s="1">
+        <f t="shared" ref="B65:B80" si="10">C64</f>
+        <v>45938.46597222222</v>
+      </c>
+      <c r="C65" s="1">
+        <f t="shared" ref="C65:C80" si="11">B65+6/24</f>
+        <v>45938.71597222222</v>
+      </c>
+      <c r="D65">
+        <v>18.38</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="9"/>
+        <v>1.9383333333333332</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>298</v>
+      </c>
+      <c r="B66" s="1">
+        <f t="shared" si="10"/>
+        <v>45938.71597222222</v>
+      </c>
+      <c r="C66" s="1">
+        <f t="shared" si="11"/>
+        <v>45938.96597222222</v>
+      </c>
+      <c r="D66">
+        <v>18.45</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="9"/>
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>299</v>
+      </c>
+      <c r="B67" s="1">
+        <f t="shared" si="10"/>
+        <v>45938.96597222222</v>
+      </c>
+      <c r="C67" s="1">
+        <f t="shared" si="11"/>
+        <v>45939.21597222222</v>
+      </c>
+      <c r="D67">
+        <v>18.21</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="9"/>
+        <v>1.9100000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>300</v>
+      </c>
+      <c r="B68" s="1">
+        <f t="shared" si="10"/>
+        <v>45939.21597222222</v>
+      </c>
+      <c r="C68" s="1">
+        <f t="shared" si="11"/>
+        <v>45939.46597222222</v>
+      </c>
+      <c r="D68">
+        <v>18.350000000000001</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="9"/>
+        <v>1.9333333333333336</v>
+      </c>
+      <c r="F68">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G68">
+        <v>757</v>
+      </c>
+      <c r="H68">
+        <v>9.66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>301</v>
+      </c>
+      <c r="B69" s="1">
+        <f t="shared" si="10"/>
+        <v>45939.46597222222</v>
+      </c>
+      <c r="C69" s="1">
+        <f t="shared" si="11"/>
+        <v>45939.71597222222</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>302</v>
+      </c>
+      <c r="B70" s="1">
+        <f t="shared" si="10"/>
+        <v>45939.71597222222</v>
+      </c>
+      <c r="C70" s="1">
+        <f t="shared" si="11"/>
+        <v>45939.96597222222</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>303</v>
+      </c>
+      <c r="B71" s="1">
+        <f t="shared" si="10"/>
+        <v>45939.96597222222</v>
+      </c>
+      <c r="C71" s="1">
+        <f t="shared" si="11"/>
+        <v>45940.21597222222</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>304</v>
+      </c>
+      <c r="B72" s="1">
+        <f t="shared" si="10"/>
+        <v>45940.21597222222</v>
+      </c>
+      <c r="C72" s="1">
+        <f t="shared" si="11"/>
+        <v>45940.46597222222</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>305</v>
+      </c>
+      <c r="B73" s="1">
+        <f t="shared" si="10"/>
+        <v>45940.46597222222</v>
+      </c>
+      <c r="C73" s="1">
+        <f t="shared" si="11"/>
+        <v>45940.71597222222</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>306</v>
+      </c>
+      <c r="B74" s="1">
+        <f t="shared" si="10"/>
+        <v>45940.71597222222</v>
+      </c>
+      <c r="C74" s="1">
+        <f t="shared" si="11"/>
+        <v>45940.96597222222</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>307</v>
+      </c>
+      <c r="B75" s="1">
+        <f t="shared" si="10"/>
+        <v>45940.96597222222</v>
+      </c>
+      <c r="C75" s="1">
+        <f t="shared" si="11"/>
+        <v>45941.21597222222</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>308</v>
+      </c>
+      <c r="B76" s="1">
+        <f t="shared" si="10"/>
+        <v>45941.21597222222</v>
+      </c>
+      <c r="C76" s="1">
+        <f t="shared" si="11"/>
+        <v>45941.46597222222</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>309</v>
+      </c>
+      <c r="B77" s="1">
+        <f t="shared" si="10"/>
+        <v>45941.46597222222</v>
+      </c>
+      <c r="C77" s="1">
+        <f t="shared" si="11"/>
+        <v>45941.71597222222</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>310</v>
+      </c>
+      <c r="B78" s="1">
+        <f t="shared" si="10"/>
+        <v>45941.71597222222</v>
+      </c>
+      <c r="C78" s="1">
+        <f t="shared" si="11"/>
+        <v>45941.96597222222</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>311</v>
+      </c>
+      <c r="B79" s="1">
+        <f t="shared" si="10"/>
+        <v>45941.96597222222</v>
+      </c>
+      <c r="C79" s="1">
+        <f t="shared" si="11"/>
+        <v>45942.21597222222</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>312</v>
+      </c>
+      <c r="B80" s="1">
+        <f t="shared" si="10"/>
+        <v>45942.21597222222</v>
+      </c>
+      <c r="C80" s="1">
+        <f t="shared" si="11"/>
+        <v>45942.46597222222</v>
       </c>
     </row>
   </sheetData>
@@ -4671,10 +6255,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046BB4A8-8683-FF42-8F76-0A791D85765F}">
-  <dimension ref="A1:L62"/>
+  <dimension ref="A1:L80"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4708,16 +6292,16 @@
         <v>20</v>
       </c>
       <c r="I1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" t="s">
         <v>46</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>47</v>
       </c>
-      <c r="K1" t="s">
-        <v>48</v>
-      </c>
       <c r="L1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -4790,7 +6374,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1">
         <f t="shared" si="1"/>
@@ -4810,7 +6394,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" si="1"/>
@@ -4830,7 +6414,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" si="1"/>
@@ -4850,7 +6434,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" si="1"/>
@@ -4870,7 +6454,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" si="1"/>
@@ -4892,7 +6476,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" si="1"/>
@@ -4912,7 +6496,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" si="1"/>
@@ -4932,7 +6516,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" si="1"/>
@@ -4952,7 +6536,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" si="1"/>
@@ -4972,7 +6556,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" si="1"/>
@@ -4992,7 +6576,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" si="1"/>
@@ -5012,7 +6596,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" si="1"/>
@@ -5039,12 +6623,12 @@
         <v>14.1</v>
       </c>
       <c r="L16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B17" s="1">
         <f t="shared" si="1"/>
@@ -5055,12 +6639,12 @@
         <v>45926.71597222222</v>
       </c>
       <c r="L17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B18" s="1">
         <f t="shared" si="1"/>
@@ -5080,7 +6664,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B19" s="1">
         <f t="shared" si="1"/>
@@ -5100,7 +6684,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B20" s="1">
         <f t="shared" si="1"/>
@@ -5120,7 +6704,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B21" s="1">
         <f t="shared" si="1"/>
@@ -5140,7 +6724,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B22" s="1">
         <f t="shared" si="1"/>
@@ -5160,7 +6744,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B23" s="1">
         <f t="shared" si="1"/>
@@ -5180,7 +6764,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B24" s="1">
         <f t="shared" si="1"/>
@@ -5209,7 +6793,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B25" s="1">
         <f t="shared" si="1"/>
@@ -5229,7 +6813,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B26" s="1">
         <f t="shared" si="1"/>
@@ -5249,7 +6833,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B27" s="1">
         <f t="shared" si="1"/>
@@ -5278,7 +6862,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B28" s="1">
         <f t="shared" si="1"/>
@@ -5289,12 +6873,12 @@
         <v>45929.46597222222</v>
       </c>
       <c r="L28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B29" s="1">
         <f t="shared" si="1"/>
@@ -5314,7 +6898,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B30" s="1">
         <f t="shared" si="1"/>
@@ -5334,7 +6918,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B31" s="1">
         <f t="shared" si="1"/>
@@ -5354,7 +6938,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B32" s="1">
         <f t="shared" si="1"/>
@@ -5374,7 +6958,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B33" s="1">
         <f t="shared" si="1"/>
@@ -5387,7 +6971,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B34" s="1">
         <f t="shared" si="1"/>
@@ -5407,7 +6991,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B35" s="1">
         <f t="shared" si="1"/>
@@ -5427,7 +7011,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B36" s="1">
         <f t="shared" si="1"/>
@@ -5456,7 +7040,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B37" s="1">
         <f t="shared" ref="B37:B56" si="4">C36</f>
@@ -5476,7 +7060,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B38" s="1">
         <f t="shared" si="4"/>
@@ -5496,7 +7080,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B39" s="1">
         <f t="shared" si="4"/>
@@ -5516,7 +7100,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B40" s="1">
         <f t="shared" si="4"/>
@@ -5545,7 +7129,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B41" s="1">
         <f t="shared" si="4"/>
@@ -5565,7 +7149,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B42" s="1">
         <f t="shared" si="4"/>
@@ -5585,7 +7169,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B43" s="1">
         <f t="shared" si="4"/>
@@ -5605,7 +7189,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B44" s="1">
         <f t="shared" si="4"/>
@@ -5628,7 +7212,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B45" s="1">
         <f t="shared" si="4"/>
@@ -5648,7 +7232,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B46" s="1">
         <f t="shared" si="4"/>
@@ -5668,7 +7252,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B47" s="1">
         <f t="shared" si="4"/>
@@ -5690,7 +7274,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B48" s="1">
         <f t="shared" si="4"/>
@@ -5701,12 +7285,12 @@
         <v>45934.46597222222</v>
       </c>
       <c r="L48" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B49" s="1">
         <f t="shared" si="4"/>
@@ -5717,9 +7301,9 @@
         <v>45934.71597222222</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B50" s="1">
         <f t="shared" si="4"/>
@@ -5729,10 +7313,17 @@
         <f t="shared" si="5"/>
         <v>45934.96597222222</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D50">
+        <v>18.96</v>
+      </c>
+      <c r="E50">
+        <f t="shared" ref="E50:E68" si="6">(D50-6.75)/6</f>
+        <v>2.0350000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B51" s="1">
         <f t="shared" si="4"/>
@@ -5742,10 +7333,17 @@
         <f t="shared" si="5"/>
         <v>45935.21597222222</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D51">
+        <v>18.48</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="6"/>
+        <v>1.9550000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B52" s="1">
         <f t="shared" si="4"/>
@@ -5755,10 +7353,17 @@
         <f t="shared" si="5"/>
         <v>45935.46597222222</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D52">
+        <v>18.850000000000001</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="6"/>
+        <v>2.0166666666666671</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B53" s="1">
         <f t="shared" si="4"/>
@@ -5768,10 +7373,17 @@
         <f t="shared" si="5"/>
         <v>45935.71597222222</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D53">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="6"/>
+        <v>1.9750000000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B54" s="1">
         <f t="shared" si="4"/>
@@ -5781,10 +7393,17 @@
         <f t="shared" si="5"/>
         <v>45935.96597222222</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D54">
+        <v>19.07</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="6"/>
+        <v>2.0533333333333332</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B55" s="1">
         <f t="shared" si="4"/>
@@ -5794,10 +7413,17 @@
         <f t="shared" si="5"/>
         <v>45936.21597222222</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D55">
+        <v>18.7</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="6"/>
+        <v>1.9916666666666665</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B56" s="1">
         <f t="shared" si="4"/>
@@ -5807,30 +7433,441 @@
         <f t="shared" si="5"/>
         <v>45936.46597222222</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
+      <c r="D56">
+        <v>18.77</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="6"/>
+        <v>2.0033333333333334</v>
+      </c>
+      <c r="F56">
+        <v>7.96</v>
+      </c>
+      <c r="G56">
+        <v>823</v>
+      </c>
+      <c r="H56">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>313</v>
+      </c>
+      <c r="B57" s="1">
+        <f t="shared" ref="B57:B80" si="7">C56</f>
+        <v>45936.46597222222</v>
+      </c>
+      <c r="C57" s="1">
+        <f t="shared" ref="C57:C80" si="8">B57+6/24</f>
+        <v>45936.71597222222</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>314</v>
+      </c>
+      <c r="B58" s="1">
+        <f t="shared" si="7"/>
+        <v>45936.71597222222</v>
+      </c>
+      <c r="C58" s="1">
+        <f t="shared" si="8"/>
+        <v>45936.96597222222</v>
+      </c>
+      <c r="D58">
+        <v>18.7</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="6"/>
+        <v>1.9916666666666665</v>
+      </c>
+      <c r="H58">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>315</v>
+      </c>
+      <c r="B59" s="1">
+        <f t="shared" si="7"/>
+        <v>45936.96597222222</v>
+      </c>
+      <c r="C59" s="1">
+        <f t="shared" si="8"/>
+        <v>45937.21597222222</v>
+      </c>
+      <c r="D59">
+        <v>18.71</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="6"/>
+        <v>1.9933333333333334</v>
+      </c>
+      <c r="H59">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>316</v>
+      </c>
+      <c r="B60" s="1">
+        <f t="shared" si="7"/>
+        <v>45937.21597222222</v>
+      </c>
+      <c r="C60" s="1">
+        <f t="shared" si="8"/>
+        <v>45937.46597222222</v>
+      </c>
+      <c r="D60">
+        <v>18.59</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="6"/>
+        <v>1.9733333333333334</v>
+      </c>
+      <c r="H60">
+        <v>7.18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>317</v>
+      </c>
+      <c r="B61" s="1">
+        <f t="shared" si="7"/>
+        <v>45937.46597222222</v>
+      </c>
+      <c r="C61" s="1">
+        <f t="shared" si="8"/>
+        <v>45937.71597222222</v>
+      </c>
+      <c r="D61">
+        <v>18.63</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="6"/>
+        <v>1.9799999999999998</v>
+      </c>
+      <c r="H61">
+        <v>6.76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>318</v>
+      </c>
+      <c r="B62" s="1">
+        <f t="shared" si="7"/>
+        <v>45937.71597222222</v>
+      </c>
+      <c r="C62" s="1">
+        <f t="shared" si="8"/>
+        <v>45937.96597222222</v>
+      </c>
+      <c r="D62">
+        <v>18.21</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="6"/>
+        <v>1.9100000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>319</v>
+      </c>
+      <c r="B63" s="1">
+        <f t="shared" si="7"/>
+        <v>45937.96597222222</v>
+      </c>
+      <c r="C63" s="1">
+        <f t="shared" si="8"/>
+        <v>45938.21597222222</v>
+      </c>
+      <c r="D63">
+        <v>18.73</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="6"/>
+        <v>1.9966666666666668</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>320</v>
+      </c>
+      <c r="B64" s="1">
+        <f t="shared" si="7"/>
+        <v>45938.21597222222</v>
+      </c>
+      <c r="C64" s="1">
+        <f t="shared" si="8"/>
+        <v>45938.46597222222</v>
+      </c>
+      <c r="D64">
+        <v>18.7</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="6"/>
+        <v>1.9916666666666665</v>
+      </c>
+      <c r="F64">
+        <v>8.09</v>
+      </c>
+      <c r="G64">
+        <v>720</v>
+      </c>
+      <c r="H64">
+        <v>6.74</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>321</v>
+      </c>
+      <c r="B65" s="1">
+        <f t="shared" si="7"/>
+        <v>45938.46597222222</v>
+      </c>
+      <c r="C65" s="1">
+        <f t="shared" si="8"/>
+        <v>45938.71597222222</v>
+      </c>
+      <c r="D65">
+        <v>18.93</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="6"/>
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>322</v>
+      </c>
+      <c r="B66" s="1">
+        <f t="shared" si="7"/>
+        <v>45938.71597222222</v>
+      </c>
+      <c r="C66" s="1">
+        <f t="shared" si="8"/>
+        <v>45938.96597222222</v>
+      </c>
+      <c r="D66">
+        <v>19</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="6"/>
+        <v>2.0416666666666665</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>323</v>
+      </c>
+      <c r="B67" s="1">
+        <f t="shared" si="7"/>
+        <v>45938.96597222222</v>
+      </c>
+      <c r="C67" s="1">
+        <f t="shared" si="8"/>
+        <v>45939.21597222222</v>
+      </c>
+      <c r="D67">
+        <v>18.920000000000002</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="6"/>
+        <v>2.0283333333333338</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>324</v>
+      </c>
+      <c r="B68" s="1">
+        <f t="shared" si="7"/>
+        <v>45939.21597222222</v>
+      </c>
+      <c r="C68" s="1">
+        <f t="shared" si="8"/>
+        <v>45939.46597222222</v>
+      </c>
+      <c r="D68">
+        <v>18.850000000000001</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="6"/>
+        <v>2.0166666666666671</v>
+      </c>
+      <c r="F68">
+        <v>8.1</v>
+      </c>
+      <c r="G68">
+        <v>711</v>
+      </c>
+      <c r="H68">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>325</v>
+      </c>
+      <c r="B69" s="1">
+        <f t="shared" si="7"/>
+        <v>45939.46597222222</v>
+      </c>
+      <c r="C69" s="1">
+        <f t="shared" si="8"/>
+        <v>45939.71597222222</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>326</v>
+      </c>
+      <c r="B70" s="1">
+        <f t="shared" si="7"/>
+        <v>45939.71597222222</v>
+      </c>
+      <c r="C70" s="1">
+        <f t="shared" si="8"/>
+        <v>45939.96597222222</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>327</v>
+      </c>
+      <c r="B71" s="1">
+        <f t="shared" si="7"/>
+        <v>45939.96597222222</v>
+      </c>
+      <c r="C71" s="1">
+        <f t="shared" si="8"/>
+        <v>45940.21597222222</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>328</v>
+      </c>
+      <c r="B72" s="1">
+        <f t="shared" si="7"/>
+        <v>45940.21597222222</v>
+      </c>
+      <c r="C72" s="1">
+        <f t="shared" si="8"/>
+        <v>45940.46597222222</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>329</v>
+      </c>
+      <c r="B73" s="1">
+        <f t="shared" si="7"/>
+        <v>45940.46597222222</v>
+      </c>
+      <c r="C73" s="1">
+        <f t="shared" si="8"/>
+        <v>45940.71597222222</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>330</v>
+      </c>
+      <c r="B74" s="1">
+        <f t="shared" si="7"/>
+        <v>45940.71597222222</v>
+      </c>
+      <c r="C74" s="1">
+        <f t="shared" si="8"/>
+        <v>45940.96597222222</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>331</v>
+      </c>
+      <c r="B75" s="1">
+        <f t="shared" si="7"/>
+        <v>45940.96597222222</v>
+      </c>
+      <c r="C75" s="1">
+        <f t="shared" si="8"/>
+        <v>45941.21597222222</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>332</v>
+      </c>
+      <c r="B76" s="1">
+        <f t="shared" si="7"/>
+        <v>45941.21597222222</v>
+      </c>
+      <c r="C76" s="1">
+        <f t="shared" si="8"/>
+        <v>45941.46597222222</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>333</v>
+      </c>
+      <c r="B77" s="1">
+        <f t="shared" si="7"/>
+        <v>45941.46597222222</v>
+      </c>
+      <c r="C77" s="1">
+        <f t="shared" si="8"/>
+        <v>45941.71597222222</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>334</v>
+      </c>
+      <c r="B78" s="1">
+        <f t="shared" si="7"/>
+        <v>45941.71597222222</v>
+      </c>
+      <c r="C78" s="1">
+        <f t="shared" si="8"/>
+        <v>45941.96597222222</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>335</v>
+      </c>
+      <c r="B79" s="1">
+        <f t="shared" si="7"/>
+        <v>45941.96597222222</v>
+      </c>
+      <c r="C79" s="1">
+        <f t="shared" si="8"/>
+        <v>45942.21597222222</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>336</v>
+      </c>
+      <c r="B80" s="1">
+        <f t="shared" si="7"/>
+        <v>45942.21597222222</v>
+      </c>
+      <c r="C80" s="1">
+        <f t="shared" si="8"/>
+        <v>45942.46597222222</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5840,10 +7877,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{649DD004-07E5-F04F-B76F-816E14D1C8AC}">
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:L80"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5877,16 +7914,16 @@
         <v>20</v>
       </c>
       <c r="I1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" t="s">
         <v>46</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>47</v>
       </c>
-      <c r="K1" t="s">
-        <v>48</v>
-      </c>
       <c r="L1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -5904,7 +7941,7 @@
         <v>17.64</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E48" si="0">(D2-6.75)/6</f>
+        <f t="shared" ref="E2:E68" si="0">(D2-6.75)/6</f>
         <v>1.8150000000000002</v>
       </c>
     </row>
@@ -5959,7 +7996,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1">
         <f t="shared" si="1"/>
@@ -5979,7 +8016,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" si="1"/>
@@ -5999,7 +8036,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" si="1"/>
@@ -6019,7 +8056,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" si="1"/>
@@ -6039,7 +8076,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" si="1"/>
@@ -6061,7 +8098,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" si="1"/>
@@ -6081,7 +8118,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" si="1"/>
@@ -6101,7 +8138,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" si="1"/>
@@ -6121,7 +8158,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" si="1"/>
@@ -6141,7 +8178,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" si="1"/>
@@ -6161,7 +8198,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" si="1"/>
@@ -6181,7 +8218,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" si="1"/>
@@ -6208,12 +8245,12 @@
         <v>14</v>
       </c>
       <c r="L16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B17" s="1">
         <f t="shared" si="1"/>
@@ -6224,12 +8261,12 @@
         <v>45926.71597222222</v>
       </c>
       <c r="L17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B18" s="1">
         <f t="shared" si="1"/>
@@ -6249,7 +8286,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B19" s="1">
         <f t="shared" si="1"/>
@@ -6269,7 +8306,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B20" s="1">
         <f t="shared" si="1"/>
@@ -6289,7 +8326,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B21" s="1">
         <f t="shared" si="1"/>
@@ -6309,7 +8346,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B22" s="1">
         <f t="shared" si="1"/>
@@ -6329,7 +8366,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B23" s="1">
         <f t="shared" si="1"/>
@@ -6349,7 +8386,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B24" s="1">
         <f t="shared" si="1"/>
@@ -6378,7 +8415,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B25" s="1">
         <f t="shared" si="1"/>
@@ -6398,7 +8435,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B26" s="1">
         <f t="shared" si="1"/>
@@ -6418,7 +8455,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B27" s="1">
         <f t="shared" si="1"/>
@@ -6438,7 +8475,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B28" s="1">
         <f t="shared" si="1"/>
@@ -6465,12 +8502,12 @@
         <v>13.2</v>
       </c>
       <c r="L28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B29" s="1">
         <f t="shared" si="1"/>
@@ -6490,7 +8527,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B30" s="1">
         <f t="shared" si="1"/>
@@ -6510,7 +8547,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B31" s="1">
         <f t="shared" si="1"/>
@@ -6530,7 +8567,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B32" s="1">
         <f t="shared" si="1"/>
@@ -6550,7 +8587,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B33" s="1">
         <f t="shared" si="1"/>
@@ -6563,7 +8600,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B34" s="1">
         <f t="shared" si="1"/>
@@ -6583,7 +8620,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B35" s="1">
         <f t="shared" si="1"/>
@@ -6603,7 +8640,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B36" s="1">
         <f t="shared" si="1"/>
@@ -6632,7 +8669,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B37" s="1">
         <f t="shared" ref="B37:B55" si="3">C36</f>
@@ -6652,7 +8689,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B38" s="1">
         <f t="shared" si="3"/>
@@ -6672,7 +8709,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B39" s="1">
         <f t="shared" si="3"/>
@@ -6692,7 +8729,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B40" s="1">
         <f t="shared" si="3"/>
@@ -6721,7 +8758,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B41" s="1">
         <f t="shared" si="3"/>
@@ -6741,7 +8778,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B42" s="1">
         <f t="shared" si="3"/>
@@ -6761,7 +8798,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B43" s="1">
         <f t="shared" si="3"/>
@@ -6781,7 +8818,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B44" s="1">
         <f t="shared" si="3"/>
@@ -6804,7 +8841,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B45" s="1">
         <f t="shared" si="3"/>
@@ -6824,7 +8861,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B46" s="1">
         <f t="shared" si="3"/>
@@ -6835,12 +8872,12 @@
         <v>45933.96597222222</v>
       </c>
       <c r="L46" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B47" s="1">
         <f t="shared" si="3"/>
@@ -6860,7 +8897,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B48" s="1">
         <f t="shared" si="3"/>
@@ -6887,9 +8924,9 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B49" s="1">
         <f t="shared" si="3"/>
@@ -6899,10 +8936,17 @@
         <f t="shared" si="4"/>
         <v>45934.71597222222</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D49">
+        <v>18.46</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>1.9516666666666669</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B50" s="1">
         <f t="shared" si="3"/>
@@ -6912,10 +8956,17 @@
         <f t="shared" si="4"/>
         <v>45934.96597222222</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D50">
+        <v>18.73</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>1.9966666666666668</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B51" s="1">
         <f t="shared" si="3"/>
@@ -6925,10 +8976,17 @@
         <f t="shared" si="4"/>
         <v>45935.21597222222</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D51">
+        <v>18.78</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>2.0050000000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B52" s="1">
         <f t="shared" si="3"/>
@@ -6938,10 +8996,17 @@
         <f t="shared" si="4"/>
         <v>45935.46597222222</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D52">
+        <v>18.739999999999998</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>1.9983333333333331</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B53" s="1">
         <f t="shared" si="3"/>
@@ -6951,10 +9016,17 @@
         <f t="shared" si="4"/>
         <v>45935.71597222222</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D53">
+        <v>18.75</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B54" s="1">
         <f t="shared" si="3"/>
@@ -6964,10 +9036,17 @@
         <f t="shared" si="4"/>
         <v>45935.96597222222</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D54">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>2.0016666666666669</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B55" s="1">
         <f t="shared" si="3"/>
@@ -6977,18 +9056,460 @@
         <f t="shared" si="4"/>
         <v>45936.21597222222</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D55">
+        <v>18.809999999999999</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B56" s="1">
-        <f t="shared" ref="B56" si="5">C55</f>
+        <f t="shared" ref="B56:B58" si="5">C55</f>
         <v>45936.21597222222</v>
       </c>
       <c r="C56" s="1">
-        <f t="shared" ref="C56" si="6">B56+6/24</f>
+        <f t="shared" ref="C56:C58" si="6">B56+6/24</f>
         <v>45936.46597222222</v>
+      </c>
+      <c r="D56">
+        <v>18.77</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>2.0033333333333334</v>
+      </c>
+      <c r="F56">
+        <v>8.15</v>
+      </c>
+      <c r="G56">
+        <v>811</v>
+      </c>
+      <c r="H56">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>337</v>
+      </c>
+      <c r="B57" s="1">
+        <f t="shared" si="5"/>
+        <v>45936.46597222222</v>
+      </c>
+      <c r="C57" s="1">
+        <f t="shared" si="6"/>
+        <v>45936.71597222222</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>338</v>
+      </c>
+      <c r="B58" s="1">
+        <f t="shared" si="5"/>
+        <v>45936.71597222222</v>
+      </c>
+      <c r="C58" s="1">
+        <f t="shared" si="6"/>
+        <v>45936.96597222222</v>
+      </c>
+      <c r="D58">
+        <v>18.86</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>2.0183333333333331</v>
+      </c>
+      <c r="H58">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>339</v>
+      </c>
+      <c r="B59" s="1">
+        <f t="shared" ref="B59:B80" si="7">C58</f>
+        <v>45936.96597222222</v>
+      </c>
+      <c r="C59" s="1">
+        <f t="shared" ref="C59:C80" si="8">B59+6/24</f>
+        <v>45937.21597222222</v>
+      </c>
+      <c r="D59">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>1.9416666666666664</v>
+      </c>
+      <c r="H59">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>340</v>
+      </c>
+      <c r="B60" s="1">
+        <f t="shared" si="7"/>
+        <v>45937.21597222222</v>
+      </c>
+      <c r="C60" s="1">
+        <f t="shared" si="8"/>
+        <v>45937.46597222222</v>
+      </c>
+      <c r="D60">
+        <v>18.68</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>1.9883333333333333</v>
+      </c>
+      <c r="H60">
+        <v>8.44</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>341</v>
+      </c>
+      <c r="B61" s="1">
+        <f t="shared" si="7"/>
+        <v>45937.46597222222</v>
+      </c>
+      <c r="C61" s="1">
+        <f t="shared" si="8"/>
+        <v>45937.71597222222</v>
+      </c>
+      <c r="D61">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="0"/>
+        <v>1.9900000000000002</v>
+      </c>
+      <c r="H61">
+        <v>7.86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>342</v>
+      </c>
+      <c r="B62" s="1">
+        <f t="shared" si="7"/>
+        <v>45937.71597222222</v>
+      </c>
+      <c r="C62" s="1">
+        <f t="shared" si="8"/>
+        <v>45937.96597222222</v>
+      </c>
+      <c r="D62">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>1.9750000000000003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>343</v>
+      </c>
+      <c r="B63" s="1">
+        <f t="shared" si="7"/>
+        <v>45937.96597222222</v>
+      </c>
+      <c r="C63" s="1">
+        <f t="shared" si="8"/>
+        <v>45938.21597222222</v>
+      </c>
+      <c r="D63">
+        <v>18.670000000000002</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="0"/>
+        <v>1.986666666666667</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>344</v>
+      </c>
+      <c r="B64" s="1">
+        <f t="shared" si="7"/>
+        <v>45938.21597222222</v>
+      </c>
+      <c r="C64" s="1">
+        <f t="shared" si="8"/>
+        <v>45938.46597222222</v>
+      </c>
+      <c r="D64">
+        <v>18.78</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="0"/>
+        <v>2.0050000000000003</v>
+      </c>
+      <c r="F64">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="G64">
+        <v>749</v>
+      </c>
+      <c r="H64">
+        <v>7.62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>345</v>
+      </c>
+      <c r="B65" s="1">
+        <f t="shared" si="7"/>
+        <v>45938.46597222222</v>
+      </c>
+      <c r="C65" s="1">
+        <f t="shared" si="8"/>
+        <v>45938.71597222222</v>
+      </c>
+      <c r="D65">
+        <v>18.88</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="0"/>
+        <v>2.0216666666666665</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>346</v>
+      </c>
+      <c r="B66" s="1">
+        <f t="shared" si="7"/>
+        <v>45938.71597222222</v>
+      </c>
+      <c r="C66" s="1">
+        <f t="shared" si="8"/>
+        <v>45938.96597222222</v>
+      </c>
+      <c r="D66">
+        <v>18.98</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="0"/>
+        <v>2.0383333333333336</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>347</v>
+      </c>
+      <c r="B67" s="1">
+        <f t="shared" si="7"/>
+        <v>45938.96597222222</v>
+      </c>
+      <c r="C67" s="1">
+        <f t="shared" si="8"/>
+        <v>45939.21597222222</v>
+      </c>
+      <c r="D67">
+        <v>19</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="0"/>
+        <v>2.0416666666666665</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>348</v>
+      </c>
+      <c r="B68" s="1">
+        <f t="shared" si="7"/>
+        <v>45939.21597222222</v>
+      </c>
+      <c r="C68" s="1">
+        <f t="shared" si="8"/>
+        <v>45939.46597222222</v>
+      </c>
+      <c r="D68">
+        <v>18.98</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="0"/>
+        <v>2.0383333333333336</v>
+      </c>
+      <c r="F68">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G68">
+        <v>744</v>
+      </c>
+      <c r="H68">
+        <v>8.14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>349</v>
+      </c>
+      <c r="B69" s="1">
+        <f t="shared" si="7"/>
+        <v>45939.46597222222</v>
+      </c>
+      <c r="C69" s="1">
+        <f t="shared" si="8"/>
+        <v>45939.71597222222</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>350</v>
+      </c>
+      <c r="B70" s="1">
+        <f t="shared" si="7"/>
+        <v>45939.71597222222</v>
+      </c>
+      <c r="C70" s="1">
+        <f t="shared" si="8"/>
+        <v>45939.96597222222</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>351</v>
+      </c>
+      <c r="B71" s="1">
+        <f t="shared" si="7"/>
+        <v>45939.96597222222</v>
+      </c>
+      <c r="C71" s="1">
+        <f t="shared" si="8"/>
+        <v>45940.21597222222</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>352</v>
+      </c>
+      <c r="B72" s="1">
+        <f t="shared" si="7"/>
+        <v>45940.21597222222</v>
+      </c>
+      <c r="C72" s="1">
+        <f t="shared" si="8"/>
+        <v>45940.46597222222</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>353</v>
+      </c>
+      <c r="B73" s="1">
+        <f t="shared" si="7"/>
+        <v>45940.46597222222</v>
+      </c>
+      <c r="C73" s="1">
+        <f t="shared" si="8"/>
+        <v>45940.71597222222</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>354</v>
+      </c>
+      <c r="B74" s="1">
+        <f t="shared" si="7"/>
+        <v>45940.71597222222</v>
+      </c>
+      <c r="C74" s="1">
+        <f t="shared" si="8"/>
+        <v>45940.96597222222</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>355</v>
+      </c>
+      <c r="B75" s="1">
+        <f t="shared" si="7"/>
+        <v>45940.96597222222</v>
+      </c>
+      <c r="C75" s="1">
+        <f t="shared" si="8"/>
+        <v>45941.21597222222</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>356</v>
+      </c>
+      <c r="B76" s="1">
+        <f t="shared" si="7"/>
+        <v>45941.21597222222</v>
+      </c>
+      <c r="C76" s="1">
+        <f t="shared" si="8"/>
+        <v>45941.46597222222</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>357</v>
+      </c>
+      <c r="B77" s="1">
+        <f t="shared" si="7"/>
+        <v>45941.46597222222</v>
+      </c>
+      <c r="C77" s="1">
+        <f t="shared" si="8"/>
+        <v>45941.71597222222</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>358</v>
+      </c>
+      <c r="B78" s="1">
+        <f t="shared" si="7"/>
+        <v>45941.71597222222</v>
+      </c>
+      <c r="C78" s="1">
+        <f t="shared" si="8"/>
+        <v>45941.96597222222</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>359</v>
+      </c>
+      <c r="B79" s="1">
+        <f t="shared" si="7"/>
+        <v>45941.96597222222</v>
+      </c>
+      <c r="C79" s="1">
+        <f t="shared" si="8"/>
+        <v>45942.21597222222</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>360</v>
+      </c>
+      <c r="B80" s="1">
+        <f t="shared" si="7"/>
+        <v>45942.21597222222</v>
+      </c>
+      <c r="C80" s="1">
+        <f t="shared" si="8"/>
+        <v>45942.46597222222</v>
       </c>
     </row>
   </sheetData>
@@ -6999,10 +9520,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CEAE0A4-BA85-AC4B-952F-A9D4082FC119}">
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:L80"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7036,16 +9557,16 @@
         <v>20</v>
       </c>
       <c r="I1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" t="s">
         <v>46</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>47</v>
       </c>
-      <c r="K1" t="s">
-        <v>48</v>
-      </c>
       <c r="L1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -7063,7 +9584,7 @@
         <v>18.05</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E48" si="0">(D2-6.75)/6</f>
+        <f t="shared" ref="E2:E56" si="0">(D2-6.75)/6</f>
         <v>1.8833333333333335</v>
       </c>
     </row>
@@ -7118,7 +9639,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="1">
         <f t="shared" si="1"/>
@@ -7138,7 +9659,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" si="1"/>
@@ -7158,7 +9679,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" si="1"/>
@@ -7178,7 +9699,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" si="1"/>
@@ -7198,7 +9719,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" si="1"/>
@@ -7220,7 +9741,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" si="1"/>
@@ -7240,7 +9761,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" si="1"/>
@@ -7260,7 +9781,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" si="1"/>
@@ -7280,7 +9801,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" si="1"/>
@@ -7300,7 +9821,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" si="1"/>
@@ -7320,7 +9841,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" si="1"/>
@@ -7340,7 +9861,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" si="1"/>
@@ -7367,12 +9888,12 @@
         <v>4.7E-2</v>
       </c>
       <c r="L16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B17" s="1">
         <f t="shared" si="1"/>
@@ -7383,12 +9904,12 @@
         <v>45926.71597222222</v>
       </c>
       <c r="L17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B18" s="1">
         <f t="shared" si="1"/>
@@ -7408,7 +9929,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B19" s="1">
         <f t="shared" si="1"/>
@@ -7428,7 +9949,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B20" s="1">
         <f t="shared" si="1"/>
@@ -7448,7 +9969,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B21" s="1">
         <f t="shared" si="1"/>
@@ -7468,7 +9989,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B22" s="1">
         <f t="shared" si="1"/>
@@ -7488,7 +10009,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B23" s="1">
         <f t="shared" si="1"/>
@@ -7508,7 +10029,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B24" s="1">
         <f t="shared" si="1"/>
@@ -7537,7 +10058,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B25" s="1">
         <f t="shared" si="1"/>
@@ -7557,7 +10078,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B26" s="1">
         <f t="shared" si="1"/>
@@ -7577,7 +10098,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B27" s="1">
         <f t="shared" si="1"/>
@@ -7597,7 +10118,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B28" s="1">
         <f t="shared" si="1"/>
@@ -7624,12 +10145,12 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="L28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B29" s="1">
         <f t="shared" si="1"/>
@@ -7649,7 +10170,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B30" s="1">
         <f t="shared" si="1"/>
@@ -7669,7 +10190,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B31" s="1">
         <f t="shared" si="1"/>
@@ -7689,7 +10210,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B32" s="1">
         <f t="shared" si="1"/>
@@ -7709,7 +10230,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B33" s="1">
         <f t="shared" si="1"/>
@@ -7722,7 +10243,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B34" s="1">
         <f t="shared" si="1"/>
@@ -7742,7 +10263,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B35" s="1">
         <f t="shared" si="1"/>
@@ -7762,7 +10283,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B36" s="1">
         <f t="shared" si="1"/>
@@ -7788,7 +10309,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B37" s="1">
         <f t="shared" ref="B37:B56" si="3">C36</f>
@@ -7808,7 +10329,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B38" s="1">
         <f t="shared" si="3"/>
@@ -7828,7 +10349,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B39" s="1">
         <f t="shared" si="3"/>
@@ -7848,7 +10369,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B40" s="1">
         <f t="shared" si="3"/>
@@ -7874,7 +10395,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B41" s="1">
         <f t="shared" si="3"/>
@@ -7894,7 +10415,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B42" s="1">
         <f t="shared" si="3"/>
@@ -7914,7 +10435,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B43" s="1">
         <f t="shared" si="3"/>
@@ -7934,7 +10455,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B44" s="1">
         <f t="shared" si="3"/>
@@ -7954,7 +10475,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B45" s="1">
         <f t="shared" si="3"/>
@@ -7974,7 +10495,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B46" s="1">
         <f t="shared" si="3"/>
@@ -7994,7 +10515,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B47" s="1">
         <f t="shared" si="3"/>
@@ -8014,7 +10535,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B48" s="1">
         <f t="shared" si="3"/>
@@ -8038,9 +10559,9 @@
         <v>557</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B49" s="1">
         <f t="shared" si="3"/>
@@ -8050,10 +10571,17 @@
         <f t="shared" si="4"/>
         <v>45934.71597222222</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D49">
+        <v>18.12</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>1.8950000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B50" s="1">
         <f t="shared" si="3"/>
@@ -8063,10 +10591,17 @@
         <f t="shared" si="4"/>
         <v>45934.96597222222</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D50">
+        <v>18.11</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>1.8933333333333333</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B51" s="1">
         <f t="shared" si="3"/>
@@ -8076,10 +10611,17 @@
         <f t="shared" si="4"/>
         <v>45935.21597222222</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D51">
+        <v>18.14</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>1.8983333333333334</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B52" s="1">
         <f t="shared" si="3"/>
@@ -8089,10 +10631,17 @@
         <f t="shared" si="4"/>
         <v>45935.46597222222</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D52">
+        <v>18.25</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>1.9166666666666667</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B53" s="1">
         <f t="shared" si="3"/>
@@ -8102,10 +10651,17 @@
         <f t="shared" si="4"/>
         <v>45935.71597222222</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D53">
+        <v>18.14</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>1.8983333333333334</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B54" s="1">
         <f t="shared" si="3"/>
@@ -8115,10 +10671,17 @@
         <f t="shared" si="4"/>
         <v>45935.96597222222</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D54">
+        <v>18.190000000000001</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>1.906666666666667</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B55" s="1">
         <f t="shared" si="3"/>
@@ -8128,10 +10691,17 @@
         <f t="shared" si="4"/>
         <v>45936.21597222222</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D55">
+        <v>18.21</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>1.9100000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B56" s="1">
         <f t="shared" si="3"/>
@@ -8140,6 +10710,399 @@
       <c r="C56" s="1">
         <f t="shared" si="4"/>
         <v>45936.46597222222</v>
+      </c>
+      <c r="D56">
+        <v>18.25</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>1.9166666666666667</v>
+      </c>
+      <c r="F56">
+        <v>7.9</v>
+      </c>
+      <c r="G56">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>361</v>
+      </c>
+      <c r="B57" s="1">
+        <f t="shared" ref="B57:B80" si="5">C56</f>
+        <v>45936.46597222222</v>
+      </c>
+      <c r="C57" s="1">
+        <f t="shared" ref="C57:C80" si="6">B57+6/24</f>
+        <v>45936.71597222222</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>362</v>
+      </c>
+      <c r="B58" s="1">
+        <f t="shared" si="5"/>
+        <v>45936.71597222222</v>
+      </c>
+      <c r="C58" s="1">
+        <f t="shared" si="6"/>
+        <v>45936.96597222222</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>363</v>
+      </c>
+      <c r="B59" s="1">
+        <f t="shared" si="5"/>
+        <v>45936.96597222222</v>
+      </c>
+      <c r="C59" s="1">
+        <f t="shared" si="6"/>
+        <v>45937.21597222222</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>364</v>
+      </c>
+      <c r="B60" s="1">
+        <f t="shared" si="5"/>
+        <v>45937.21597222222</v>
+      </c>
+      <c r="C60" s="1">
+        <f t="shared" si="6"/>
+        <v>45937.46597222222</v>
+      </c>
+      <c r="D60">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="E60">
+        <f t="shared" ref="E60" si="7">(D60-6.75)/6</f>
+        <v>1.8999999999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>365</v>
+      </c>
+      <c r="B61" s="1">
+        <f t="shared" si="5"/>
+        <v>45937.46597222222</v>
+      </c>
+      <c r="C61" s="1">
+        <f t="shared" si="6"/>
+        <v>45937.71597222222</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>366</v>
+      </c>
+      <c r="B62" s="1">
+        <f t="shared" si="5"/>
+        <v>45937.71597222222</v>
+      </c>
+      <c r="C62" s="1">
+        <f t="shared" si="6"/>
+        <v>45937.96597222222</v>
+      </c>
+      <c r="D62">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="E62">
+        <f t="shared" ref="E62" si="8">(D62-6.75)/6</f>
+        <v>1.7250000000000003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>367</v>
+      </c>
+      <c r="B63" s="1">
+        <f t="shared" si="5"/>
+        <v>45937.96597222222</v>
+      </c>
+      <c r="C63" s="1">
+        <f t="shared" si="6"/>
+        <v>45938.21597222222</v>
+      </c>
+      <c r="D63">
+        <v>17.829999999999998</v>
+      </c>
+      <c r="E63">
+        <f t="shared" ref="E63:E68" si="9">(D63-6.75)/6</f>
+        <v>1.8466666666666665</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>368</v>
+      </c>
+      <c r="B64" s="1">
+        <f t="shared" si="5"/>
+        <v>45938.21597222222</v>
+      </c>
+      <c r="C64" s="1">
+        <f t="shared" si="6"/>
+        <v>45938.46597222222</v>
+      </c>
+      <c r="D64">
+        <v>17.98</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="9"/>
+        <v>1.8716666666666668</v>
+      </c>
+      <c r="F64">
+        <v>7.83</v>
+      </c>
+      <c r="G64">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>369</v>
+      </c>
+      <c r="B65" s="1">
+        <f t="shared" si="5"/>
+        <v>45938.46597222222</v>
+      </c>
+      <c r="C65" s="1">
+        <f t="shared" si="6"/>
+        <v>45938.71597222222</v>
+      </c>
+      <c r="D65">
+        <v>18.63</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="9"/>
+        <v>1.9799999999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>370</v>
+      </c>
+      <c r="B66" s="1">
+        <f t="shared" si="5"/>
+        <v>45938.71597222222</v>
+      </c>
+      <c r="C66" s="1">
+        <f t="shared" si="6"/>
+        <v>45938.96597222222</v>
+      </c>
+      <c r="D66">
+        <v>18.71</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="9"/>
+        <v>1.9933333333333334</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>371</v>
+      </c>
+      <c r="B67" s="1">
+        <f t="shared" si="5"/>
+        <v>45938.96597222222</v>
+      </c>
+      <c r="C67" s="1">
+        <f t="shared" si="6"/>
+        <v>45939.21597222222</v>
+      </c>
+      <c r="D67">
+        <v>18.670000000000002</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="9"/>
+        <v>1.986666666666667</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>372</v>
+      </c>
+      <c r="B68" s="1">
+        <f t="shared" si="5"/>
+        <v>45939.21597222222</v>
+      </c>
+      <c r="C68" s="1">
+        <f t="shared" si="6"/>
+        <v>45939.46597222222</v>
+      </c>
+      <c r="D68">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="9"/>
+        <v>1.9900000000000002</v>
+      </c>
+      <c r="F68">
+        <v>8.01</v>
+      </c>
+      <c r="G68">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>373</v>
+      </c>
+      <c r="B69" s="1">
+        <f t="shared" si="5"/>
+        <v>45939.46597222222</v>
+      </c>
+      <c r="C69" s="1">
+        <f t="shared" si="6"/>
+        <v>45939.71597222222</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>374</v>
+      </c>
+      <c r="B70" s="1">
+        <f t="shared" si="5"/>
+        <v>45939.71597222222</v>
+      </c>
+      <c r="C70" s="1">
+        <f t="shared" si="6"/>
+        <v>45939.96597222222</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>375</v>
+      </c>
+      <c r="B71" s="1">
+        <f t="shared" si="5"/>
+        <v>45939.96597222222</v>
+      </c>
+      <c r="C71" s="1">
+        <f t="shared" si="6"/>
+        <v>45940.21597222222</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>376</v>
+      </c>
+      <c r="B72" s="1">
+        <f t="shared" si="5"/>
+        <v>45940.21597222222</v>
+      </c>
+      <c r="C72" s="1">
+        <f t="shared" si="6"/>
+        <v>45940.46597222222</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>377</v>
+      </c>
+      <c r="B73" s="1">
+        <f t="shared" si="5"/>
+        <v>45940.46597222222</v>
+      </c>
+      <c r="C73" s="1">
+        <f t="shared" si="6"/>
+        <v>45940.71597222222</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>378</v>
+      </c>
+      <c r="B74" s="1">
+        <f t="shared" si="5"/>
+        <v>45940.71597222222</v>
+      </c>
+      <c r="C74" s="1">
+        <f t="shared" si="6"/>
+        <v>45940.96597222222</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>379</v>
+      </c>
+      <c r="B75" s="1">
+        <f t="shared" si="5"/>
+        <v>45940.96597222222</v>
+      </c>
+      <c r="C75" s="1">
+        <f t="shared" si="6"/>
+        <v>45941.21597222222</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>380</v>
+      </c>
+      <c r="B76" s="1">
+        <f t="shared" si="5"/>
+        <v>45941.21597222222</v>
+      </c>
+      <c r="C76" s="1">
+        <f t="shared" si="6"/>
+        <v>45941.46597222222</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>381</v>
+      </c>
+      <c r="B77" s="1">
+        <f t="shared" si="5"/>
+        <v>45941.46597222222</v>
+      </c>
+      <c r="C77" s="1">
+        <f t="shared" si="6"/>
+        <v>45941.71597222222</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>382</v>
+      </c>
+      <c r="B78" s="1">
+        <f t="shared" si="5"/>
+        <v>45941.71597222222</v>
+      </c>
+      <c r="C78" s="1">
+        <f t="shared" si="6"/>
+        <v>45941.96597222222</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>383</v>
+      </c>
+      <c r="B79" s="1">
+        <f t="shared" si="5"/>
+        <v>45941.96597222222</v>
+      </c>
+      <c r="C79" s="1">
+        <f t="shared" si="6"/>
+        <v>45942.21597222222</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>384</v>
+      </c>
+      <c r="B80" s="1">
+        <f t="shared" si="5"/>
+        <v>45942.21597222222</v>
+      </c>
+      <c r="C80" s="1">
+        <f t="shared" si="6"/>
+        <v>45942.46597222222</v>
       </c>
     </row>
   </sheetData>
@@ -8150,19 +11113,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16994493-3AAA-0649-9876-DE782407159B}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8173,12 +11136,27 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>22</v>
       </c>
       <c r="B2" s="1">
         <v>45924.666666666664</v>
@@ -8186,10 +11164,23 @@
       <c r="C2" s="1">
         <v>45924.708333333336</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="E2">
+        <f>282.18*D2-28.951</f>
+        <v>-4.4013400000000011</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>0.129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1">
         <v>45924.666666666664</v>
@@ -8197,10 +11188,23 @@
       <c r="C3" s="1">
         <v>45924.708333333336</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>9.4E-2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E17" si="0">282.18*D3-28.951</f>
+        <v>-2.4260799999999989</v>
+      </c>
+      <c r="G3">
+        <v>25</v>
+      </c>
+      <c r="H3">
+        <v>0.19800000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1">
         <v>45924.666666666664</v>
@@ -8208,10 +11212,23 @@
       <c r="C4" s="1">
         <v>45924.708333333336</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>0.09</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>-3.5548000000000002</v>
+      </c>
+      <c r="G4">
+        <v>50</v>
+      </c>
+      <c r="H4">
+        <v>0.28699999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1">
         <v>45924.666666666664</v>
@@ -8219,10 +11236,23 @@
       <c r="C5" s="1">
         <v>45924.708333333336</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>-3.8369800000000005</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>0.45200000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="1">
         <v>45926.600694444445</v>
@@ -8230,10 +11260,17 @@
       <c r="C6" s="1">
         <v>45926.642361111109</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>-1.8617199999999983</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="1">
         <v>45926.600694444445</v>
@@ -8241,10 +11278,17 @@
       <c r="C7" s="1">
         <v>45926.642361111109</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>-1.8617199999999983</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="1">
         <v>45926.600694444445</v>
@@ -8252,10 +11296,17 @@
       <c r="C8" s="1">
         <v>45926.642361111109</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>-1.5795399999999979</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" s="1">
         <v>45926.600694444445</v>
@@ -8263,9 +11314,161 @@
       <c r="C9" s="1">
         <v>45926.642361111109</v>
       </c>
+      <c r="D9">
+        <v>9.4E-2</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>-2.4260799999999989</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45931.552083333336</v>
+      </c>
+      <c r="C10" s="1">
+        <v>45931.59375</v>
+      </c>
+      <c r="D10">
+        <v>0.09</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>-3.5548000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45931.552083333336</v>
+      </c>
+      <c r="C11" s="1">
+        <v>45931.59375</v>
+      </c>
+      <c r="D11">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>-4.1191600000000008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45931.552083333336</v>
+      </c>
+      <c r="C12" s="1">
+        <v>45931.59375</v>
+      </c>
+      <c r="D12">
+        <v>9.4E-2</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>-2.4260799999999989</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45931.552083333336</v>
+      </c>
+      <c r="C13" s="1">
+        <v>45931.59375</v>
+      </c>
+      <c r="D13">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>-2.1438999999999986</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>290</v>
+      </c>
+      <c r="B14" s="1">
+        <v>45936.59375</v>
+      </c>
+      <c r="C14" s="1">
+        <v>45936.635416666664</v>
+      </c>
+      <c r="D14">
+        <v>0.09</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>-3.5548000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>291</v>
+      </c>
+      <c r="B15" s="1">
+        <v>45936.59375</v>
+      </c>
+      <c r="C15" s="1">
+        <v>45936.635416666664</v>
+      </c>
+      <c r="D15">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>-3.2726199999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>292</v>
+      </c>
+      <c r="B16" s="1">
+        <v>45936.59375</v>
+      </c>
+      <c r="C16" s="1">
+        <v>45936.635416666664</v>
+      </c>
+      <c r="D16">
+        <v>9.4E-2</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>-2.4260799999999989</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>293</v>
+      </c>
+      <c r="B17" s="1">
+        <v>45936.59375</v>
+      </c>
+      <c r="C17" s="1">
+        <v>45936.635416666664</v>
+      </c>
+      <c r="D17">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>16.762160000000002</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8312,10 +11515,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A1C8F7-0C5B-6045-992F-0FD6B0162923}">
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView zoomScale="118" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8325,34 +11528,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" t="s">
         <v>164</v>
-      </c>
-      <c r="B1" t="s">
-        <v>165</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" t="s">
         <v>166</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>167</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>168</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>169</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>170</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>171</v>
-      </c>
-      <c r="J1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -8360,7 +11563,7 @@
         <v>12.09</v>
       </c>
       <c r="B2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C2" t="str">
         <f>_xlfn.CONCAT("F",B2,"-",A2)</f>
@@ -8369,9 +11572,12 @@
       <c r="D2">
         <v>0.314</v>
       </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
       <c r="F2">
-        <f t="shared" ref="F2:F12" si="0">64.069*AVERAGE(D2:D2)-2.8707</f>
-        <v>17.246966</v>
+        <f>($J$11*AVERAGE(D2:D2)+$J$12)*E2</f>
+        <v>16.045509352517985</v>
       </c>
       <c r="G2">
         <v>50</v>
@@ -8383,8 +11589,8 @@
         <v>0.90200000000000002</v>
       </c>
       <c r="J2">
-        <f t="shared" ref="J2:J8" si="1">SUM(H2:I2)/3</f>
-        <v>0.59166666666666667</v>
+        <f>AVERAGE(H2:I2)</f>
+        <v>0.88749999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -8392,18 +11598,21 @@
         <v>12.09</v>
       </c>
       <c r="B3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C13" si="2">_xlfn.CONCAT("F",B3,"-",A3)</f>
+        <f t="shared" ref="C3:C13" si="0">_xlfn.CONCAT("F",B3,"-",A3)</f>
         <v>Fcontrol-12.09</v>
       </c>
       <c r="D3">
         <v>0.22700000000000001</v>
       </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
       <c r="F3">
-        <f t="shared" si="0"/>
-        <v>11.672963000000001</v>
+        <f t="shared" ref="F3:F66" si="1">($J$11*AVERAGE(D3:D3)+$J$12)*E3</f>
+        <v>10.929784172661869</v>
       </c>
       <c r="G3">
         <v>40</v>
@@ -8415,8 +11624,8 @@
         <v>0.74</v>
       </c>
       <c r="J3">
-        <f t="shared" si="1"/>
-        <v>0.48500000000000004</v>
+        <f t="shared" ref="J3:J9" si="2">AVERAGE(H3:I3)</f>
+        <v>0.72750000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -8424,18 +11633,21 @@
         <v>12.09</v>
       </c>
       <c r="B4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>F19-20B-12.09</v>
       </c>
       <c r="D4">
         <v>0.20499999999999999</v>
       </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
       <c r="F4">
-        <f t="shared" si="0"/>
-        <v>10.263445000000001</v>
+        <f t="shared" si="1"/>
+        <v>9.6361525179856091</v>
       </c>
       <c r="G4">
         <v>30</v>
@@ -8447,8 +11659,8 @@
         <v>0.47399999999999998</v>
       </c>
       <c r="J4">
-        <f t="shared" si="1"/>
-        <v>0.34966666666666663</v>
+        <f t="shared" si="2"/>
+        <v>0.52449999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -8456,18 +11668,21 @@
         <v>12.09</v>
       </c>
       <c r="B5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>F13-14A-12.09</v>
       </c>
       <c r="D5">
         <v>5.8999999999999997E-2</v>
       </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
       <c r="F5">
-        <f t="shared" si="0"/>
-        <v>0.90937100000000015</v>
+        <f t="shared" si="1"/>
+        <v>1.0511424460431615</v>
       </c>
       <c r="G5">
         <v>20</v>
@@ -8479,8 +11694,8 @@
         <v>0.41299999999999998</v>
       </c>
       <c r="J5">
-        <f t="shared" si="1"/>
-        <v>0.27066666666666667</v>
+        <f t="shared" si="2"/>
+        <v>0.40600000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -8488,18 +11703,21 @@
         <v>12.09</v>
       </c>
       <c r="B6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>F13-14B-12.09</v>
       </c>
       <c r="D6">
         <v>0.17199999999999999</v>
       </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
       <c r="F6">
-        <f t="shared" si="0"/>
-        <v>8.1491679999999995</v>
+        <f t="shared" si="1"/>
+        <v>7.6957050359712191</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -8511,8 +11729,8 @@
         <v>0.22900000000000001</v>
       </c>
       <c r="J6">
-        <f t="shared" si="1"/>
-        <v>0.15166666666666667</v>
+        <f t="shared" si="2"/>
+        <v>0.22750000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -8520,18 +11738,21 @@
         <v>12.09</v>
       </c>
       <c r="B7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>F17-18B-12.09</v>
       </c>
       <c r="D7">
         <v>6.9000000000000006E-2</v>
       </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
       <c r="F7">
-        <f t="shared" si="0"/>
-        <v>1.5500610000000008</v>
+        <f t="shared" si="1"/>
+        <v>1.639156834532371</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -8543,8 +11764,8 @@
         <v>0.13</v>
       </c>
       <c r="J7">
-        <f t="shared" si="1"/>
-        <v>8.6000000000000007E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.129</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -8552,18 +11773,21 @@
         <v>12.09</v>
       </c>
       <c r="B8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>F16-17B-12.09</v>
       </c>
       <c r="D8">
         <v>9.9000000000000005E-2</v>
       </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
       <c r="F8">
-        <f t="shared" si="0"/>
-        <v>3.4721310000000005</v>
+        <f t="shared" si="1"/>
+        <v>3.4031999999999965</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -8575,8 +11799,8 @@
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="J8">
-        <f t="shared" si="1"/>
-        <v>4.6000000000000006E-2</v>
+        <f t="shared" si="2"/>
+        <v>6.9000000000000006E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -8584,18 +11808,21 @@
         <v>12.09</v>
       </c>
       <c r="B9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>F17-18A-12.09</v>
       </c>
       <c r="D9">
         <v>8.6999999999999994E-2</v>
       </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
       <c r="F9">
-        <f t="shared" si="0"/>
-        <v>2.7033030000000005</v>
+        <f t="shared" si="1"/>
+        <v>2.6975827338129461</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -8607,7 +11834,7 @@
         <v>3.9E-2</v>
       </c>
       <c r="J9">
-        <f>SUM(H9:I9)/2</f>
+        <f t="shared" si="2"/>
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
@@ -8616,18 +11843,21 @@
         <v>12.09</v>
       </c>
       <c r="B10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>F18-19-12.09</v>
       </c>
       <c r="D10">
         <v>0.09</v>
       </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
       <c r="F10">
-        <f t="shared" si="0"/>
-        <v>2.8955100000000003</v>
+        <f t="shared" si="1"/>
+        <v>2.8739870503597089</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -8635,18 +11865,28 @@
         <v>12.09</v>
       </c>
       <c r="B11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>F19-20A-12.09</v>
       </c>
       <c r="D11">
         <v>5.8000000000000003E-2</v>
       </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
       <c r="F11">
-        <f t="shared" si="0"/>
-        <v>0.84530200000000066</v>
+        <f t="shared" si="1"/>
+        <v>0.9923410071942409</v>
+      </c>
+      <c r="I11" t="s">
+        <v>385</v>
+      </c>
+      <c r="J11">
+        <f>SLOPE(G2:G9,J2:J9)</f>
+        <v>58.801438848920874</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -8654,18 +11894,28 @@
         <v>12.09</v>
       </c>
       <c r="B12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>F16-17A-12.09</v>
       </c>
       <c r="D12">
         <v>0.16700000000000001</v>
       </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
       <c r="F12">
-        <f t="shared" si="0"/>
-        <v>7.8288230000000016</v>
+        <f t="shared" si="1"/>
+        <v>7.4016978417266159</v>
+      </c>
+      <c r="I12" t="s">
+        <v>386</v>
+      </c>
+      <c r="J12">
+        <f>INTERCEPT(G2:G9,J2:J9)</f>
+        <v>-2.41814244604317</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -8673,10 +11923,10 @@
         <v>14.09</v>
       </c>
       <c r="B13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>FP1-14.09</v>
       </c>
       <c r="D13">
@@ -8686,13 +11936,13 @@
         <v>4</v>
       </c>
       <c r="F13">
-        <f>(64.069*AVERAGE(D13:D13)-2.8707)*E13</f>
-        <v>153.04639200000003</v>
+        <f t="shared" si="1"/>
+        <v>141.32952517985612</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D14">
         <v>0.126</v>
@@ -8701,8 +11951,8 @@
         <v>4</v>
       </c>
       <c r="F14">
-        <f t="shared" ref="F14:F53" si="3">(64.069*AVERAGE(D14:D14)-2.8707)*E14</f>
-        <v>20.807976000000004</v>
+        <f t="shared" si="1"/>
+        <v>19.96335539568344</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -8716,13 +11966,13 @@
         <v>4</v>
       </c>
       <c r="F15">
-        <f t="shared" si="3"/>
-        <v>39.259848000000005</v>
+        <f t="shared" si="1"/>
+        <v>36.898169784172651</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16">
         <v>0.19</v>
@@ -8731,13 +11981,13 @@
         <v>4</v>
       </c>
       <c r="F16">
-        <f t="shared" si="3"/>
-        <v>37.209640000000007</v>
+        <f t="shared" si="1"/>
+        <v>35.016523741007184</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D17">
         <v>0.17899999999999999</v>
@@ -8746,13 +11996,13 @@
         <v>4</v>
       </c>
       <c r="F17">
-        <f t="shared" si="3"/>
-        <v>34.390604000000003</v>
+        <f t="shared" si="1"/>
+        <v>32.429260431654662</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D18">
         <v>0.19700000000000001</v>
@@ -8761,13 +12011,13 @@
         <v>4</v>
       </c>
       <c r="F18">
-        <f t="shared" si="3"/>
-        <v>39.003572000000005</v>
+        <f t="shared" si="1"/>
+        <v>36.662964028776969</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D19">
         <v>0.183</v>
@@ -8776,13 +12026,13 @@
         <v>4</v>
       </c>
       <c r="F19">
-        <f t="shared" si="3"/>
-        <v>35.415708000000002</v>
+        <f t="shared" si="1"/>
+        <v>33.370083453237399</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D20">
         <v>3.5000000000000003E-2</v>
@@ -8791,8 +12041,8 @@
         <v>4</v>
       </c>
       <c r="F20">
-        <f t="shared" si="3"/>
-        <v>-2.5131399999999982</v>
+        <f t="shared" si="1"/>
+        <v>-1.4403683453237566</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.2">
@@ -8806,13 +12056,13 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <f t="shared" si="3"/>
-        <v>985.62932000000001</v>
+        <f t="shared" si="1"/>
+        <v>908.92457553956831</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D22">
         <v>0.68300000000000005</v>
@@ -8821,13 +12071,13 @@
         <v>20</v>
       </c>
       <c r="F22">
-        <f t="shared" si="3"/>
-        <v>817.76854000000014</v>
+        <f t="shared" si="1"/>
+        <v>754.86480575539576</v>
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D23">
         <v>0.51</v>
@@ -8836,13 +12086,13 @@
         <v>10</v>
       </c>
       <c r="F23">
-        <f t="shared" si="3"/>
-        <v>298.04489999999998</v>
+        <f t="shared" si="1"/>
+        <v>275.70591366906478</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D24">
         <v>0.38200000000000001</v>
@@ -8851,13 +12101,13 @@
         <v>10</v>
       </c>
       <c r="F24">
-        <f t="shared" si="3"/>
-        <v>216.03658000000001</v>
+        <f t="shared" si="1"/>
+        <v>200.44007194244602</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D25">
         <v>0.31</v>
@@ -8866,13 +12116,13 @@
         <v>10</v>
       </c>
       <c r="F25">
-        <f t="shared" si="3"/>
-        <v>169.90690000000001</v>
+        <f t="shared" si="1"/>
+        <v>158.10303597122299</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D26">
         <v>4.2000000000000003E-2</v>
@@ -8881,8 +12131,8 @@
         <v>4</v>
       </c>
       <c r="F26">
-        <f t="shared" si="3"/>
-        <v>-0.71920799999999829</v>
+        <f t="shared" si="1"/>
+        <v>0.20607194244602844</v>
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.2">
@@ -8896,13 +12146,13 @@
         <v>20</v>
       </c>
       <c r="F27">
-        <f t="shared" si="3"/>
-        <v>812.64302000000021</v>
+        <f t="shared" si="1"/>
+        <v>750.16069064748206</v>
       </c>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D28">
         <v>0.629</v>
@@ -8911,13 +12161,13 @@
         <v>20</v>
       </c>
       <c r="F28">
-        <f t="shared" si="3"/>
-        <v>748.57402000000002</v>
+        <f t="shared" si="1"/>
+        <v>691.35925179856122</v>
       </c>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D29">
         <v>0.80700000000000005</v>
@@ -8926,13 +12176,13 @@
         <v>10</v>
       </c>
       <c r="F29">
-        <f t="shared" si="3"/>
-        <v>488.32983000000007</v>
+        <f t="shared" si="1"/>
+        <v>450.34618705035984</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D30">
         <v>0.626</v>
@@ -8941,13 +12191,13 @@
         <v>10</v>
       </c>
       <c r="F30">
-        <f t="shared" si="3"/>
-        <v>372.36493999999999</v>
+        <f t="shared" si="1"/>
+        <v>343.91558273381298</v>
       </c>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D31">
         <v>0.55800000000000005</v>
@@ -8956,13 +12206,13 @@
         <v>10</v>
       </c>
       <c r="F31">
-        <f t="shared" si="3"/>
-        <v>328.79802000000007</v>
+        <f t="shared" si="1"/>
+        <v>303.93060431654681</v>
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C32" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D32">
         <v>5.5E-2</v>
@@ -8971,8 +12221,8 @@
         <v>1</v>
       </c>
       <c r="F32">
-        <f t="shared" si="3"/>
-        <v>0.65309500000000043</v>
+        <f t="shared" si="1"/>
+        <v>0.81593669064747809</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.2">
@@ -8986,13 +12236,13 @@
         <v>1</v>
       </c>
       <c r="F33">
-        <f t="shared" si="3"/>
-        <v>-0.56421600000000005</v>
+        <f t="shared" si="1"/>
+        <v>-0.3012906474820185</v>
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C34" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D34">
         <v>3.5000000000000003E-2</v>
@@ -9001,13 +12251,13 @@
         <v>1</v>
       </c>
       <c r="F34">
-        <f t="shared" si="3"/>
-        <v>-0.62828499999999954</v>
+        <f t="shared" si="1"/>
+        <v>-0.36009208633093914</v>
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C35" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D35">
         <v>3.6999999999999998E-2</v>
@@ -9016,13 +12266,13 @@
         <v>1</v>
       </c>
       <c r="F35">
-        <f t="shared" si="3"/>
-        <v>-0.50014699999999968</v>
+        <f t="shared" si="1"/>
+        <v>-0.24248920863309786</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C36" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D36">
         <v>3.7999999999999999E-2</v>
@@ -9031,13 +12281,13 @@
         <v>1</v>
       </c>
       <c r="F36">
-        <f t="shared" si="3"/>
-        <v>-0.43607799999999974</v>
+        <f t="shared" si="1"/>
+        <v>-0.18368776978417678</v>
       </c>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C37" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D37">
         <v>3.4000000000000002E-2</v>
@@ -9046,13 +12296,13 @@
         <v>1</v>
       </c>
       <c r="F37">
-        <f t="shared" si="3"/>
-        <v>-0.69235399999999947</v>
+        <f t="shared" si="1"/>
+        <v>-0.41889352517986</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C38" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D38">
         <v>0.159</v>
@@ -9061,13 +12311,13 @@
         <v>4</v>
       </c>
       <c r="F38">
-        <f t="shared" si="3"/>
-        <v>29.265084000000002</v>
+        <f t="shared" si="1"/>
+        <v>27.725145323740996</v>
       </c>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C39" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D39">
         <v>0.16500000000000001</v>
@@ -9076,13 +12326,13 @@
         <v>4</v>
       </c>
       <c r="F39">
-        <f t="shared" si="3"/>
-        <v>30.802740000000007</v>
+        <f t="shared" si="1"/>
+        <v>29.136379856115099</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C40" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D40">
         <v>0.22900000000000001</v>
@@ -9091,13 +12341,13 @@
         <v>4</v>
       </c>
       <c r="F40">
-        <f t="shared" si="3"/>
-        <v>47.204404000000004</v>
+        <f t="shared" si="1"/>
+        <v>44.189548201438846</v>
       </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C41" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D41">
         <v>0.126</v>
@@ -9106,13 +12356,13 @@
         <v>4</v>
       </c>
       <c r="F41">
-        <f t="shared" si="3"/>
-        <v>20.807976000000004</v>
+        <f t="shared" si="1"/>
+        <v>19.96335539568344</v>
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C42" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D42">
         <v>0.84599999999999997</v>
@@ -9121,13 +12371,13 @@
         <v>4</v>
       </c>
       <c r="F42">
-        <f t="shared" si="3"/>
-        <v>205.326696</v>
+        <f t="shared" si="1"/>
+        <v>189.31149928057556</v>
       </c>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C43" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D43">
         <v>0.79</v>
@@ -9136,13 +12386,13 @@
         <v>4</v>
       </c>
       <c r="F43">
-        <f>(64.069*AVERAGE(D43:D43)-2.8707)*E43</f>
-        <v>190.97524000000001</v>
+        <f t="shared" si="1"/>
+        <v>176.13997697841728</v>
       </c>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C44" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D44">
         <v>3.1E-2</v>
@@ -9151,13 +12401,13 @@
         <v>1</v>
       </c>
       <c r="F44">
-        <f t="shared" si="3"/>
-        <v>-0.88456099999999971</v>
+        <f t="shared" si="1"/>
+        <v>-0.59529784172662281</v>
       </c>
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C45" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D45">
         <v>3.1E-2</v>
@@ -9166,13 +12416,13 @@
         <v>1</v>
       </c>
       <c r="F45">
-        <f t="shared" si="3"/>
-        <v>-0.88456099999999971</v>
+        <f t="shared" si="1"/>
+        <v>-0.59529784172662281</v>
       </c>
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C46" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D46">
         <v>0.51100000000000001</v>
@@ -9181,13 +12431,13 @@
         <v>1</v>
       </c>
       <c r="F46">
-        <f t="shared" si="3"/>
-        <v>29.868559000000005</v>
+        <f t="shared" si="1"/>
+        <v>27.629392805755398</v>
       </c>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C47" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D47">
         <v>0.48199999999999998</v>
@@ -9196,13 +12446,13 @@
         <v>1</v>
       </c>
       <c r="F47">
-        <f t="shared" si="3"/>
-        <v>28.010558</v>
+        <f t="shared" si="1"/>
+        <v>25.924151079136692</v>
       </c>
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C48" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D48">
         <v>0.193</v>
@@ -9211,13 +12461,13 @@
         <v>1</v>
       </c>
       <c r="F48">
-        <f t="shared" si="3"/>
-        <v>9.4946170000000016</v>
+        <f t="shared" si="1"/>
+        <v>8.9305352517985597</v>
       </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C49" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D49">
         <v>0.29399999999999998</v>
@@ -9226,13 +12476,13 @@
         <v>1</v>
       </c>
       <c r="F49">
-        <f t="shared" si="3"/>
-        <v>15.965586000000002</v>
+        <f t="shared" si="1"/>
+        <v>14.869480575539566</v>
       </c>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C50" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D50">
         <v>0.67100000000000004</v>
@@ -9241,13 +12491,13 @@
         <v>4</v>
       </c>
       <c r="F50">
-        <f t="shared" si="3"/>
-        <v>160.47839600000003</v>
+        <f t="shared" si="1"/>
+        <v>148.15049208633096</v>
       </c>
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C51" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D51">
         <v>0.59399999999999997</v>
@@ -9256,13 +12506,13 @@
         <v>4</v>
       </c>
       <c r="F51">
-        <f t="shared" si="3"/>
-        <v>140.74514400000001</v>
+        <f t="shared" si="1"/>
+        <v>130.0396489208633</v>
       </c>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C52" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D52">
         <v>3.5000000000000003E-2</v>
@@ -9271,13 +12521,13 @@
         <v>1</v>
       </c>
       <c r="F52">
-        <f t="shared" si="3"/>
-        <v>-0.62828499999999954</v>
+        <f t="shared" si="1"/>
+        <v>-0.36009208633093914</v>
       </c>
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C53" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D53">
         <v>3.1E-2</v>
@@ -9286,11 +12536,252 @@
         <v>1</v>
       </c>
       <c r="F53">
+        <f t="shared" si="1"/>
+        <v>-0.59529784172662281</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C54" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D54">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="1"/>
+        <v>26.041753956834533</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C55" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D55">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="1"/>
+        <v>32.157103597122301</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C56" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D56">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="1"/>
+        <v>45.975441726618705</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C57" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D57">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="1"/>
+        <v>-0.3012906474820185</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C58" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D58">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="1"/>
+        <v>37.508034532374104</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C59" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D59">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="1"/>
+        <v>36.920020143884898</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C60" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D60">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="1"/>
+        <v>35.391182733812954</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C61" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D61">
+        <v>0.627</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="1"/>
+        <v>34.450359712230217</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C62" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D62">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="1"/>
+        <v>33.685941007194245</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C63" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D63">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="1"/>
+        <v>28.98182589928058</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C64" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D64">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="1"/>
+        <v>22.925277697841725</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C65" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D65">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="1"/>
+        <v>19.985205755395683</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C66" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D66">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="1"/>
+        <v>26.218158273381295</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C67" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D67">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:F69" si="3">($J$11*AVERAGE(D67:D67)+$J$12)*E67</f>
+        <v>35.273579856115113</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C68" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D68">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
         <f t="shared" si="3"/>
-        <v>-0.88456099999999971</v>
+        <v>16.339516546762589</v>
+      </c>
+    </row>
+    <row r="69" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C69" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D69">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="3"/>
+        <v>-0.71290071942446454</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -9300,7 +12791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2002340C-AD4C-5C4F-8F00-4A8EC30B67C5}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -9311,45 +12802,45 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" t="s">
         <v>190</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>191</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" t="s">
         <v>192</v>
       </c>
-      <c r="D1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1" t="s">
         <v>193</v>
       </c>
-      <c r="F1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L1" t="s">
         <v>194</v>
       </c>
-      <c r="I1" t="s">
-        <v>169</v>
-      </c>
-      <c r="J1" t="s">
-        <v>170</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>171</v>
-      </c>
-      <c r="L1" t="s">
-        <v>195</v>
-      </c>
-      <c r="M1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2">
         <v>3.9E-2</v>
@@ -9374,7 +12865,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3">
         <v>4.3999999999999997E-2</v>
@@ -9399,7 +12890,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D4">
         <v>4.2000000000000003E-2</v>
@@ -9424,7 +12915,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5">
         <v>3.5999999999999997E-2</v>
@@ -9449,7 +12940,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6">
         <v>0.04</v>
@@ -9474,7 +12965,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D7">
         <v>3.6999999999999998E-2</v>
@@ -9499,7 +12990,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8">
         <v>4.8000000000000001E-2</v>
@@ -9524,7 +13015,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9">
         <v>4.3999999999999997E-2</v>
@@ -9536,7 +13027,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D10">
         <v>4.5999999999999999E-2</v>
@@ -9548,7 +13039,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11">
         <v>4.5999999999999999E-2</v>
@@ -9558,7 +13049,7 @@
         <v>1.3998628261646147</v>
       </c>
       <c r="J11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K11">
         <f>SLOPE(I2:I8,M2:M8)</f>
@@ -9567,7 +13058,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12">
         <v>3.6999999999999998E-2</v>
@@ -9583,7 +13074,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D13">
         <v>0.04</v>

--- a/data/exp_raw/ssexp_data.xlsx
+++ b/data/exp_raw/ssexp_data.xlsx
@@ -8,20 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vcantarella/Documents/FuhrbergerColumns/data/exp_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7E4A6E-6873-3149-98C9-4726A98149D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78288C1-52D9-6E42-90CD-54AD263614E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="740" windowWidth="28040" windowHeight="16680" xr2:uid="{82067E57-95C1-4A4D-B858-7597035F15DE}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" activeTab="4" xr2:uid="{82067E57-95C1-4A4D-B858-7597035F15DE}"/>
   </bookViews>
   <sheets>
     <sheet name="general_samples_p1" sheetId="1" r:id="rId1"/>
     <sheet name="general_samples_p2" sheetId="4" r:id="rId2"/>
     <sheet name="general_samples_p3" sheetId="5" r:id="rId3"/>
     <sheet name="general_samples_p4" sheetId="6" r:id="rId4"/>
-    <sheet name="fe_total" sheetId="2" r:id="rId5"/>
-    <sheet name="hs" sheetId="3" r:id="rId6"/>
-    <sheet name="standard_curve_no2" sheetId="7" r:id="rId7"/>
-    <sheet name="fe_plate_1" sheetId="8" r:id="rId8"/>
+    <sheet name="bromide_curve" sheetId="9" r:id="rId5"/>
+    <sheet name="fe_total" sheetId="2" r:id="rId6"/>
+    <sheet name="hs" sheetId="3" r:id="rId7"/>
+    <sheet name="standard_curve_no2" sheetId="7" r:id="rId8"/>
+    <sheet name="fe_plate_1" sheetId="8" r:id="rId9"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId10"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="456">
   <si>
     <t>Sample</t>
   </si>
@@ -1204,6 +1208,213 @@
   </si>
   <si>
     <t>intercept:</t>
+  </si>
+  <si>
+    <t>br- [mmol/L]</t>
+  </si>
+  <si>
+    <t>no3- [mgN/L]</t>
+  </si>
+  <si>
+    <t>sample_for_IC</t>
+  </si>
+  <si>
+    <t>B1T1</t>
+  </si>
+  <si>
+    <t>B1T2</t>
+  </si>
+  <si>
+    <t>B1T3</t>
+  </si>
+  <si>
+    <t>B1T4</t>
+  </si>
+  <si>
+    <t>B1T5</t>
+  </si>
+  <si>
+    <t>B1T6</t>
+  </si>
+  <si>
+    <t>B1T7</t>
+  </si>
+  <si>
+    <t>B1T8</t>
+  </si>
+  <si>
+    <t>B1T9</t>
+  </si>
+  <si>
+    <t>B1T10</t>
+  </si>
+  <si>
+    <t>B1T11</t>
+  </si>
+  <si>
+    <t>B1T12</t>
+  </si>
+  <si>
+    <t>B2T1</t>
+  </si>
+  <si>
+    <t>B2T2</t>
+  </si>
+  <si>
+    <t>B2T3</t>
+  </si>
+  <si>
+    <t>B2T4</t>
+  </si>
+  <si>
+    <t>B2T5</t>
+  </si>
+  <si>
+    <t>B2T6</t>
+  </si>
+  <si>
+    <t>B2T7</t>
+  </si>
+  <si>
+    <t>B2T8</t>
+  </si>
+  <si>
+    <t>B2T9</t>
+  </si>
+  <si>
+    <t>B2T10</t>
+  </si>
+  <si>
+    <t>B2T11</t>
+  </si>
+  <si>
+    <t>B2T12</t>
+  </si>
+  <si>
+    <t>B3T1</t>
+  </si>
+  <si>
+    <t>B3T2</t>
+  </si>
+  <si>
+    <t>B3T3</t>
+  </si>
+  <si>
+    <t>B3T4</t>
+  </si>
+  <si>
+    <t>B3T5</t>
+  </si>
+  <si>
+    <t>B3T6</t>
+  </si>
+  <si>
+    <t>B3T7</t>
+  </si>
+  <si>
+    <t>B3T8</t>
+  </si>
+  <si>
+    <t>B3T9</t>
+  </si>
+  <si>
+    <t>B3T10</t>
+  </si>
+  <si>
+    <t>B3T11</t>
+  </si>
+  <si>
+    <t>B3T12</t>
+  </si>
+  <si>
+    <t>B4T1</t>
+  </si>
+  <si>
+    <t>B4T2</t>
+  </si>
+  <si>
+    <t>B4T3</t>
+  </si>
+  <si>
+    <t>B4T4</t>
+  </si>
+  <si>
+    <t>B4T5</t>
+  </si>
+  <si>
+    <t>B4T6</t>
+  </si>
+  <si>
+    <t>B4T7</t>
+  </si>
+  <si>
+    <t>B4T8</t>
+  </si>
+  <si>
+    <t>B4T9</t>
+  </si>
+  <si>
+    <t>B4T10</t>
+  </si>
+  <si>
+    <t>B4T11</t>
+  </si>
+  <si>
+    <t>B4T12</t>
+  </si>
+  <si>
+    <t>start_time</t>
+  </si>
+  <si>
+    <t>end_time</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>volume (ml)</t>
+  </si>
+  <si>
+    <t>concentration mM</t>
+  </si>
+  <si>
+    <t>mass (mg)</t>
+  </si>
+  <si>
+    <t>molar mass</t>
+  </si>
+  <si>
+    <t>stock volume</t>
+  </si>
+  <si>
+    <t>agw volume</t>
+  </si>
+  <si>
+    <t>P1T80</t>
+  </si>
+  <si>
+    <t>P1T81</t>
+  </si>
+  <si>
+    <t>P2T80</t>
+  </si>
+  <si>
+    <t>P2T81</t>
+  </si>
+  <si>
+    <t>P3T80</t>
+  </si>
+  <si>
+    <t>P3T81</t>
+  </si>
+  <si>
+    <t>P4T80</t>
+  </si>
+  <si>
+    <t>P4T81</t>
+  </si>
+  <si>
+    <t>*incomplete</t>
   </si>
 </sst>
 </file>
@@ -1274,6 +1485,410 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Bromide tracer standards</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10837360847135487"/>
+                  <c:y val="-1.6978189227943952E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-DE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>bromide_curve!$Q$2:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>166.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>149.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>131.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>113.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.200000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>bromide_curve!$O$2:$O$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D461-5042-9271-51560FDE2E83}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1081534080"/>
+        <c:axId val="1081535808"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1081534080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1081535808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1081535808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1081534080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -1699,7 +2314,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -2114,7 +2729,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -2610,6 +3225,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4197,7 +4852,566 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>678564</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>16539</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4E8176C-B309-5D44-B036-7E169C2355B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4240,7 +5454,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4283,7 +5497,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4324,6 +5538,83 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="standard_curve_plate_1"/>
+      <sheetName val="standard_curve_plate 2"/>
+      <sheetName val="standard_curve_plate_3"/>
+      <sheetName val="standard_curve_plate 4"/>
+      <sheetName val="fe_plate_1"/>
+      <sheetName val="br_standard_curve"/>
+      <sheetName val="sampling"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="data"/>
+      <sheetName val="new_data"/>
+      <sheetName val="Sheet2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5">
+        <row r="2">
+          <cell r="L2">
+            <v>1</v>
+          </cell>
+          <cell r="N2">
+            <v>146.80000000000001</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="L3">
+            <v>0.5</v>
+          </cell>
+          <cell r="N3">
+            <v>129.6</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="L4">
+            <v>0.1</v>
+          </cell>
+          <cell r="N4">
+            <v>87.5</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>0.05</v>
+          </cell>
+          <cell r="N5">
+            <v>68.3</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>0.01</v>
+          </cell>
+          <cell r="N6">
+            <v>42.6</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4643,10 +5934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE2E69C-B565-9948-8744-019B7DBC9C60}">
-  <dimension ref="A1:L80"/>
+  <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H83" sqref="H83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5949,7 +7240,7 @@
         <v>16.7</v>
       </c>
       <c r="E62">
-        <f t="shared" ref="E62:E68" si="9">(D62-6.75)/6</f>
+        <f t="shared" ref="E62:E82" si="9">(D62-6.75)/6</f>
         <v>1.6583333333333332</v>
       </c>
     </row>
@@ -6103,6 +7394,13 @@
         <f t="shared" si="11"/>
         <v>45939.71597222222</v>
       </c>
+      <c r="D69">
+        <v>18.27</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="9"/>
+        <v>1.92</v>
+      </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
@@ -6116,6 +7414,13 @@
         <f t="shared" si="11"/>
         <v>45939.96597222222</v>
       </c>
+      <c r="D70">
+        <v>18.32</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="9"/>
+        <v>1.9283333333333335</v>
+      </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
@@ -6129,6 +7434,16 @@
         <f t="shared" si="11"/>
         <v>45940.21597222222</v>
       </c>
+      <c r="D71">
+        <v>18.32</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="9"/>
+        <v>1.9283333333333335</v>
+      </c>
+      <c r="H71">
+        <v>9.7200000000000006</v>
+      </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
@@ -6142,6 +7457,13 @@
         <f t="shared" si="11"/>
         <v>45940.46597222222</v>
       </c>
+      <c r="D72">
+        <v>18.37</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="9"/>
+        <v>1.9366666666666668</v>
+      </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
@@ -6155,6 +7477,13 @@
         <f t="shared" si="11"/>
         <v>45940.71597222222</v>
       </c>
+      <c r="D73">
+        <v>17.440000000000001</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="9"/>
+        <v>1.781666666666667</v>
+      </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
@@ -6168,6 +7497,13 @@
         <f t="shared" si="11"/>
         <v>45940.96597222222</v>
       </c>
+      <c r="D74">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="9"/>
+        <v>1.8916666666666668</v>
+      </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
@@ -6181,6 +7517,13 @@
         <f t="shared" si="11"/>
         <v>45941.21597222222</v>
       </c>
+      <c r="D75">
+        <v>18.23</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="9"/>
+        <v>1.9133333333333333</v>
+      </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
@@ -6194,6 +7537,16 @@
         <f t="shared" si="11"/>
         <v>45941.46597222222</v>
       </c>
+      <c r="D76">
+        <v>18.16</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="9"/>
+        <v>1.9016666666666666</v>
+      </c>
+      <c r="H76">
+        <v>9.89</v>
+      </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
@@ -6207,6 +7560,13 @@
         <f t="shared" si="11"/>
         <v>45941.71597222222</v>
       </c>
+      <c r="D77">
+        <v>18.23</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="9"/>
+        <v>1.9133333333333333</v>
+      </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
@@ -6220,6 +7580,13 @@
         <f t="shared" si="11"/>
         <v>45941.96597222222</v>
       </c>
+      <c r="D78">
+        <v>18.190000000000001</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="9"/>
+        <v>1.906666666666667</v>
+      </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
@@ -6233,6 +7600,13 @@
         <f t="shared" si="11"/>
         <v>45942.21597222222</v>
       </c>
+      <c r="D79">
+        <v>18.45</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="9"/>
+        <v>1.95</v>
+      </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
@@ -6245,6 +7619,65 @@
       <c r="C80" s="1">
         <f t="shared" si="11"/>
         <v>45942.46597222222</v>
+      </c>
+      <c r="D80">
+        <v>17.760000000000002</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="9"/>
+        <v>1.8350000000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>447</v>
+      </c>
+      <c r="B81" s="1">
+        <f t="shared" ref="B81:B82" si="12">C80</f>
+        <v>45942.46597222222</v>
+      </c>
+      <c r="C81" s="1">
+        <f t="shared" ref="C81:C82" si="13">B81+6/24</f>
+        <v>45942.71597222222</v>
+      </c>
+      <c r="D81">
+        <v>18.27</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="9"/>
+        <v>1.92</v>
+      </c>
+      <c r="F81">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="G81">
+        <v>715</v>
+      </c>
+      <c r="H81">
+        <v>9.86</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>448</v>
+      </c>
+      <c r="B82" s="1">
+        <f t="shared" si="12"/>
+        <v>45942.71597222222</v>
+      </c>
+      <c r="C82" s="1">
+        <f t="shared" si="13"/>
+        <v>45942.96597222222</v>
+      </c>
+      <c r="D82">
+        <v>13.45</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="9"/>
+        <v>1.1166666666666665</v>
+      </c>
+      <c r="L82" t="s">
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -6255,10 +7688,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046BB4A8-8683-FF42-8F76-0A791D85765F}">
-  <dimension ref="A1:L80"/>
+  <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7317,7 +8750,7 @@
         <v>18.96</v>
       </c>
       <c r="E50">
-        <f t="shared" ref="E50:E68" si="6">(D50-6.75)/6</f>
+        <f t="shared" ref="E50:E82" si="6">(D50-6.75)/6</f>
         <v>2.0350000000000001</v>
       </c>
     </row>
@@ -7725,6 +9158,13 @@
         <f t="shared" si="8"/>
         <v>45939.71597222222</v>
       </c>
+      <c r="D69">
+        <v>18.920000000000002</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="6"/>
+        <v>2.0283333333333338</v>
+      </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
@@ -7738,6 +9178,13 @@
         <f t="shared" si="8"/>
         <v>45939.96597222222</v>
       </c>
+      <c r="D70">
+        <v>18.02</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="6"/>
+        <v>1.8783333333333332</v>
+      </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
@@ -7751,6 +9198,16 @@
         <f t="shared" si="8"/>
         <v>45940.21597222222</v>
       </c>
+      <c r="D71">
+        <v>18.91</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="6"/>
+        <v>2.0266666666666668</v>
+      </c>
+      <c r="H71">
+        <v>7.33</v>
+      </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
@@ -7764,6 +9221,13 @@
         <f t="shared" si="8"/>
         <v>45940.46597222222</v>
       </c>
+      <c r="D72">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="6"/>
+        <v>2.0399999999999996</v>
+      </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
@@ -7777,6 +9241,13 @@
         <f t="shared" si="8"/>
         <v>45940.71597222222</v>
       </c>
+      <c r="D73">
+        <v>18.48</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="6"/>
+        <v>1.9550000000000001</v>
+      </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
@@ -7790,6 +9261,13 @@
         <f t="shared" si="8"/>
         <v>45940.96597222222</v>
       </c>
+      <c r="D74">
+        <v>18.850000000000001</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="6"/>
+        <v>2.0166666666666671</v>
+      </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
@@ -7803,6 +9281,13 @@
         <f t="shared" si="8"/>
         <v>45941.21597222222</v>
       </c>
+      <c r="D75">
+        <v>18.53</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="6"/>
+        <v>1.9633333333333336</v>
+      </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
@@ -7816,6 +9301,16 @@
         <f t="shared" si="8"/>
         <v>45941.46597222222</v>
       </c>
+      <c r="D76">
+        <v>18.75</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="H76">
+        <v>7.52</v>
+      </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
@@ -7829,6 +9324,13 @@
         <f t="shared" si="8"/>
         <v>45941.71597222222</v>
       </c>
+      <c r="D77">
+        <v>18.059999999999999</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="6"/>
+        <v>1.8849999999999998</v>
+      </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
@@ -7842,6 +9344,13 @@
         <f t="shared" si="8"/>
         <v>45941.96597222222</v>
       </c>
+      <c r="D78">
+        <v>18.75</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
@@ -7855,6 +9364,13 @@
         <f t="shared" si="8"/>
         <v>45942.21597222222</v>
       </c>
+      <c r="D79">
+        <v>18.89</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="6"/>
+        <v>2.0233333333333334</v>
+      </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
@@ -7867,6 +9383,62 @@
       <c r="C80" s="1">
         <f t="shared" si="8"/>
         <v>45942.46597222222</v>
+      </c>
+      <c r="D80">
+        <v>18.53</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="6"/>
+        <v>1.9633333333333336</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>449</v>
+      </c>
+      <c r="B81" s="1">
+        <f t="shared" ref="B81:B82" si="9">C80</f>
+        <v>45942.46597222222</v>
+      </c>
+      <c r="C81" s="1">
+        <f t="shared" ref="C81:C82" si="10">B81+6/24</f>
+        <v>45942.71597222222</v>
+      </c>
+      <c r="D81">
+        <v>18.89</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="6"/>
+        <v>2.0233333333333334</v>
+      </c>
+      <c r="F81">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="G81">
+        <v>675</v>
+      </c>
+      <c r="H81">
+        <v>7.54</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>450</v>
+      </c>
+      <c r="B82" s="1">
+        <f t="shared" si="9"/>
+        <v>45942.71597222222</v>
+      </c>
+      <c r="C82" s="1">
+        <f t="shared" si="10"/>
+        <v>45942.96597222222</v>
+      </c>
+      <c r="D82">
+        <v>13.99</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="6"/>
+        <v>1.2066666666666668</v>
       </c>
     </row>
   </sheetData>
@@ -7877,10 +9449,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{649DD004-07E5-F04F-B76F-816E14D1C8AC}">
-  <dimension ref="A1:L80"/>
+  <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7941,7 +9513,7 @@
         <v>17.64</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E68" si="0">(D2-6.75)/6</f>
+        <f t="shared" ref="E2:E82" si="0">(D2-6.75)/6</f>
         <v>1.8150000000000002</v>
       </c>
     </row>
@@ -9368,6 +10940,13 @@
         <f t="shared" si="8"/>
         <v>45939.71597222222</v>
       </c>
+      <c r="D69">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="0"/>
+        <v>1.9833333333333332</v>
+      </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
@@ -9381,6 +10960,13 @@
         <f t="shared" si="8"/>
         <v>45939.96597222222</v>
       </c>
+      <c r="D70">
+        <v>19.13</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="0"/>
+        <v>2.063333333333333</v>
+      </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
@@ -9394,6 +10980,16 @@
         <f t="shared" si="8"/>
         <v>45940.21597222222</v>
       </c>
+      <c r="D71">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="0"/>
+        <v>2.0249999999999999</v>
+      </c>
+      <c r="H71">
+        <v>7.87</v>
+      </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
@@ -9407,6 +11003,13 @@
         <f t="shared" si="8"/>
         <v>45940.46597222222</v>
       </c>
+      <c r="D72">
+        <v>18.95</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="0"/>
+        <v>2.0333333333333332</v>
+      </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
@@ -9420,6 +11023,13 @@
         <f t="shared" si="8"/>
         <v>45940.71597222222</v>
       </c>
+      <c r="D73">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="0"/>
+        <v>1.9833333333333332</v>
+      </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
@@ -9433,6 +11043,13 @@
         <f t="shared" si="8"/>
         <v>45940.96597222222</v>
       </c>
+      <c r="D74">
+        <v>18.73</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="0"/>
+        <v>1.9966666666666668</v>
+      </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
@@ -9446,6 +11063,13 @@
         <f t="shared" si="8"/>
         <v>45941.21597222222</v>
       </c>
+      <c r="D75">
+        <v>17.71</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="0"/>
+        <v>1.8266666666666669</v>
+      </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
@@ -9459,6 +11083,16 @@
         <f t="shared" si="8"/>
         <v>45941.46597222222</v>
       </c>
+      <c r="D76">
+        <v>18.77</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="0"/>
+        <v>2.0033333333333334</v>
+      </c>
+      <c r="H76">
+        <v>8.76</v>
+      </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
@@ -9472,6 +11106,13 @@
         <f t="shared" si="8"/>
         <v>45941.71597222222</v>
       </c>
+      <c r="D77">
+        <v>18.920000000000002</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="0"/>
+        <v>2.0283333333333338</v>
+      </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
@@ -9485,6 +11126,13 @@
         <f t="shared" si="8"/>
         <v>45941.96597222222</v>
       </c>
+      <c r="D78">
+        <v>18.68</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="0"/>
+        <v>1.9883333333333333</v>
+      </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
@@ -9498,6 +11146,13 @@
         <f t="shared" si="8"/>
         <v>45942.21597222222</v>
       </c>
+      <c r="D79">
+        <v>18.77</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="0"/>
+        <v>2.0033333333333334</v>
+      </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
@@ -9510,6 +11165,62 @@
       <c r="C80" s="1">
         <f t="shared" si="8"/>
         <v>45942.46597222222</v>
+      </c>
+      <c r="D80">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="0"/>
+        <v>1.968333333333333</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>451</v>
+      </c>
+      <c r="B81" s="1">
+        <f t="shared" ref="B81:B82" si="9">C80</f>
+        <v>45942.46597222222</v>
+      </c>
+      <c r="C81" s="1">
+        <f t="shared" ref="C81:C82" si="10">B81+6/24</f>
+        <v>45942.71597222222</v>
+      </c>
+      <c r="D81">
+        <v>18.61</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="0"/>
+        <v>1.9766666666666666</v>
+      </c>
+      <c r="F81">
+        <v>7.98</v>
+      </c>
+      <c r="G81">
+        <v>729</v>
+      </c>
+      <c r="H81">
+        <v>8.44</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>452</v>
+      </c>
+      <c r="B82" s="1">
+        <f t="shared" si="9"/>
+        <v>45942.71597222222</v>
+      </c>
+      <c r="C82" s="1">
+        <f t="shared" si="10"/>
+        <v>45942.96597222222</v>
+      </c>
+      <c r="D82">
+        <v>14</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="0"/>
+        <v>1.2083333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -9520,10 +11231,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CEAE0A4-BA85-AC4B-952F-A9D4082FC119}">
-  <dimension ref="A1:L80"/>
+  <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10833,7 +12544,7 @@
         <v>17.829999999999998</v>
       </c>
       <c r="E63">
-        <f t="shared" ref="E63:E68" si="9">(D63-6.75)/6</f>
+        <f t="shared" ref="E63:E82" si="9">(D63-6.75)/6</f>
         <v>1.8466666666666665</v>
       </c>
     </row>
@@ -10961,6 +12672,13 @@
         <f t="shared" si="6"/>
         <v>45939.71597222222</v>
       </c>
+      <c r="D69">
+        <v>18.61</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="9"/>
+        <v>1.9766666666666666</v>
+      </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
@@ -10974,6 +12692,13 @@
         <f t="shared" si="6"/>
         <v>45939.96597222222</v>
       </c>
+      <c r="D70">
+        <v>18.579999999999998</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="9"/>
+        <v>1.9716666666666665</v>
+      </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
@@ -10987,6 +12712,13 @@
         <f t="shared" si="6"/>
         <v>45940.21597222222</v>
       </c>
+      <c r="D71">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="9"/>
+        <v>1.9750000000000003</v>
+      </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
@@ -11000,6 +12732,13 @@
         <f t="shared" si="6"/>
         <v>45940.46597222222</v>
       </c>
+      <c r="D72">
+        <v>18.77</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="9"/>
+        <v>2.0033333333333334</v>
+      </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
@@ -11013,6 +12752,13 @@
         <f t="shared" si="6"/>
         <v>45940.71597222222</v>
       </c>
+      <c r="D73">
+        <v>18.809999999999999</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="9"/>
+        <v>2.0099999999999998</v>
+      </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
@@ -11026,6 +12772,13 @@
         <f t="shared" si="6"/>
         <v>45940.96597222222</v>
       </c>
+      <c r="D74">
+        <v>18.440000000000001</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="9"/>
+        <v>1.9483333333333335</v>
+      </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
@@ -11039,6 +12792,13 @@
         <f t="shared" si="6"/>
         <v>45941.21597222222</v>
       </c>
+      <c r="D75">
+        <v>18.5</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="9"/>
+        <v>1.9583333333333333</v>
+      </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
@@ -11052,6 +12812,13 @@
         <f t="shared" si="6"/>
         <v>45941.46597222222</v>
       </c>
+      <c r="D76">
+        <v>18.489999999999998</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="9"/>
+        <v>1.9566666666666663</v>
+      </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
@@ -11065,6 +12832,13 @@
         <f t="shared" si="6"/>
         <v>45941.71597222222</v>
       </c>
+      <c r="D77">
+        <v>18.510000000000002</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="9"/>
+        <v>1.9600000000000002</v>
+      </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
@@ -11078,6 +12852,13 @@
         <f t="shared" si="6"/>
         <v>45941.96597222222</v>
       </c>
+      <c r="D78">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="9"/>
+        <v>1.968333333333333</v>
+      </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
@@ -11091,6 +12872,13 @@
         <f t="shared" si="6"/>
         <v>45942.21597222222</v>
       </c>
+      <c r="D79">
+        <v>18.579999999999998</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="9"/>
+        <v>1.9716666666666665</v>
+      </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
@@ -11103,6 +12891,59 @@
       <c r="C80" s="1">
         <f t="shared" si="6"/>
         <v>45942.46597222222</v>
+      </c>
+      <c r="D80">
+        <v>18.579999999999998</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="9"/>
+        <v>1.9716666666666665</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>453</v>
+      </c>
+      <c r="B81" s="1">
+        <f t="shared" ref="B81:B82" si="10">C80</f>
+        <v>45942.46597222222</v>
+      </c>
+      <c r="C81" s="1">
+        <f t="shared" ref="C81:C82" si="11">B81+6/24</f>
+        <v>45942.71597222222</v>
+      </c>
+      <c r="D81">
+        <v>18.57</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="9"/>
+        <v>1.97</v>
+      </c>
+      <c r="F81">
+        <v>8.06</v>
+      </c>
+      <c r="G81">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>454</v>
+      </c>
+      <c r="B82" s="1">
+        <f t="shared" si="10"/>
+        <v>45942.71597222222</v>
+      </c>
+      <c r="C82" s="1">
+        <f t="shared" si="11"/>
+        <v>45942.96597222222</v>
+      </c>
+      <c r="D82">
+        <v>13.74</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="9"/>
+        <v>1.165</v>
       </c>
     </row>
   </sheetData>
@@ -11112,6 +12953,1500 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{613850BE-EF2F-F44E-9131-45DE0F67BB0D}">
+  <dimension ref="A1:Z49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8" customWidth="1"/>
+    <col min="24" max="24" width="10.33203125" customWidth="1"/>
+    <col min="25" max="25" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G1" t="s">
+        <v>387</v>
+      </c>
+      <c r="H1" t="s">
+        <v>388</v>
+      </c>
+      <c r="I1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J1" t="s">
+        <v>389</v>
+      </c>
+      <c r="O1" t="s">
+        <v>168</v>
+      </c>
+      <c r="P1" t="s">
+        <v>169</v>
+      </c>
+      <c r="U1" t="s">
+        <v>442</v>
+      </c>
+      <c r="V1" t="s">
+        <v>441</v>
+      </c>
+      <c r="W1" t="s">
+        <v>443</v>
+      </c>
+      <c r="X1" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>445</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="19" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45942.886111111111</v>
+      </c>
+      <c r="C2" s="1">
+        <f>B2+2/24</f>
+        <v>45942.969444444447</v>
+      </c>
+      <c r="D2">
+        <v>10.65</v>
+      </c>
+      <c r="E2">
+        <f>(D2-6.75)/2</f>
+        <v>1.9500000000000002</v>
+      </c>
+      <c r="F2">
+        <v>-33.5</v>
+      </c>
+      <c r="G2">
+        <f>0.0076*EXP(0.0328*-F2)</f>
+        <v>2.2804280220077435E-2</v>
+      </c>
+      <c r="H2">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+      <c r="P2">
+        <v>-166.7</v>
+      </c>
+      <c r="Q2">
+        <f>-1*P2</f>
+        <v>166.7</v>
+      </c>
+      <c r="U2">
+        <v>10</v>
+      </c>
+      <c r="V2">
+        <v>50</v>
+      </c>
+      <c r="W2">
+        <f>X2*U2*V2/1000</f>
+        <v>51.445000000000007</v>
+      </c>
+      <c r="X2">
+        <v>102.89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>391</v>
+      </c>
+      <c r="B3" s="1">
+        <f>C2</f>
+        <v>45942.969444444447</v>
+      </c>
+      <c r="C3" s="1">
+        <f>B3+2/24</f>
+        <v>45943.052777777782</v>
+      </c>
+      <c r="D3">
+        <v>10.55</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E49" si="0">(D3-6.75)/2</f>
+        <v>1.9000000000000004</v>
+      </c>
+      <c r="F3">
+        <v>-34.299999999999997</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G49" si="1">0.0076*EXP(0.0328*-F3)</f>
+        <v>2.3410584456427078E-2</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>-149.19999999999999</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q8" si="2">-1*P3</f>
+        <v>149.19999999999999</v>
+      </c>
+      <c r="U3">
+        <v>2</v>
+      </c>
+      <c r="V3">
+        <v>8</v>
+      </c>
+      <c r="Y3">
+        <f>U3/U2*V3</f>
+        <v>1.6</v>
+      </c>
+      <c r="Z3">
+        <f>V3-Y3</f>
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B4" s="1">
+        <f t="shared" ref="B4:B13" si="3">C3</f>
+        <v>45943.052777777782</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" ref="C4:C13" si="4">B4+2/24</f>
+        <v>45943.136111111118</v>
+      </c>
+      <c r="D4">
+        <v>10.56</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1.9050000000000002</v>
+      </c>
+      <c r="F4">
+        <v>-34.4</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>2.3487497241456743E-2</v>
+      </c>
+      <c r="O4">
+        <v>0.5</v>
+      </c>
+      <c r="P4">
+        <v>-131.19999999999999</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="2"/>
+        <v>131.19999999999999</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>8</v>
+      </c>
+      <c r="Y4">
+        <f>U4/$U$2*V4</f>
+        <v>0.8</v>
+      </c>
+      <c r="Z4">
+        <f>V4-Y4</f>
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>393</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" si="3"/>
+        <v>45943.136111111118</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="4"/>
+        <v>45943.219444444454</v>
+      </c>
+      <c r="D5">
+        <v>10.64</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1.9450000000000003</v>
+      </c>
+      <c r="F5">
+        <v>-70</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>7.5501177132492991E-2</v>
+      </c>
+      <c r="O5">
+        <v>0.25</v>
+      </c>
+      <c r="P5">
+        <v>-113.3</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="2"/>
+        <v>113.3</v>
+      </c>
+      <c r="U5">
+        <v>0.5</v>
+      </c>
+      <c r="V5">
+        <v>8</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" ref="Y5:Y7" si="5">U5/$U$2*V5</f>
+        <v>0.4</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" ref="Z5:Z7" si="6">V5-Y5</f>
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>394</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" si="3"/>
+        <v>45943.219444444454</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="4"/>
+        <v>45943.30277777779</v>
+      </c>
+      <c r="D6">
+        <v>10.61</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>1.9299999999999997</v>
+      </c>
+      <c r="F6">
+        <v>-122.8</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0.42666034310679996</v>
+      </c>
+      <c r="H6">
+        <v>4.49</v>
+      </c>
+      <c r="O6">
+        <v>0.1</v>
+      </c>
+      <c r="P6">
+        <v>-57.4</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="2"/>
+        <v>57.4</v>
+      </c>
+      <c r="U6">
+        <v>0.25</v>
+      </c>
+      <c r="V6">
+        <v>8</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="6"/>
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>395</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="3"/>
+        <v>45943.30277777779</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="4"/>
+        <v>45943.386111111126</v>
+      </c>
+      <c r="D7">
+        <v>10.57</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1.9100000000000001</v>
+      </c>
+      <c r="F7">
+        <v>-136.19999999999999</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0.66216068117437099</v>
+      </c>
+      <c r="O7">
+        <v>0.05</v>
+      </c>
+      <c r="P7">
+        <v>-42.5</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="2"/>
+        <v>42.5</v>
+      </c>
+      <c r="U7">
+        <v>0.1</v>
+      </c>
+      <c r="V7">
+        <v>4</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="5"/>
+        <v>0.04</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="6"/>
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>396</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="3"/>
+        <v>45943.386111111126</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="4"/>
+        <v>45943.469444444461</v>
+      </c>
+      <c r="D8">
+        <v>10.63</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>1.9400000000000004</v>
+      </c>
+      <c r="F8">
+        <v>-141.19999999999999</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0.78016719345119157</v>
+      </c>
+      <c r="O8">
+        <v>0.01</v>
+      </c>
+      <c r="P8">
+        <v>-36.200000000000003</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="2"/>
+        <v>36.200000000000003</v>
+      </c>
+      <c r="Y8">
+        <f>SUM(Y3:Y7)</f>
+        <v>3.0400000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>397</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="3"/>
+        <v>45943.469444444461</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="4"/>
+        <v>45943.552777777797</v>
+      </c>
+      <c r="D9">
+        <v>10.57</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>1.9100000000000001</v>
+      </c>
+      <c r="F9">
+        <v>-141.6</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0.79047042845623094</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>398</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="3"/>
+        <v>45943.552777777797</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="4"/>
+        <v>45943.636111111133</v>
+      </c>
+      <c r="D10">
+        <v>10.58</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>1.915</v>
+      </c>
+      <c r="F10">
+        <v>-142.69999999999999</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0.81951134942292403</v>
+      </c>
+      <c r="H10">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>399</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="3"/>
+        <v>45943.636111111133</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="4"/>
+        <v>45943.719444444469</v>
+      </c>
+      <c r="D11">
+        <v>10.71</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>1.9800000000000004</v>
+      </c>
+      <c r="F11">
+        <v>-143.19999999999999</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0.83306214838775894</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>400</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="3"/>
+        <v>45943.719444444469</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="4"/>
+        <v>45943.802777777804</v>
+      </c>
+      <c r="D12">
+        <v>10.54</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>1.8949999999999996</v>
+      </c>
+      <c r="F12">
+        <f>-143-2</f>
+        <v>-145</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0.88372704938254254</v>
+      </c>
+      <c r="H12">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>401</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="3"/>
+        <v>45943.802777777804</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="4"/>
+        <v>45943.88611111114</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>7.6E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>402</v>
+      </c>
+      <c r="B14" s="1">
+        <v>45942.886111111111</v>
+      </c>
+      <c r="C14" s="1">
+        <f>B14+2/24</f>
+        <v>45942.969444444447</v>
+      </c>
+      <c r="D14">
+        <v>10.67</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>1.96</v>
+      </c>
+      <c r="F14">
+        <v>-40.6</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>2.8784246682358017E-2</v>
+      </c>
+      <c r="H14">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>403</v>
+      </c>
+      <c r="B15" s="1">
+        <f>C14</f>
+        <v>45942.969444444447</v>
+      </c>
+      <c r="C15" s="1">
+        <f>B15+2/24</f>
+        <v>45943.052777777782</v>
+      </c>
+      <c r="D15">
+        <v>11.05</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>2.1500000000000004</v>
+      </c>
+      <c r="F15">
+        <v>-40.200000000000003</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>2.8409063946438932E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>404</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" ref="B16:B25" si="7">C15</f>
+        <v>45943.052777777782</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" ref="C16:C25" si="8">B16+2/24</f>
+        <v>45943.136111111118</v>
+      </c>
+      <c r="D16">
+        <v>10.63</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>1.9400000000000004</v>
+      </c>
+      <c r="F16">
+        <v>-55.4</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>4.6771228923828782E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>405</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" si="7"/>
+        <v>45943.136111111118</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="8"/>
+        <v>45943.219444444454</v>
+      </c>
+      <c r="D17">
+        <v>10.8</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>2.0250000000000004</v>
+      </c>
+      <c r="F17">
+        <v>-104.9</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>0.23719159856480895</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>406</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="7"/>
+        <v>45943.219444444454</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="8"/>
+        <v>45943.30277777779</v>
+      </c>
+      <c r="D18">
+        <v>10.66</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>1.9550000000000001</v>
+      </c>
+      <c r="F18">
+        <v>-131.4</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>0.56570245793969465</v>
+      </c>
+      <c r="H18">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>407</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="7"/>
+        <v>45943.30277777779</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="8"/>
+        <v>45943.386111111126</v>
+      </c>
+      <c r="D19">
+        <v>10.83</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>2.04</v>
+      </c>
+      <c r="F19">
+        <v>-136.69999999999999</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>0.67310965250872823</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>408</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" si="7"/>
+        <v>45943.386111111126</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="8"/>
+        <v>45943.469444444461</v>
+      </c>
+      <c r="D20">
+        <v>10.88</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>2.0650000000000004</v>
+      </c>
+      <c r="F20">
+        <v>-141.6</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>0.79047042845623094</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>409</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" si="7"/>
+        <v>45943.469444444461</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="8"/>
+        <v>45943.552777777797</v>
+      </c>
+      <c r="D21">
+        <v>10.63</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>1.9400000000000004</v>
+      </c>
+      <c r="F21">
+        <v>-143.80000000000001</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>0.84961919846210943</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>410</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" si="7"/>
+        <v>45943.552777777797</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="8"/>
+        <v>45943.636111111133</v>
+      </c>
+      <c r="D22">
+        <v>9.5</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>1.375</v>
+      </c>
+      <c r="F22">
+        <v>-145.80000000000001</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>0.90722296544068992</v>
+      </c>
+      <c r="H22">
+        <v>0.86799999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>411</v>
+      </c>
+      <c r="B23" s="1">
+        <f t="shared" si="7"/>
+        <v>45943.636111111133</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" si="8"/>
+        <v>45943.719444444469</v>
+      </c>
+      <c r="D23">
+        <v>11.24</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>2.2450000000000001</v>
+      </c>
+      <c r="F23">
+        <v>-145.69999999999999</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>0.90425214891657868</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>412</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" si="7"/>
+        <v>45943.719444444469</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" si="8"/>
+        <v>45943.802777777804</v>
+      </c>
+      <c r="D24">
+        <v>10.76</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>2.0049999999999999</v>
+      </c>
+      <c r="F24">
+        <v>-144.19999999999999</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>0.86083964754023978</v>
+      </c>
+      <c r="H24">
+        <v>0.39200000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>413</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" si="7"/>
+        <v>45943.802777777804</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="8"/>
+        <v>45943.88611111114</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>7.6E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>414</v>
+      </c>
+      <c r="B26" s="1">
+        <v>45942.886111111111</v>
+      </c>
+      <c r="C26" s="1">
+        <f>B26+2/24</f>
+        <v>45942.969444444447</v>
+      </c>
+      <c r="D26">
+        <v>10.81</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>2.0300000000000002</v>
+      </c>
+      <c r="F26">
+        <v>-43.4</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>3.1552986610876278E-2</v>
+      </c>
+      <c r="H26">
+        <v>8.42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>415</v>
+      </c>
+      <c r="B27" s="1">
+        <f>C26</f>
+        <v>45942.969444444447</v>
+      </c>
+      <c r="C27" s="1">
+        <f>B27+2/24</f>
+        <v>45943.052777777782</v>
+      </c>
+      <c r="D27">
+        <v>10.67</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>1.96</v>
+      </c>
+      <c r="F27">
+        <v>-46.9</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>3.5391378571216117E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>416</v>
+      </c>
+      <c r="B28" s="1">
+        <f t="shared" ref="B28:B37" si="9">C27</f>
+        <v>45943.052777777782</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" ref="C28:C37" si="10">B28+2/24</f>
+        <v>45943.136111111118</v>
+      </c>
+      <c r="D28">
+        <v>10.8</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>2.0250000000000004</v>
+      </c>
+      <c r="F28">
+        <v>-59.9</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>5.4210154716647078E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>417</v>
+      </c>
+      <c r="B29" s="1">
+        <f t="shared" si="9"/>
+        <v>45943.136111111118</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="10"/>
+        <v>45943.219444444454</v>
+      </c>
+      <c r="D29">
+        <v>10.83</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>2.04</v>
+      </c>
+      <c r="F29">
+        <v>-107.7</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>0.26000692032405337</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>418</v>
+      </c>
+      <c r="B30" s="1">
+        <f t="shared" si="9"/>
+        <v>45943.219444444454</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" si="10"/>
+        <v>45943.30277777779</v>
+      </c>
+      <c r="D30">
+        <v>10.78</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>2.0149999999999997</v>
+      </c>
+      <c r="F30">
+        <v>-133.6</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>0.60803244698404435</v>
+      </c>
+      <c r="H30">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>419</v>
+      </c>
+      <c r="B31" s="1">
+        <f t="shared" si="9"/>
+        <v>45943.30277777779</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" si="10"/>
+        <v>45943.386111111126</v>
+      </c>
+      <c r="D31">
+        <v>10.66</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>1.9550000000000001</v>
+      </c>
+      <c r="F31">
+        <v>-139.1</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>0.72823823991541325</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>420</v>
+      </c>
+      <c r="B32" s="1">
+        <f t="shared" si="9"/>
+        <v>45943.386111111126</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" si="10"/>
+        <v>45943.469444444461</v>
+      </c>
+      <c r="D32">
+        <v>10.83</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>2.04</v>
+      </c>
+      <c r="F32">
+        <v>-141.6</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>0.79047042845623094</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>421</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="9"/>
+        <v>45943.469444444461</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="10"/>
+        <v>45943.552777777797</v>
+      </c>
+      <c r="D33">
+        <v>10.67</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>1.96</v>
+      </c>
+      <c r="F33">
+        <v>-144.1</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>0.85802071906626864</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>422</v>
+      </c>
+      <c r="B34" s="1">
+        <f t="shared" si="9"/>
+        <v>45943.552777777797</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" si="10"/>
+        <v>45943.636111111133</v>
+      </c>
+      <c r="D34">
+        <v>10.7</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>1.9749999999999996</v>
+      </c>
+      <c r="F34">
+        <v>-146.5</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>0.92829377195073626</v>
+      </c>
+      <c r="H34">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>423</v>
+      </c>
+      <c r="B35" s="1">
+        <f t="shared" si="9"/>
+        <v>45943.636111111133</v>
+      </c>
+      <c r="C35" s="1">
+        <f t="shared" si="10"/>
+        <v>45943.719444444469</v>
+      </c>
+      <c r="D35">
+        <v>9.98</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>1.6150000000000002</v>
+      </c>
+      <c r="F35">
+        <v>-146</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>0.91319391138408179</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>424</v>
+      </c>
+      <c r="B36" s="1">
+        <f t="shared" si="9"/>
+        <v>45943.719444444469</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" si="10"/>
+        <v>45943.802777777804</v>
+      </c>
+      <c r="D36">
+        <v>10.95</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>2.0999999999999996</v>
+      </c>
+      <c r="F36">
+        <v>-144.5</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>0.86935212236281723</v>
+      </c>
+      <c r="H36">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>425</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="9"/>
+        <v>45943.802777777804</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="10"/>
+        <v>45943.88611111114</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>7.6E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>426</v>
+      </c>
+      <c r="B38" s="1">
+        <v>45942.886111111111</v>
+      </c>
+      <c r="C38" s="1">
+        <f>B38+2/24</f>
+        <v>45942.969444444447</v>
+      </c>
+      <c r="D38">
+        <v>10.64</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>1.9450000000000003</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>7.6E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>427</v>
+      </c>
+      <c r="B39" s="1">
+        <f>C38</f>
+        <v>45942.969444444447</v>
+      </c>
+      <c r="C39" s="1">
+        <f>B39+2/24</f>
+        <v>45943.052777777782</v>
+      </c>
+      <c r="D39">
+        <v>10.68</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>1.9649999999999999</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>7.6E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>428</v>
+      </c>
+      <c r="B40" s="1">
+        <f t="shared" ref="B40:B49" si="11">C39</f>
+        <v>45943.052777777782</v>
+      </c>
+      <c r="C40" s="1">
+        <f t="shared" ref="C40:C49" si="12">B40+2/24</f>
+        <v>45943.136111111118</v>
+      </c>
+      <c r="D40">
+        <v>10.68</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>1.9649999999999999</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>7.6E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>429</v>
+      </c>
+      <c r="B41" s="1">
+        <f t="shared" si="11"/>
+        <v>45943.136111111118</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" si="12"/>
+        <v>45943.219444444454</v>
+      </c>
+      <c r="D41">
+        <v>10.76</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>2.0049999999999999</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>7.6E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>430</v>
+      </c>
+      <c r="B42" s="1">
+        <f t="shared" si="11"/>
+        <v>45943.219444444454</v>
+      </c>
+      <c r="C42" s="1">
+        <f t="shared" si="12"/>
+        <v>45943.30277777779</v>
+      </c>
+      <c r="D42">
+        <v>10.67</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>1.96</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>7.6E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>431</v>
+      </c>
+      <c r="B43" s="1">
+        <f t="shared" si="11"/>
+        <v>45943.30277777779</v>
+      </c>
+      <c r="C43" s="1">
+        <f t="shared" si="12"/>
+        <v>45943.386111111126</v>
+      </c>
+      <c r="D43">
+        <v>10.66</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>1.9550000000000001</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>7.6E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>432</v>
+      </c>
+      <c r="B44" s="1">
+        <f t="shared" si="11"/>
+        <v>45943.386111111126</v>
+      </c>
+      <c r="C44" s="1">
+        <f t="shared" si="12"/>
+        <v>45943.469444444461</v>
+      </c>
+      <c r="D44">
+        <v>10.73</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>1.9900000000000002</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>7.6E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>433</v>
+      </c>
+      <c r="B45" s="1">
+        <f t="shared" si="11"/>
+        <v>45943.469444444461</v>
+      </c>
+      <c r="C45" s="1">
+        <f t="shared" si="12"/>
+        <v>45943.552777777797</v>
+      </c>
+      <c r="D45">
+        <v>10.64</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>1.9450000000000003</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>7.6E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>434</v>
+      </c>
+      <c r="B46" s="1">
+        <f t="shared" si="11"/>
+        <v>45943.552777777797</v>
+      </c>
+      <c r="C46" s="1">
+        <f t="shared" si="12"/>
+        <v>45943.636111111133</v>
+      </c>
+      <c r="D46">
+        <v>10.71</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>1.9800000000000004</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>7.6E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>435</v>
+      </c>
+      <c r="B47" s="1">
+        <f t="shared" si="11"/>
+        <v>45943.636111111133</v>
+      </c>
+      <c r="C47" s="1">
+        <f t="shared" si="12"/>
+        <v>45943.719444444469</v>
+      </c>
+      <c r="D47">
+        <v>10.69</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>1.9699999999999998</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>7.6E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>436</v>
+      </c>
+      <c r="B48" s="1">
+        <f t="shared" si="11"/>
+        <v>45943.719444444469</v>
+      </c>
+      <c r="C48" s="1">
+        <f t="shared" si="12"/>
+        <v>45943.802777777804</v>
+      </c>
+      <c r="D48">
+        <v>10.66</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>1.9550000000000001</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>7.6E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>437</v>
+      </c>
+      <c r="B49" s="1">
+        <f t="shared" si="11"/>
+        <v>45943.802777777804</v>
+      </c>
+      <c r="C49" s="1">
+        <f t="shared" si="12"/>
+        <v>45943.88611111114</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>7.6E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16994493-3AAA-0649-9876-DE782407159B}">
   <dimension ref="A1:L17"/>
   <sheetViews>
@@ -11472,7 +14807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5BDF59F-AB87-404D-AFD3-7683E8E88CAC}">
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -11513,12 +14848,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A1C8F7-0C5B-6045-992F-0FD6B0162923}">
-  <dimension ref="A1:J69"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView zoomScale="118" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView topLeftCell="A36" zoomScale="118" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12746,7 +16081,7 @@
         <v>1</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F69" si="3">($J$11*AVERAGE(D67:D67)+$J$12)*E67</f>
+        <f t="shared" ref="F67:F81" si="3">($J$11*AVERAGE(D67:D67)+$J$12)*E67</f>
         <v>35.273579856115113</v>
       </c>
     </row>
@@ -12778,6 +16113,186 @@
       <c r="F69">
         <f t="shared" si="3"/>
         <v>-0.71290071942446454</v>
+      </c>
+    </row>
+    <row r="70" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C70" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D70">
+        <v>0.48</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="3"/>
+        <v>25.806548201438847</v>
+      </c>
+    </row>
+    <row r="71" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C71" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D71">
+        <v>0.504</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="3"/>
+        <v>27.21778273381295</v>
+      </c>
+    </row>
+    <row r="72" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C72" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D72">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="3"/>
+        <v>27.982201438848922</v>
+      </c>
+    </row>
+    <row r="73" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C73" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D73">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="3"/>
+        <v>37.860843165467635</v>
+      </c>
+    </row>
+    <row r="74" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C74" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D74">
+        <v>0.72</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="3"/>
+        <v>39.918893525179861</v>
+      </c>
+    </row>
+    <row r="75" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C75" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D75">
+        <v>0.746</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="3"/>
+        <v>41.447730935251805</v>
+      </c>
+    </row>
+    <row r="76" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C76" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D76">
+        <v>0.313</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="3"/>
+        <v>15.986707913669065</v>
+      </c>
+    </row>
+    <row r="77" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C77" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D77">
+        <v>0.253</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="3"/>
+        <v>12.45862158273381</v>
+      </c>
+    </row>
+    <row r="78" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C78" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="D78">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="3"/>
+        <v>11.811805755395682</v>
+      </c>
+    </row>
+    <row r="79" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C79" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D79">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="3"/>
+        <v>-0.59529784172662281</v>
+      </c>
+    </row>
+    <row r="80" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C80" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D80">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="3"/>
+        <v>-0.59529784172662281</v>
+      </c>
+    </row>
+    <row r="81" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C81" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D81">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="3"/>
+        <v>-0.18368776978417678</v>
       </c>
     </row>
   </sheetData>
@@ -12787,7 +16302,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2002340C-AD4C-5C4F-8F00-4A8EC30B67C5}">
   <dimension ref="A1:M13"/>
   <sheetViews>

--- a/data/exp_raw/ssexp_data.xlsx
+++ b/data/exp_raw/ssexp_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vcantarella/Documents/FuhrbergerColumns/data/exp_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78288C1-52D9-6E42-90CD-54AD263614E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D487991-7BF7-A945-8224-0C7450524B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" activeTab="4" xr2:uid="{82067E57-95C1-4A4D-B858-7597035F15DE}"/>
+    <workbookView xWindow="-20" yWindow="740" windowWidth="29400" windowHeight="16680" activeTab="1" xr2:uid="{82067E57-95C1-4A4D-B858-7597035F15DE}"/>
   </bookViews>
   <sheets>
     <sheet name="general_samples_p1" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="general_samples_p3" sheetId="5" r:id="rId3"/>
     <sheet name="general_samples_p4" sheetId="6" r:id="rId4"/>
     <sheet name="bromide_curve" sheetId="9" r:id="rId5"/>
-    <sheet name="fe_total" sheetId="2" r:id="rId6"/>
-    <sheet name="hs" sheetId="3" r:id="rId7"/>
-    <sheet name="standard_curve_no2" sheetId="7" r:id="rId8"/>
-    <sheet name="fe_plate_1" sheetId="8" r:id="rId9"/>
+    <sheet name="bromide_curve_v2" sheetId="10" r:id="rId6"/>
+    <sheet name="fe_total" sheetId="2" r:id="rId7"/>
+    <sheet name="hs" sheetId="3" r:id="rId8"/>
+    <sheet name="standard_curve_no2" sheetId="7" r:id="rId9"/>
+    <sheet name="fe_plate_1" sheetId="8" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="467">
   <si>
     <t>Sample</t>
   </si>
@@ -109,9 +110,6 @@
     <t>P4T3</t>
   </si>
   <si>
-    <t>conc_mgN_L</t>
-  </si>
-  <si>
     <t>P1F1</t>
   </si>
   <si>
@@ -1415,6 +1413,42 @@
   </si>
   <si>
     <t>*incomplete</t>
+  </si>
+  <si>
+    <t>B1T13</t>
+  </si>
+  <si>
+    <t>B1T14</t>
+  </si>
+  <si>
+    <t>B2T13</t>
+  </si>
+  <si>
+    <t>B2T14</t>
+  </si>
+  <si>
+    <t>B3T13</t>
+  </si>
+  <si>
+    <t>B3T14</t>
+  </si>
+  <si>
+    <t>B4T13</t>
+  </si>
+  <si>
+    <t>B4T14</t>
+  </si>
+  <si>
+    <t>B1T16</t>
+  </si>
+  <si>
+    <t>B2T16</t>
+  </si>
+  <si>
+    <t>B3T16</t>
+  </si>
+  <si>
+    <t>B4T16</t>
   </si>
 </sst>
 </file>
@@ -1636,7 +1670,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>bromide_curve!$Q$2:$Q$8</c:f>
+              <c:f>bromide_curve!$S$2:$S$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1666,7 +1700,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>bromide_curve!$O$2:$O$8</c:f>
+              <c:f>bromide_curve!$Q$2:$Q$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1889,6 +1923,410 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Bromide tracer standards</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10837360847135487"/>
+                  <c:y val="-1.6978189227943952E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-DE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>bromide_curve_v2!$S$2:$S$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>161.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>143.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>125.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>106.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>bromide_curve_v2!$Q$2:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3E67-9B4B-AB2A-DA3B0421F218}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1081534080"/>
+        <c:axId val="1081535808"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1081534080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1081535808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1081535808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1081534080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -2314,7 +2752,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -2729,7 +3167,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -3265,6 +3703,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5368,19 +5846,535 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>678564</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>16539</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5412,6 +6406,49 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>678564</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>16539</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B507C2FD-3815-D34F-8042-F7DC7D913C63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5454,7 +6491,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5497,7 +6534,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5936,8 +6973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE2E69C-B565-9948-8744-019B7DBC9C60}">
   <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H83" sqref="H83"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5952,10 +6989,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>437</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>438</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -5970,19 +7007,19 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>20</v>
+        <v>387</v>
       </c>
       <c r="I1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" t="s">
         <v>45</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>46</v>
       </c>
-      <c r="K1" t="s">
-        <v>47</v>
-      </c>
       <c r="L1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -6055,7 +7092,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1">
         <f t="shared" si="1"/>
@@ -6075,7 +7112,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" si="1"/>
@@ -6095,7 +7132,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" si="1"/>
@@ -6115,7 +7152,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" si="1"/>
@@ -6135,7 +7172,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" si="1"/>
@@ -6157,7 +7194,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" si="1"/>
@@ -6177,7 +7214,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" si="1"/>
@@ -6197,7 +7234,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" si="1"/>
@@ -6217,7 +7254,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" si="1"/>
@@ -6235,12 +7272,12 @@
         <v>1.9600000000000002</v>
       </c>
       <c r="L13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" si="1"/>
@@ -6260,7 +7297,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" si="1"/>
@@ -6280,7 +7317,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" si="1"/>
@@ -6309,7 +7346,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17" s="1">
         <f t="shared" si="1"/>
@@ -6320,12 +7357,12 @@
         <v>45926.71597222222</v>
       </c>
       <c r="L17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B18" s="1">
         <f t="shared" si="1"/>
@@ -6345,7 +7382,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B19" s="1">
         <f t="shared" si="1"/>
@@ -6365,7 +7402,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20" s="1">
         <f t="shared" si="1"/>
@@ -6385,7 +7422,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B21" s="1">
         <f t="shared" si="1"/>
@@ -6405,7 +7442,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="1">
         <f t="shared" si="1"/>
@@ -6425,7 +7462,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B23" s="1">
         <f t="shared" si="1"/>
@@ -6445,7 +7482,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B24" s="1">
         <f t="shared" si="1"/>
@@ -6474,7 +7511,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B25" s="1">
         <f t="shared" si="1"/>
@@ -6494,7 +7531,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B26" s="1">
         <f t="shared" si="1"/>
@@ -6514,7 +7551,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B27" s="1">
         <f t="shared" si="1"/>
@@ -6534,7 +7571,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B28" s="1">
         <f t="shared" si="1"/>
@@ -6561,12 +7598,12 @@
         <v>14.4</v>
       </c>
       <c r="L28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B29" s="1">
         <f t="shared" si="1"/>
@@ -6586,7 +7623,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B30" s="1">
         <f t="shared" si="1"/>
@@ -6606,7 +7643,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B31" s="1">
         <f t="shared" si="1"/>
@@ -6626,7 +7663,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B32" s="1">
         <f t="shared" si="1"/>
@@ -6646,7 +7683,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B33" s="1">
         <f t="shared" si="1"/>
@@ -6659,7 +7696,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B34" s="1">
         <f t="shared" si="1"/>
@@ -6679,7 +7716,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B35" s="1">
         <f t="shared" si="1"/>
@@ -6699,7 +7736,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B36" s="1">
         <f t="shared" si="1"/>
@@ -6728,7 +7765,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B37" s="1">
         <f t="shared" ref="B37:B49" si="3">C36</f>
@@ -6748,7 +7785,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B38" s="1">
         <f t="shared" si="3"/>
@@ -6768,7 +7805,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B39" s="1">
         <f t="shared" si="3"/>
@@ -6788,7 +7825,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B40" s="1">
         <f t="shared" si="3"/>
@@ -6817,7 +7854,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B41" s="1">
         <f t="shared" si="3"/>
@@ -6837,7 +7874,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B42" s="1">
         <f t="shared" si="3"/>
@@ -6857,7 +7894,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B43" s="1">
         <f t="shared" si="3"/>
@@ -6877,7 +7914,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B44" s="1">
         <f t="shared" si="3"/>
@@ -6900,7 +7937,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B45" s="1">
         <f t="shared" si="3"/>
@@ -6920,7 +7957,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B46" s="1">
         <f t="shared" si="3"/>
@@ -6940,7 +7977,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B47" s="1">
         <f t="shared" si="3"/>
@@ -6960,7 +7997,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B48" s="1">
         <f t="shared" si="3"/>
@@ -6989,7 +8026,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B49" s="1">
         <f t="shared" si="3"/>
@@ -7009,7 +8046,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B50" s="1">
         <f t="shared" ref="B50:B56" si="5">C49</f>
@@ -7029,7 +8066,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B51" s="1">
         <f t="shared" si="5"/>
@@ -7049,7 +8086,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B52" s="1">
         <f t="shared" si="5"/>
@@ -7069,7 +8106,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B53" s="1">
         <f t="shared" si="5"/>
@@ -7089,7 +8126,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B54" s="1">
         <f t="shared" si="5"/>
@@ -7109,7 +8146,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B55" s="1">
         <f t="shared" si="5"/>
@@ -7129,7 +8166,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B56" s="1">
         <f t="shared" si="5"/>
@@ -7158,7 +8195,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B57" s="1">
         <f t="shared" ref="B57:B64" si="7">C56</f>
@@ -7174,7 +8211,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B58" s="1">
         <f t="shared" si="7"/>
@@ -7187,7 +8224,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B59" s="1">
         <f t="shared" si="7"/>
@@ -7200,7 +8237,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B60" s="1">
         <f t="shared" si="7"/>
@@ -7213,7 +8250,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B61" s="1">
         <f t="shared" si="7"/>
@@ -7226,7 +8263,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B62" s="1">
         <f t="shared" si="7"/>
@@ -7246,7 +8283,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B63" s="1">
         <f t="shared" si="7"/>
@@ -7266,7 +8303,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B64" s="1">
         <f t="shared" si="7"/>
@@ -7295,7 +8332,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B65" s="1">
         <f t="shared" ref="B65:B80" si="10">C64</f>
@@ -7315,7 +8352,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B66" s="1">
         <f t="shared" si="10"/>
@@ -7335,7 +8372,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B67" s="1">
         <f t="shared" si="10"/>
@@ -7355,7 +8392,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B68" s="1">
         <f t="shared" si="10"/>
@@ -7384,7 +8421,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B69" s="1">
         <f t="shared" si="10"/>
@@ -7404,7 +8441,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B70" s="1">
         <f t="shared" si="10"/>
@@ -7424,7 +8461,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B71" s="1">
         <f t="shared" si="10"/>
@@ -7447,7 +8484,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B72" s="1">
         <f t="shared" si="10"/>
@@ -7467,7 +8504,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B73" s="1">
         <f t="shared" si="10"/>
@@ -7487,7 +8524,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B74" s="1">
         <f t="shared" si="10"/>
@@ -7507,7 +8544,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B75" s="1">
         <f t="shared" si="10"/>
@@ -7527,7 +8564,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B76" s="1">
         <f t="shared" si="10"/>
@@ -7550,7 +8587,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B77" s="1">
         <f t="shared" si="10"/>
@@ -7570,7 +8607,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B78" s="1">
         <f t="shared" si="10"/>
@@ -7590,7 +8627,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B79" s="1">
         <f t="shared" si="10"/>
@@ -7610,7 +8647,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B80" s="1">
         <f t="shared" si="10"/>
@@ -7630,7 +8667,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B81" s="1">
         <f t="shared" ref="B81:B82" si="12">C80</f>
@@ -7659,7 +8696,7 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B82" s="1">
         <f t="shared" si="12"/>
@@ -7669,20 +8706,317 @@
         <f t="shared" si="13"/>
         <v>45942.96597222222</v>
       </c>
-      <c r="D82">
-        <v>13.45</v>
-      </c>
-      <c r="E82">
-        <f t="shared" si="9"/>
-        <v>1.1166666666666665</v>
-      </c>
       <c r="L82" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2002340C-AD4C-5C4F-8F00-4A8EC30B67C5}">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="19.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K1" t="s">
+        <v>169</v>
+      </c>
+      <c r="L1" t="s">
+        <v>193</v>
+      </c>
+      <c r="M1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>3.9E-2</v>
+      </c>
+      <c r="G2">
+        <f>AVERAGE(D2:E2)*$K$11 + $K$12</f>
+        <v>-3.2082434215761744</v>
+      </c>
+      <c r="I2">
+        <v>1000</v>
+      </c>
+      <c r="J2">
+        <v>1.556</v>
+      </c>
+      <c r="K2">
+        <v>1.548</v>
+      </c>
+      <c r="M2">
+        <f t="shared" ref="M2:M7" si="0">AVERAGE(J2:L2)</f>
+        <v>1.552</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G13" si="1">AVERAGE(D3:E3)*$K$11 + $K$12</f>
+        <v>8.3261041095816779E-2</v>
+      </c>
+      <c r="I3">
+        <v>500</v>
+      </c>
+      <c r="J3">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="K3">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="0"/>
+        <v>0.82450000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>-1.2333407439729775</v>
+      </c>
+      <c r="I4">
+        <v>250</v>
+      </c>
+      <c r="J4">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="K4">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>0.42599999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>-5.1831460991793712</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+      <c r="J5">
+        <v>0.189</v>
+      </c>
+      <c r="K5">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>0.1915</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6">
+        <v>0.04</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>-2.5499425290417754</v>
+      </c>
+      <c r="I6">
+        <v>50</v>
+      </c>
+      <c r="J6">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="K6">
+        <v>0.12</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D7">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>-4.5248452066449723</v>
+      </c>
+      <c r="I7">
+        <v>25</v>
+      </c>
+      <c r="J7">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="K7">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>7.7499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>2.716464611233409</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K8">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="M8">
+        <f>AVERAGE(J8:L8)</f>
+        <v>5.5999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>8.3261041095816779E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D10">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>1.3998628261646147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>1.3998628261646147</v>
+      </c>
+      <c r="J11" t="s">
+        <v>194</v>
+      </c>
+      <c r="K11">
+        <f>SLOPE(I2:I8,M2:M8)</f>
+        <v>658.30089253439814</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>-4.5248452066449723</v>
+      </c>
+      <c r="K12">
+        <f>INTERCEPT(I2:I8,M2:M8)</f>
+        <v>-28.881978230417701</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D13">
+        <v>0.04</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>-2.5499425290417754</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7690,8 +9024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046BB4A8-8683-FF42-8F76-0A791D85765F}">
   <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="H77" sqref="H77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I81" sqref="I81:I82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7704,10 +9038,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>437</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>438</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -7722,19 +9056,19 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>20</v>
+        <v>387</v>
       </c>
       <c r="I1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" t="s">
         <v>45</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>46</v>
       </c>
-      <c r="K1" t="s">
-        <v>47</v>
-      </c>
       <c r="L1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -7807,7 +9141,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1">
         <f t="shared" si="1"/>
@@ -7827,7 +9161,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" si="1"/>
@@ -7847,7 +9181,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" si="1"/>
@@ -7867,7 +9201,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" si="1"/>
@@ -7887,7 +9221,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" si="1"/>
@@ -7909,7 +9243,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" si="1"/>
@@ -7929,7 +9263,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" si="1"/>
@@ -7949,7 +9283,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" si="1"/>
@@ -7969,7 +9303,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" si="1"/>
@@ -7989,7 +9323,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" si="1"/>
@@ -8009,7 +9343,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" si="1"/>
@@ -8029,7 +9363,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" si="1"/>
@@ -8056,12 +9390,12 @@
         <v>14.1</v>
       </c>
       <c r="L16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B17" s="1">
         <f t="shared" si="1"/>
@@ -8072,12 +9406,12 @@
         <v>45926.71597222222</v>
       </c>
       <c r="L17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B18" s="1">
         <f t="shared" si="1"/>
@@ -8097,7 +9431,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B19" s="1">
         <f t="shared" si="1"/>
@@ -8117,7 +9451,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B20" s="1">
         <f t="shared" si="1"/>
@@ -8137,7 +9471,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B21" s="1">
         <f t="shared" si="1"/>
@@ -8157,7 +9491,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B22" s="1">
         <f t="shared" si="1"/>
@@ -8177,7 +9511,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B23" s="1">
         <f t="shared" si="1"/>
@@ -8197,7 +9531,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B24" s="1">
         <f t="shared" si="1"/>
@@ -8226,7 +9560,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B25" s="1">
         <f t="shared" si="1"/>
@@ -8246,7 +9580,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B26" s="1">
         <f t="shared" si="1"/>
@@ -8266,7 +9600,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B27" s="1">
         <f t="shared" si="1"/>
@@ -8295,7 +9629,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B28" s="1">
         <f t="shared" si="1"/>
@@ -8306,12 +9640,12 @@
         <v>45929.46597222222</v>
       </c>
       <c r="L28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B29" s="1">
         <f t="shared" si="1"/>
@@ -8331,7 +9665,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B30" s="1">
         <f t="shared" si="1"/>
@@ -8351,7 +9685,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B31" s="1">
         <f t="shared" si="1"/>
@@ -8371,7 +9705,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B32" s="1">
         <f t="shared" si="1"/>
@@ -8391,7 +9725,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B33" s="1">
         <f t="shared" si="1"/>
@@ -8404,7 +9738,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B34" s="1">
         <f t="shared" si="1"/>
@@ -8424,7 +9758,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B35" s="1">
         <f t="shared" si="1"/>
@@ -8444,7 +9778,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B36" s="1">
         <f t="shared" si="1"/>
@@ -8473,7 +9807,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B37" s="1">
         <f t="shared" ref="B37:B56" si="4">C36</f>
@@ -8493,7 +9827,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B38" s="1">
         <f t="shared" si="4"/>
@@ -8513,7 +9847,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B39" s="1">
         <f t="shared" si="4"/>
@@ -8533,7 +9867,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B40" s="1">
         <f t="shared" si="4"/>
@@ -8562,7 +9896,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B41" s="1">
         <f t="shared" si="4"/>
@@ -8582,7 +9916,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B42" s="1">
         <f t="shared" si="4"/>
@@ -8602,7 +9936,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B43" s="1">
         <f t="shared" si="4"/>
@@ -8622,7 +9956,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B44" s="1">
         <f t="shared" si="4"/>
@@ -8645,7 +9979,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B45" s="1">
         <f t="shared" si="4"/>
@@ -8665,7 +9999,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B46" s="1">
         <f t="shared" si="4"/>
@@ -8685,7 +10019,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B47" s="1">
         <f t="shared" si="4"/>
@@ -8707,7 +10041,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B48" s="1">
         <f t="shared" si="4"/>
@@ -8718,12 +10052,12 @@
         <v>45934.46597222222</v>
       </c>
       <c r="L48" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B49" s="1">
         <f t="shared" si="4"/>
@@ -8736,7 +10070,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B50" s="1">
         <f t="shared" si="4"/>
@@ -8756,7 +10090,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B51" s="1">
         <f t="shared" si="4"/>
@@ -8776,7 +10110,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B52" s="1">
         <f t="shared" si="4"/>
@@ -8796,7 +10130,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B53" s="1">
         <f t="shared" si="4"/>
@@ -8816,7 +10150,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B54" s="1">
         <f t="shared" si="4"/>
@@ -8836,7 +10170,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B55" s="1">
         <f t="shared" si="4"/>
@@ -8856,7 +10190,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B56" s="1">
         <f t="shared" si="4"/>
@@ -8885,7 +10219,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B57" s="1">
         <f t="shared" ref="B57:B80" si="7">C56</f>
@@ -8898,7 +10232,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B58" s="1">
         <f t="shared" si="7"/>
@@ -8921,7 +10255,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B59" s="1">
         <f t="shared" si="7"/>
@@ -8944,7 +10278,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B60" s="1">
         <f t="shared" si="7"/>
@@ -8967,7 +10301,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B61" s="1">
         <f t="shared" si="7"/>
@@ -8990,7 +10324,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B62" s="1">
         <f t="shared" si="7"/>
@@ -9010,7 +10344,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B63" s="1">
         <f t="shared" si="7"/>
@@ -9030,7 +10364,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B64" s="1">
         <f t="shared" si="7"/>
@@ -9059,7 +10393,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B65" s="1">
         <f t="shared" si="7"/>
@@ -9079,7 +10413,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B66" s="1">
         <f t="shared" si="7"/>
@@ -9099,7 +10433,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B67" s="1">
         <f t="shared" si="7"/>
@@ -9119,7 +10453,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B68" s="1">
         <f t="shared" si="7"/>
@@ -9148,7 +10482,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B69" s="1">
         <f t="shared" si="7"/>
@@ -9168,7 +10502,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B70" s="1">
         <f t="shared" si="7"/>
@@ -9188,7 +10522,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B71" s="1">
         <f t="shared" si="7"/>
@@ -9211,7 +10545,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B72" s="1">
         <f t="shared" si="7"/>
@@ -9231,7 +10565,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B73" s="1">
         <f t="shared" si="7"/>
@@ -9251,7 +10585,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B74" s="1">
         <f t="shared" si="7"/>
@@ -9271,7 +10605,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B75" s="1">
         <f t="shared" si="7"/>
@@ -9291,7 +10625,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B76" s="1">
         <f t="shared" si="7"/>
@@ -9314,7 +10648,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B77" s="1">
         <f t="shared" si="7"/>
@@ -9334,7 +10668,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B78" s="1">
         <f t="shared" si="7"/>
@@ -9354,7 +10688,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B79" s="1">
         <f t="shared" si="7"/>
@@ -9374,7 +10708,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B80" s="1">
         <f t="shared" si="7"/>
@@ -9394,7 +10728,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B81" s="1">
         <f t="shared" ref="B81:B82" si="9">C80</f>
@@ -9423,7 +10757,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B82" s="1">
         <f t="shared" si="9"/>
@@ -9432,13 +10766,6 @@
       <c r="C82" s="1">
         <f t="shared" si="10"/>
         <v>45942.96597222222</v>
-      </c>
-      <c r="D82">
-        <v>13.99</v>
-      </c>
-      <c r="E82">
-        <f t="shared" si="6"/>
-        <v>1.2066666666666668</v>
       </c>
     </row>
   </sheetData>
@@ -9452,7 +10779,7 @@
   <dimension ref="A1:L82"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="H77" sqref="H77"/>
+      <selection activeCell="D82" sqref="D82:E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9465,10 +10792,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>437</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>438</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -9483,19 +10810,19 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>20</v>
+        <v>387</v>
       </c>
       <c r="I1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" t="s">
         <v>45</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>46</v>
       </c>
-      <c r="K1" t="s">
-        <v>47</v>
-      </c>
       <c r="L1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -9568,7 +10895,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1">
         <f t="shared" si="1"/>
@@ -9588,7 +10915,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" si="1"/>
@@ -9608,7 +10935,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" si="1"/>
@@ -9628,7 +10955,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" si="1"/>
@@ -9648,7 +10975,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" si="1"/>
@@ -9670,7 +10997,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" si="1"/>
@@ -9690,7 +11017,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" si="1"/>
@@ -9710,7 +11037,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" si="1"/>
@@ -9730,7 +11057,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" si="1"/>
@@ -9750,7 +11077,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" si="1"/>
@@ -9770,7 +11097,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" si="1"/>
@@ -9790,7 +11117,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" si="1"/>
@@ -9817,12 +11144,12 @@
         <v>14</v>
       </c>
       <c r="L16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B17" s="1">
         <f t="shared" si="1"/>
@@ -9833,12 +11160,12 @@
         <v>45926.71597222222</v>
       </c>
       <c r="L17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B18" s="1">
         <f t="shared" si="1"/>
@@ -9858,7 +11185,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B19" s="1">
         <f t="shared" si="1"/>
@@ -9878,7 +11205,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B20" s="1">
         <f t="shared" si="1"/>
@@ -9898,7 +11225,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B21" s="1">
         <f t="shared" si="1"/>
@@ -9918,7 +11245,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B22" s="1">
         <f t="shared" si="1"/>
@@ -9938,7 +11265,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B23" s="1">
         <f t="shared" si="1"/>
@@ -9958,7 +11285,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B24" s="1">
         <f t="shared" si="1"/>
@@ -9987,7 +11314,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B25" s="1">
         <f t="shared" si="1"/>
@@ -10007,7 +11334,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B26" s="1">
         <f t="shared" si="1"/>
@@ -10027,7 +11354,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B27" s="1">
         <f t="shared" si="1"/>
@@ -10047,7 +11374,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B28" s="1">
         <f t="shared" si="1"/>
@@ -10074,12 +11401,12 @@
         <v>13.2</v>
       </c>
       <c r="L28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B29" s="1">
         <f t="shared" si="1"/>
@@ -10099,7 +11426,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B30" s="1">
         <f t="shared" si="1"/>
@@ -10119,7 +11446,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B31" s="1">
         <f t="shared" si="1"/>
@@ -10139,7 +11466,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B32" s="1">
         <f t="shared" si="1"/>
@@ -10159,7 +11486,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B33" s="1">
         <f t="shared" si="1"/>
@@ -10172,7 +11499,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B34" s="1">
         <f t="shared" si="1"/>
@@ -10192,7 +11519,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B35" s="1">
         <f t="shared" si="1"/>
@@ -10212,7 +11539,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B36" s="1">
         <f t="shared" si="1"/>
@@ -10241,7 +11568,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B37" s="1">
         <f t="shared" ref="B37:B55" si="3">C36</f>
@@ -10261,7 +11588,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B38" s="1">
         <f t="shared" si="3"/>
@@ -10281,7 +11608,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B39" s="1">
         <f t="shared" si="3"/>
@@ -10301,7 +11628,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B40" s="1">
         <f t="shared" si="3"/>
@@ -10330,7 +11657,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B41" s="1">
         <f t="shared" si="3"/>
@@ -10350,7 +11677,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B42" s="1">
         <f t="shared" si="3"/>
@@ -10370,7 +11697,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B43" s="1">
         <f t="shared" si="3"/>
@@ -10390,7 +11717,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B44" s="1">
         <f t="shared" si="3"/>
@@ -10413,7 +11740,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B45" s="1">
         <f t="shared" si="3"/>
@@ -10433,7 +11760,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B46" s="1">
         <f t="shared" si="3"/>
@@ -10444,12 +11771,12 @@
         <v>45933.96597222222</v>
       </c>
       <c r="L46" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B47" s="1">
         <f t="shared" si="3"/>
@@ -10469,7 +11796,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B48" s="1">
         <f t="shared" si="3"/>
@@ -10498,7 +11825,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B49" s="1">
         <f t="shared" si="3"/>
@@ -10518,7 +11845,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B50" s="1">
         <f t="shared" si="3"/>
@@ -10538,7 +11865,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B51" s="1">
         <f t="shared" si="3"/>
@@ -10558,7 +11885,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B52" s="1">
         <f t="shared" si="3"/>
@@ -10578,7 +11905,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B53" s="1">
         <f t="shared" si="3"/>
@@ -10598,7 +11925,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B54" s="1">
         <f t="shared" si="3"/>
@@ -10618,7 +11945,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B55" s="1">
         <f t="shared" si="3"/>
@@ -10638,7 +11965,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B56" s="1">
         <f t="shared" ref="B56:B58" si="5">C55</f>
@@ -10667,7 +11994,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B57" s="1">
         <f t="shared" si="5"/>
@@ -10680,7 +12007,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B58" s="1">
         <f t="shared" si="5"/>
@@ -10703,7 +12030,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B59" s="1">
         <f t="shared" ref="B59:B80" si="7">C58</f>
@@ -10726,7 +12053,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B60" s="1">
         <f t="shared" si="7"/>
@@ -10749,7 +12076,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B61" s="1">
         <f t="shared" si="7"/>
@@ -10772,7 +12099,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B62" s="1">
         <f t="shared" si="7"/>
@@ -10792,7 +12119,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B63" s="1">
         <f t="shared" si="7"/>
@@ -10812,7 +12139,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B64" s="1">
         <f t="shared" si="7"/>
@@ -10841,7 +12168,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B65" s="1">
         <f t="shared" si="7"/>
@@ -10861,7 +12188,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B66" s="1">
         <f t="shared" si="7"/>
@@ -10881,7 +12208,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B67" s="1">
         <f t="shared" si="7"/>
@@ -10901,7 +12228,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B68" s="1">
         <f t="shared" si="7"/>
@@ -10930,7 +12257,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B69" s="1">
         <f t="shared" si="7"/>
@@ -10950,7 +12277,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B70" s="1">
         <f t="shared" si="7"/>
@@ -10970,7 +12297,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B71" s="1">
         <f t="shared" si="7"/>
@@ -10993,7 +12320,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B72" s="1">
         <f t="shared" si="7"/>
@@ -11013,7 +12340,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B73" s="1">
         <f t="shared" si="7"/>
@@ -11033,7 +12360,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B74" s="1">
         <f t="shared" si="7"/>
@@ -11053,7 +12380,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B75" s="1">
         <f t="shared" si="7"/>
@@ -11073,7 +12400,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B76" s="1">
         <f t="shared" si="7"/>
@@ -11096,7 +12423,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B77" s="1">
         <f t="shared" si="7"/>
@@ -11116,7 +12443,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B78" s="1">
         <f t="shared" si="7"/>
@@ -11136,7 +12463,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B79" s="1">
         <f t="shared" si="7"/>
@@ -11156,7 +12483,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B80" s="1">
         <f t="shared" si="7"/>
@@ -11176,7 +12503,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B81" s="1">
         <f t="shared" ref="B81:B82" si="9">C80</f>
@@ -11205,7 +12532,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B82" s="1">
         <f t="shared" si="9"/>
@@ -11214,13 +12541,6 @@
       <c r="C82" s="1">
         <f t="shared" si="10"/>
         <v>45942.96597222222</v>
-      </c>
-      <c r="D82">
-        <v>14</v>
-      </c>
-      <c r="E82">
-        <f t="shared" si="0"/>
-        <v>1.2083333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -11233,8 +12553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CEAE0A4-BA85-AC4B-952F-A9D4082FC119}">
   <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="G81" sqref="G81"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82:E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11247,10 +12567,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>437</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>438</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -11265,19 +12585,19 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>20</v>
+        <v>387</v>
       </c>
       <c r="I1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" t="s">
         <v>45</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>46</v>
       </c>
-      <c r="K1" t="s">
-        <v>47</v>
-      </c>
       <c r="L1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -11350,7 +12670,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="1">
         <f t="shared" si="1"/>
@@ -11370,7 +12690,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" si="1"/>
@@ -11390,7 +12710,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" si="1"/>
@@ -11410,7 +12730,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" si="1"/>
@@ -11430,7 +12750,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" si="1"/>
@@ -11452,7 +12772,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" si="1"/>
@@ -11472,7 +12792,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" si="1"/>
@@ -11492,7 +12812,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" si="1"/>
@@ -11512,7 +12832,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" si="1"/>
@@ -11532,7 +12852,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" si="1"/>
@@ -11552,7 +12872,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" si="1"/>
@@ -11572,7 +12892,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" si="1"/>
@@ -11599,12 +12919,12 @@
         <v>4.7E-2</v>
       </c>
       <c r="L16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B17" s="1">
         <f t="shared" si="1"/>
@@ -11615,12 +12935,12 @@
         <v>45926.71597222222</v>
       </c>
       <c r="L17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B18" s="1">
         <f t="shared" si="1"/>
@@ -11640,7 +12960,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B19" s="1">
         <f t="shared" si="1"/>
@@ -11660,7 +12980,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B20" s="1">
         <f t="shared" si="1"/>
@@ -11680,7 +13000,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B21" s="1">
         <f t="shared" si="1"/>
@@ -11700,7 +13020,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B22" s="1">
         <f t="shared" si="1"/>
@@ -11720,7 +13040,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B23" s="1">
         <f t="shared" si="1"/>
@@ -11740,7 +13060,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B24" s="1">
         <f t="shared" si="1"/>
@@ -11769,7 +13089,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B25" s="1">
         <f t="shared" si="1"/>
@@ -11789,7 +13109,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B26" s="1">
         <f t="shared" si="1"/>
@@ -11809,7 +13129,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B27" s="1">
         <f t="shared" si="1"/>
@@ -11829,7 +13149,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B28" s="1">
         <f t="shared" si="1"/>
@@ -11856,12 +13176,12 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="L28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B29" s="1">
         <f t="shared" si="1"/>
@@ -11881,7 +13201,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B30" s="1">
         <f t="shared" si="1"/>
@@ -11901,7 +13221,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B31" s="1">
         <f t="shared" si="1"/>
@@ -11921,7 +13241,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B32" s="1">
         <f t="shared" si="1"/>
@@ -11941,7 +13261,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B33" s="1">
         <f t="shared" si="1"/>
@@ -11954,7 +13274,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B34" s="1">
         <f t="shared" si="1"/>
@@ -11974,7 +13294,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B35" s="1">
         <f t="shared" si="1"/>
@@ -11994,7 +13314,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B36" s="1">
         <f t="shared" si="1"/>
@@ -12020,7 +13340,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B37" s="1">
         <f t="shared" ref="B37:B56" si="3">C36</f>
@@ -12040,7 +13360,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B38" s="1">
         <f t="shared" si="3"/>
@@ -12060,7 +13380,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B39" s="1">
         <f t="shared" si="3"/>
@@ -12080,7 +13400,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B40" s="1">
         <f t="shared" si="3"/>
@@ -12106,7 +13426,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B41" s="1">
         <f t="shared" si="3"/>
@@ -12126,7 +13446,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B42" s="1">
         <f t="shared" si="3"/>
@@ -12146,7 +13466,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B43" s="1">
         <f t="shared" si="3"/>
@@ -12166,7 +13486,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B44" s="1">
         <f t="shared" si="3"/>
@@ -12186,7 +13506,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B45" s="1">
         <f t="shared" si="3"/>
@@ -12206,7 +13526,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B46" s="1">
         <f t="shared" si="3"/>
@@ -12226,7 +13546,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B47" s="1">
         <f t="shared" si="3"/>
@@ -12246,7 +13566,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B48" s="1">
         <f t="shared" si="3"/>
@@ -12272,7 +13592,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B49" s="1">
         <f t="shared" si="3"/>
@@ -12292,7 +13612,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B50" s="1">
         <f t="shared" si="3"/>
@@ -12312,7 +13632,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B51" s="1">
         <f t="shared" si="3"/>
@@ -12332,7 +13652,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B52" s="1">
         <f t="shared" si="3"/>
@@ -12352,7 +13672,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B53" s="1">
         <f t="shared" si="3"/>
@@ -12372,7 +13692,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B54" s="1">
         <f t="shared" si="3"/>
@@ -12392,7 +13712,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B55" s="1">
         <f t="shared" si="3"/>
@@ -12412,7 +13732,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B56" s="1">
         <f t="shared" si="3"/>
@@ -12438,7 +13758,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B57" s="1">
         <f t="shared" ref="B57:B80" si="5">C56</f>
@@ -12451,7 +13771,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B58" s="1">
         <f t="shared" si="5"/>
@@ -12464,7 +13784,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B59" s="1">
         <f t="shared" si="5"/>
@@ -12477,7 +13797,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B60" s="1">
         <f t="shared" si="5"/>
@@ -12497,7 +13817,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B61" s="1">
         <f t="shared" si="5"/>
@@ -12510,7 +13830,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B62" s="1">
         <f t="shared" si="5"/>
@@ -12530,7 +13850,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B63" s="1">
         <f t="shared" si="5"/>
@@ -12550,7 +13870,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B64" s="1">
         <f t="shared" si="5"/>
@@ -12576,7 +13896,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B65" s="1">
         <f t="shared" si="5"/>
@@ -12596,7 +13916,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B66" s="1">
         <f t="shared" si="5"/>
@@ -12616,7 +13936,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B67" s="1">
         <f t="shared" si="5"/>
@@ -12636,7 +13956,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B68" s="1">
         <f t="shared" si="5"/>
@@ -12662,7 +13982,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B69" s="1">
         <f t="shared" si="5"/>
@@ -12682,7 +14002,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B70" s="1">
         <f t="shared" si="5"/>
@@ -12702,7 +14022,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B71" s="1">
         <f t="shared" si="5"/>
@@ -12722,7 +14042,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B72" s="1">
         <f t="shared" si="5"/>
@@ -12742,7 +14062,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B73" s="1">
         <f t="shared" si="5"/>
@@ -12762,7 +14082,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B74" s="1">
         <f t="shared" si="5"/>
@@ -12782,7 +14102,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B75" s="1">
         <f t="shared" si="5"/>
@@ -12802,7 +14122,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B76" s="1">
         <f t="shared" si="5"/>
@@ -12822,7 +14142,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B77" s="1">
         <f t="shared" si="5"/>
@@ -12842,7 +14162,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B78" s="1">
         <f t="shared" si="5"/>
@@ -12862,7 +14182,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B79" s="1">
         <f t="shared" si="5"/>
@@ -12882,7 +14202,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B80" s="1">
         <f t="shared" si="5"/>
@@ -12902,7 +14222,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B81" s="1">
         <f t="shared" ref="B81:B82" si="10">C80</f>
@@ -12928,7 +14248,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B82" s="1">
         <f t="shared" si="10"/>
@@ -12937,13 +14257,6 @@
       <c r="C82" s="1">
         <f t="shared" si="11"/>
         <v>45942.96597222222</v>
-      </c>
-      <c r="D82">
-        <v>13.74</v>
-      </c>
-      <c r="E82">
-        <f t="shared" si="9"/>
-        <v>1.165</v>
       </c>
     </row>
   </sheetData>
@@ -12954,81 +14267,89 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{613850BE-EF2F-F44E-9131-45DE0F67BB0D}">
-  <dimension ref="A1:Z49"/>
+  <dimension ref="A1:AB57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView topLeftCell="A51" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8" customWidth="1"/>
-    <col min="24" max="24" width="10.33203125" customWidth="1"/>
-    <col min="25" max="25" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8" customWidth="1"/>
+    <col min="26" max="26" width="10.33203125" customWidth="1"/>
+    <col min="27" max="27" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C1" t="s">
         <v>438</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>439</v>
-      </c>
-      <c r="D1" t="s">
-        <v>440</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1" t="s">
+        <v>386</v>
+      </c>
+      <c r="H1" t="s">
         <v>387</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>166</v>
+      </c>
+      <c r="L1" t="s">
         <v>388</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Q1" t="s">
         <v>167</v>
       </c>
-      <c r="J1" t="s">
+      <c r="R1" t="s">
+        <v>168</v>
+      </c>
+      <c r="W1" t="s">
+        <v>441</v>
+      </c>
+      <c r="X1" t="s">
+        <v>440</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>442</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>443</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>444</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>389</v>
-      </c>
-      <c r="O1" t="s">
-        <v>168</v>
-      </c>
-      <c r="P1" t="s">
-        <v>169</v>
-      </c>
-      <c r="U1" t="s">
-        <v>442</v>
-      </c>
-      <c r="V1" t="s">
-        <v>441</v>
-      </c>
-      <c r="W1" t="s">
-        <v>443</v>
-      </c>
-      <c r="X1" t="s">
-        <v>444</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>445</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" ht="19" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>390</v>
       </c>
       <c r="B2" s="1">
         <v>45942.886111111111</v>
@@ -13054,33 +14375,33 @@
       <c r="H2">
         <v>9.8800000000000008</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>2</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>-166.7</v>
       </c>
-      <c r="Q2">
-        <f>-1*P2</f>
+      <c r="S2">
+        <f>-1*R2</f>
         <v>166.7</v>
       </c>
-      <c r="U2">
+      <c r="W2">
         <v>10</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>50</v>
       </c>
-      <c r="W2">
-        <f>X2*U2*V2/1000</f>
+      <c r="Y2">
+        <f>Z2*W2*X2/1000</f>
         <v>51.445000000000007</v>
       </c>
-      <c r="X2">
+      <c r="Z2">
         <v>102.89</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B3" s="1">
         <f>C2</f>
@@ -13094,51 +14415,51 @@
         <v>10.55</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E49" si="0">(D3-6.75)/2</f>
+        <f t="shared" ref="E3:E54" si="0">(D3-6.75)/2</f>
         <v>1.9000000000000004</v>
       </c>
       <c r="F3">
         <v>-34.299999999999997</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G49" si="1">0.0076*EXP(0.0328*-F3)</f>
+        <f t="shared" ref="G3:G55" si="1">0.0076*EXP(0.0328*-F3)</f>
         <v>2.3410584456427078E-2</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>1</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>-149.19999999999999</v>
       </c>
-      <c r="Q3">
-        <f t="shared" ref="Q3:Q8" si="2">-1*P3</f>
+      <c r="S3">
+        <f t="shared" ref="S3:S8" si="2">-1*R3</f>
         <v>149.19999999999999</v>
       </c>
-      <c r="U3">
+      <c r="W3">
         <v>2</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <v>8</v>
       </c>
-      <c r="Y3">
-        <f>U3/U2*V3</f>
+      <c r="AA3">
+        <f>W3/W2*X3</f>
         <v>1.6</v>
       </c>
-      <c r="Z3">
-        <f>V3-Y3</f>
+      <c r="AB3">
+        <f>X3-AA3</f>
         <v>6.4</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B13" si="3">C3</f>
+        <f t="shared" ref="B4:B12" si="3">C3</f>
         <v>45943.052777777782</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:C13" si="4">B4+2/24</f>
+        <f t="shared" ref="C4:C12" si="4">B4+2/24</f>
         <v>45943.136111111118</v>
       </c>
       <c r="D4">
@@ -13155,34 +14476,34 @@
         <f t="shared" si="1"/>
         <v>2.3487497241456743E-2</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>0.5</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>-131.19999999999999</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <f t="shared" si="2"/>
         <v>131.19999999999999</v>
       </c>
-      <c r="U4">
+      <c r="W4">
         <v>1</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>8</v>
       </c>
-      <c r="Y4">
-        <f>U4/$U$2*V4</f>
+      <c r="AA4">
+        <f>W4/$W$2*X4</f>
         <v>0.8</v>
       </c>
-      <c r="Z4">
-        <f>V4-Y4</f>
+      <c r="AB4">
+        <f>X4-AA4</f>
         <v>7.2</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B5" s="1">
         <f t="shared" si="3"/>
@@ -13206,34 +14527,34 @@
         <f t="shared" si="1"/>
         <v>7.5501177132492991E-2</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>0.25</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>-113.3</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <f t="shared" si="2"/>
         <v>113.3</v>
       </c>
-      <c r="U5">
+      <c r="W5">
         <v>0.5</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <v>8</v>
       </c>
-      <c r="Y5">
-        <f t="shared" ref="Y5:Y7" si="5">U5/$U$2*V5</f>
+      <c r="AA5">
+        <f t="shared" ref="AA5:AA7" si="5">W5/$W$2*X5</f>
         <v>0.4</v>
       </c>
-      <c r="Z5">
-        <f t="shared" ref="Z5:Z7" si="6">V5-Y5</f>
+      <c r="AB5">
+        <f t="shared" ref="AB5:AB7" si="6">X5-AA5</f>
         <v>7.6</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" si="3"/>
@@ -13260,34 +14581,34 @@
       <c r="H6">
         <v>4.49</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>0.1</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <v>-57.4</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <f t="shared" si="2"/>
         <v>57.4</v>
       </c>
-      <c r="U6">
+      <c r="W6">
         <v>0.25</v>
       </c>
-      <c r="V6">
+      <c r="X6">
         <v>8</v>
       </c>
-      <c r="Y6">
+      <c r="AA6">
         <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
-      <c r="Z6">
+      <c r="AB6">
         <f t="shared" si="6"/>
         <v>7.8</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" si="3"/>
@@ -13311,34 +14632,34 @@
         <f t="shared" si="1"/>
         <v>0.66216068117437099</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>0.05</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>-42.5</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <f t="shared" si="2"/>
         <v>42.5</v>
       </c>
-      <c r="U7">
+      <c r="W7">
         <v>0.1</v>
       </c>
-      <c r="V7">
+      <c r="X7">
         <v>4</v>
       </c>
-      <c r="Y7">
+      <c r="AA7">
         <f t="shared" si="5"/>
         <v>0.04</v>
       </c>
-      <c r="Z7">
+      <c r="AB7">
         <f t="shared" si="6"/>
         <v>3.96</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" si="3"/>
@@ -13362,24 +14683,24 @@
         <f t="shared" si="1"/>
         <v>0.78016719345119157</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <v>0.01</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <v>-36.200000000000003</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <f t="shared" si="2"/>
         <v>36.200000000000003</v>
       </c>
-      <c r="Y8">
-        <f>SUM(Y3:Y7)</f>
+      <c r="AA8">
+        <f>SUM(AA3:AA7)</f>
         <v>3.0400000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" si="3"/>
@@ -13404,9 +14725,9 @@
         <v>0.79047042845623094</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" si="3"/>
@@ -13434,9 +14755,9 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" si="3"/>
@@ -13461,9 +14782,9 @@
         <v>0.83306214838775894</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" si="3"/>
@@ -13492,951 +14813,1174 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B13" s="1">
-        <f t="shared" si="3"/>
+        <f>C12</f>
         <v>45943.802777777804</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="4"/>
-        <v>45943.88611111114</v>
+        <f>DATE(2025,10,13)+19.5/24 +6/24</f>
+        <v>45944.0625</v>
+      </c>
+      <c r="D13">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="E13">
+        <f>(D13-6.75)/6</f>
+        <v>1.8583333333333332</v>
+      </c>
+      <c r="F13">
+        <v>-149.30000000000001</v>
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>7.6E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+        <v>1.0175858093682077</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>402</v>
+        <v>455</v>
       </c>
       <c r="B14" s="1">
-        <v>45942.886111111111</v>
+        <f>C13</f>
+        <v>45944.0625</v>
       </c>
       <c r="C14" s="1">
-        <f>B14+2/24</f>
-        <v>45942.969444444447</v>
+        <f>B14+6/24</f>
+        <v>45944.3125</v>
       </c>
       <c r="D14">
-        <v>10.67</v>
+        <v>18.149999999999999</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
-        <v>1.96</v>
-      </c>
-      <c r="F14">
-        <v>-40.6</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="1"/>
-        <v>2.8784246682358017E-2</v>
-      </c>
-      <c r="H14">
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+        <f>(D14-6.75)/6</f>
+        <v>1.8999999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>403</v>
+        <v>456</v>
       </c>
       <c r="B15" s="1">
         <f>C14</f>
+        <v>45944.3125</v>
+      </c>
+      <c r="C15" s="1">
+        <f>B15+6/24</f>
+        <v>45944.5625</v>
+      </c>
+      <c r="D15">
+        <v>18.2</v>
+      </c>
+      <c r="E15">
+        <f>(D15-6.75)/6</f>
+        <v>1.9083333333333332</v>
+      </c>
+      <c r="H15">
+        <v>0.871</v>
+      </c>
+      <c r="I15">
+        <v>8</v>
+      </c>
+      <c r="J15">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>401</v>
+      </c>
+      <c r="B16" s="1">
+        <v>45942.886111111111</v>
+      </c>
+      <c r="C16" s="1">
+        <f>B16+2/24</f>
         <v>45942.969444444447</v>
       </c>
-      <c r="C15" s="1">
-        <f>B15+2/24</f>
+      <c r="D16">
+        <v>10.67</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>1.96</v>
+      </c>
+      <c r="F16">
+        <v>-40.6</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>2.8784246682358017E-2</v>
+      </c>
+      <c r="H16">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>402</v>
+      </c>
+      <c r="B17" s="1">
+        <f>C16</f>
+        <v>45942.969444444447</v>
+      </c>
+      <c r="C17" s="1">
+        <f>B17+2/24</f>
         <v>45943.052777777782</v>
       </c>
-      <c r="D15">
+      <c r="D17">
         <v>11.05</v>
       </c>
-      <c r="E15">
+      <c r="E17">
         <f t="shared" si="0"/>
         <v>2.1500000000000004</v>
       </c>
-      <c r="F15">
+      <c r="F17">
         <v>-40.200000000000003</v>
       </c>
-      <c r="G15">
+      <c r="G17">
         <f t="shared" si="1"/>
         <v>2.8409063946438932E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>403</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" ref="B18:B26" si="7">C17</f>
+        <v>45943.052777777782</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" ref="C18:C26" si="8">B18+2/24</f>
+        <v>45943.136111111118</v>
+      </c>
+      <c r="D18">
+        <v>10.63</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>1.9400000000000004</v>
+      </c>
+      <c r="F18">
+        <v>-55.4</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>4.6771228923828782E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>404</v>
       </c>
-      <c r="B16" s="1">
-        <f t="shared" ref="B16:B25" si="7">C15</f>
-        <v>45943.052777777782</v>
-      </c>
-      <c r="C16" s="1">
-        <f t="shared" ref="C16:C25" si="8">B16+2/24</f>
-        <v>45943.136111111118</v>
-      </c>
-      <c r="D16">
-        <v>10.63</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>1.9400000000000004</v>
-      </c>
-      <c r="F16">
-        <v>-55.4</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="1"/>
-        <v>4.6771228923828782E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>405</v>
-      </c>
-      <c r="B17" s="1">
+      <c r="B19" s="1">
         <f t="shared" si="7"/>
         <v>45943.136111111118</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C19" s="1">
         <f t="shared" si="8"/>
         <v>45943.219444444454</v>
       </c>
-      <c r="D17">
+      <c r="D19">
         <v>10.8</v>
       </c>
-      <c r="E17">
+      <c r="E19">
         <f t="shared" si="0"/>
         <v>2.0250000000000004</v>
       </c>
-      <c r="F17">
+      <c r="F19">
         <v>-104.9</v>
       </c>
-      <c r="G17">
+      <c r="G19">
         <f t="shared" si="1"/>
         <v>0.23719159856480895</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>406</v>
-      </c>
-      <c r="B18" s="1">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>405</v>
+      </c>
+      <c r="B20" s="1">
         <f t="shared" si="7"/>
         <v>45943.219444444454</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C20" s="1">
         <f t="shared" si="8"/>
         <v>45943.30277777779</v>
       </c>
-      <c r="D18">
+      <c r="D20">
         <v>10.66</v>
       </c>
-      <c r="E18">
+      <c r="E20">
         <f t="shared" si="0"/>
         <v>1.9550000000000001</v>
       </c>
-      <c r="F18">
+      <c r="F20">
         <v>-131.4</v>
       </c>
-      <c r="G18">
+      <c r="G20">
         <f t="shared" si="1"/>
         <v>0.56570245793969465</v>
       </c>
-      <c r="H18">
+      <c r="H20">
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>407</v>
-      </c>
-      <c r="B19" s="1">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>406</v>
+      </c>
+      <c r="B21" s="1">
         <f t="shared" si="7"/>
         <v>45943.30277777779</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C21" s="1">
         <f t="shared" si="8"/>
         <v>45943.386111111126</v>
       </c>
-      <c r="D19">
+      <c r="D21">
         <v>10.83</v>
       </c>
-      <c r="E19">
+      <c r="E21">
         <f t="shared" si="0"/>
         <v>2.04</v>
       </c>
-      <c r="F19">
+      <c r="F21">
         <v>-136.69999999999999</v>
       </c>
-      <c r="G19">
+      <c r="G21">
         <f t="shared" si="1"/>
         <v>0.67310965250872823</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>408</v>
-      </c>
-      <c r="B20" s="1">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>407</v>
+      </c>
+      <c r="B22" s="1">
         <f t="shared" si="7"/>
         <v>45943.386111111126</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C22" s="1">
         <f t="shared" si="8"/>
         <v>45943.469444444461</v>
       </c>
-      <c r="D20">
+      <c r="D22">
         <v>10.88</v>
       </c>
-      <c r="E20">
+      <c r="E22">
         <f t="shared" si="0"/>
         <v>2.0650000000000004</v>
       </c>
-      <c r="F20">
+      <c r="F22">
         <v>-141.6</v>
       </c>
-      <c r="G20">
+      <c r="G22">
         <f t="shared" si="1"/>
         <v>0.79047042845623094</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>409</v>
-      </c>
-      <c r="B21" s="1">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>408</v>
+      </c>
+      <c r="B23" s="1">
         <f t="shared" si="7"/>
         <v>45943.469444444461</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C23" s="1">
         <f t="shared" si="8"/>
         <v>45943.552777777797</v>
       </c>
-      <c r="D21">
+      <c r="D23">
         <v>10.63</v>
       </c>
-      <c r="E21">
+      <c r="E23">
         <f t="shared" si="0"/>
         <v>1.9400000000000004</v>
       </c>
-      <c r="F21">
+      <c r="F23">
         <v>-143.80000000000001</v>
       </c>
-      <c r="G21">
+      <c r="G23">
         <f t="shared" si="1"/>
         <v>0.84961919846210943</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>410</v>
-      </c>
-      <c r="B22" s="1">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>409</v>
+      </c>
+      <c r="B24" s="1">
         <f t="shared" si="7"/>
         <v>45943.552777777797</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C24" s="1">
         <f t="shared" si="8"/>
         <v>45943.636111111133</v>
       </c>
-      <c r="D22">
+      <c r="D24">
         <v>9.5</v>
       </c>
-      <c r="E22">
+      <c r="E24">
         <f t="shared" si="0"/>
         <v>1.375</v>
       </c>
-      <c r="F22">
+      <c r="F24">
         <v>-145.80000000000001</v>
       </c>
-      <c r="G22">
+      <c r="G24">
         <f t="shared" si="1"/>
         <v>0.90722296544068992</v>
       </c>
-      <c r="H22">
+      <c r="H24">
         <v>0.86799999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>411</v>
-      </c>
-      <c r="B23" s="1">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>410</v>
+      </c>
+      <c r="B25" s="1">
         <f t="shared" si="7"/>
         <v>45943.636111111133</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C25" s="1">
         <f t="shared" si="8"/>
         <v>45943.719444444469</v>
       </c>
-      <c r="D23">
+      <c r="D25">
         <v>11.24</v>
       </c>
-      <c r="E23">
+      <c r="E25">
         <f t="shared" si="0"/>
         <v>2.2450000000000001</v>
       </c>
-      <c r="F23">
+      <c r="F25">
         <v>-145.69999999999999</v>
       </c>
-      <c r="G23">
+      <c r="G25">
         <f t="shared" si="1"/>
         <v>0.90425214891657868</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>412</v>
-      </c>
-      <c r="B24" s="1">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>411</v>
+      </c>
+      <c r="B26" s="1">
         <f t="shared" si="7"/>
         <v>45943.719444444469</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C26" s="1">
         <f t="shared" si="8"/>
         <v>45943.802777777804</v>
       </c>
-      <c r="D24">
+      <c r="D26">
         <v>10.76</v>
       </c>
-      <c r="E24">
+      <c r="E26">
         <f t="shared" si="0"/>
         <v>2.0049999999999999</v>
       </c>
-      <c r="F24">
+      <c r="F26">
         <v>-144.19999999999999</v>
       </c>
-      <c r="G24">
+      <c r="G26">
         <f t="shared" si="1"/>
         <v>0.86083964754023978</v>
       </c>
-      <c r="H24">
+      <c r="H26">
         <v>0.39200000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>413</v>
-      </c>
-      <c r="B25" s="1">
-        <f t="shared" si="7"/>
-        <v>45943.802777777804</v>
-      </c>
-      <c r="C25" s="1">
-        <f t="shared" si="8"/>
-        <v>45943.88611111114</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="1"/>
-        <v>7.6E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>414</v>
-      </c>
-      <c r="B26" s="1">
-        <v>45942.886111111111</v>
-      </c>
-      <c r="C26" s="1">
-        <f>B26+2/24</f>
-        <v>45942.969444444447</v>
-      </c>
-      <c r="D26">
-        <v>10.81</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="0"/>
-        <v>2.0300000000000002</v>
-      </c>
-      <c r="F26">
-        <v>-43.4</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="1"/>
-        <v>3.1552986610876278E-2</v>
-      </c>
-      <c r="H26">
-        <v>8.42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B27" s="1">
         <f>C26</f>
+        <v>45943.802777777804</v>
+      </c>
+      <c r="C27" s="1">
+        <f>DATE(2025,10,13)+19.5/24 +6/24</f>
+        <v>45944.0625</v>
+      </c>
+      <c r="D27">
+        <v>18.940000000000001</v>
+      </c>
+      <c r="E27">
+        <f>(D27-6.75)/6</f>
+        <v>2.0316666666666667</v>
+      </c>
+      <c r="F27">
+        <v>-145.1</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>0.88663043305075351</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>457</v>
+      </c>
+      <c r="B28" s="1">
+        <f>C27</f>
+        <v>45944.0625</v>
+      </c>
+      <c r="C28" s="1">
+        <f>B28+6/24</f>
+        <v>45944.3125</v>
+      </c>
+      <c r="D28">
+        <v>18.850000000000001</v>
+      </c>
+      <c r="E28">
+        <f>(D28-6.75)/6</f>
+        <v>2.0166666666666671</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>458</v>
+      </c>
+      <c r="B29" s="1">
+        <f>C28</f>
+        <v>45944.3125</v>
+      </c>
+      <c r="C29" s="1">
+        <f>B29+6/24</f>
+        <v>45944.5625</v>
+      </c>
+      <c r="D29">
+        <v>18.78</v>
+      </c>
+      <c r="E29">
+        <f>(D29-6.75)/6</f>
+        <v>2.0050000000000003</v>
+      </c>
+      <c r="H29">
+        <v>0.254</v>
+      </c>
+      <c r="I29">
+        <v>8.1</v>
+      </c>
+      <c r="J29">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>413</v>
+      </c>
+      <c r="B30" s="1">
+        <v>45942.886111111111</v>
+      </c>
+      <c r="C30" s="1">
+        <f>B30+2/24</f>
         <v>45942.969444444447</v>
       </c>
-      <c r="C27" s="1">
-        <f>B27+2/24</f>
+      <c r="D30">
+        <v>10.81</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>2.0300000000000002</v>
+      </c>
+      <c r="F30">
+        <v>-43.4</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>3.1552986610876278E-2</v>
+      </c>
+      <c r="H30">
+        <v>8.42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>414</v>
+      </c>
+      <c r="B31" s="1">
+        <f>C30</f>
+        <v>45942.969444444447</v>
+      </c>
+      <c r="C31" s="1">
+        <f>B31+2/24</f>
         <v>45943.052777777782</v>
       </c>
-      <c r="D27">
+      <c r="D31">
         <v>10.67</v>
       </c>
-      <c r="E27">
+      <c r="E31">
         <f t="shared" si="0"/>
         <v>1.96</v>
       </c>
-      <c r="F27">
+      <c r="F31">
         <v>-46.9</v>
       </c>
-      <c r="G27">
+      <c r="G31">
         <f t="shared" si="1"/>
         <v>3.5391378571216117E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>415</v>
+      </c>
+      <c r="B32" s="1">
+        <f t="shared" ref="B32:B40" si="9">C31</f>
+        <v>45943.052777777782</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" ref="C32:C40" si="10">B32+2/24</f>
+        <v>45943.136111111118</v>
+      </c>
+      <c r="D32">
+        <v>10.8</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>2.0250000000000004</v>
+      </c>
+      <c r="F32">
+        <v>-59.9</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>5.4210154716647078E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>416</v>
       </c>
-      <c r="B28" s="1">
-        <f t="shared" ref="B28:B37" si="9">C27</f>
-        <v>45943.052777777782</v>
-      </c>
-      <c r="C28" s="1">
-        <f t="shared" ref="C28:C37" si="10">B28+2/24</f>
-        <v>45943.136111111118</v>
-      </c>
-      <c r="D28">
-        <v>10.8</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="0"/>
-        <v>2.0250000000000004</v>
-      </c>
-      <c r="F28">
-        <v>-59.9</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="1"/>
-        <v>5.4210154716647078E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>417</v>
-      </c>
-      <c r="B29" s="1">
+      <c r="B33" s="1">
         <f t="shared" si="9"/>
         <v>45943.136111111118</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C33" s="1">
         <f t="shared" si="10"/>
         <v>45943.219444444454</v>
       </c>
-      <c r="D29">
+      <c r="D33">
         <v>10.83</v>
       </c>
-      <c r="E29">
+      <c r="E33">
         <f t="shared" si="0"/>
         <v>2.04</v>
       </c>
-      <c r="F29">
+      <c r="F33">
         <v>-107.7</v>
       </c>
-      <c r="G29">
+      <c r="G33">
         <f t="shared" si="1"/>
         <v>0.26000692032405337</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>418</v>
-      </c>
-      <c r="B30" s="1">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>417</v>
+      </c>
+      <c r="B34" s="1">
         <f t="shared" si="9"/>
         <v>45943.219444444454</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C34" s="1">
         <f t="shared" si="10"/>
         <v>45943.30277777779</v>
       </c>
-      <c r="D30">
+      <c r="D34">
         <v>10.78</v>
       </c>
-      <c r="E30">
+      <c r="E34">
         <f t="shared" si="0"/>
         <v>2.0149999999999997</v>
       </c>
-      <c r="F30">
+      <c r="F34">
         <v>-133.6</v>
       </c>
-      <c r="G30">
+      <c r="G34">
         <f t="shared" si="1"/>
         <v>0.60803244698404435</v>
       </c>
-      <c r="H30">
+      <c r="H34">
         <v>1.79</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>419</v>
-      </c>
-      <c r="B31" s="1">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>418</v>
+      </c>
+      <c r="B35" s="1">
         <f t="shared" si="9"/>
         <v>45943.30277777779</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C35" s="1">
         <f t="shared" si="10"/>
         <v>45943.386111111126</v>
       </c>
-      <c r="D31">
+      <c r="D35">
         <v>10.66</v>
       </c>
-      <c r="E31">
+      <c r="E35">
         <f t="shared" si="0"/>
         <v>1.9550000000000001</v>
       </c>
-      <c r="F31">
+      <c r="F35">
         <v>-139.1</v>
       </c>
-      <c r="G31">
+      <c r="G35">
         <f t="shared" si="1"/>
         <v>0.72823823991541325</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>420</v>
-      </c>
-      <c r="B32" s="1">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>419</v>
+      </c>
+      <c r="B36" s="1">
         <f t="shared" si="9"/>
         <v>45943.386111111126</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C36" s="1">
         <f t="shared" si="10"/>
         <v>45943.469444444461</v>
       </c>
-      <c r="D32">
+      <c r="D36">
         <v>10.83</v>
       </c>
-      <c r="E32">
+      <c r="E36">
         <f t="shared" si="0"/>
         <v>2.04</v>
       </c>
-      <c r="F32">
+      <c r="F36">
         <v>-141.6</v>
       </c>
-      <c r="G32">
+      <c r="G36">
         <f t="shared" si="1"/>
         <v>0.79047042845623094</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>421</v>
-      </c>
-      <c r="B33" s="1">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>420</v>
+      </c>
+      <c r="B37" s="1">
         <f t="shared" si="9"/>
         <v>45943.469444444461</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C37" s="1">
         <f t="shared" si="10"/>
         <v>45943.552777777797</v>
       </c>
-      <c r="D33">
+      <c r="D37">
         <v>10.67</v>
       </c>
-      <c r="E33">
+      <c r="E37">
         <f t="shared" si="0"/>
         <v>1.96</v>
       </c>
-      <c r="F33">
+      <c r="F37">
         <v>-144.1</v>
       </c>
-      <c r="G33">
+      <c r="G37">
         <f t="shared" si="1"/>
         <v>0.85802071906626864</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>422</v>
-      </c>
-      <c r="B34" s="1">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>421</v>
+      </c>
+      <c r="B38" s="1">
         <f t="shared" si="9"/>
         <v>45943.552777777797</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C38" s="1">
         <f t="shared" si="10"/>
         <v>45943.636111111133</v>
       </c>
-      <c r="D34">
+      <c r="D38">
         <v>10.7</v>
       </c>
-      <c r="E34">
+      <c r="E38">
         <f t="shared" si="0"/>
         <v>1.9749999999999996</v>
       </c>
-      <c r="F34">
+      <c r="F38">
         <v>-146.5</v>
       </c>
-      <c r="G34">
+      <c r="G38">
         <f t="shared" si="1"/>
         <v>0.92829377195073626</v>
       </c>
-      <c r="H34">
+      <c r="H38">
         <v>1.47</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>423</v>
-      </c>
-      <c r="B35" s="1">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>422</v>
+      </c>
+      <c r="B39" s="1">
         <f t="shared" si="9"/>
         <v>45943.636111111133</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C39" s="1">
         <f t="shared" si="10"/>
         <v>45943.719444444469</v>
       </c>
-      <c r="D35">
+      <c r="D39">
         <v>9.98</v>
       </c>
-      <c r="E35">
+      <c r="E39">
         <f t="shared" si="0"/>
         <v>1.6150000000000002</v>
       </c>
-      <c r="F35">
+      <c r="F39">
         <v>-146</v>
       </c>
-      <c r="G35">
+      <c r="G39">
         <f t="shared" si="1"/>
         <v>0.91319391138408179</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>424</v>
-      </c>
-      <c r="B36" s="1">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>423</v>
+      </c>
+      <c r="B40" s="1">
         <f t="shared" si="9"/>
         <v>45943.719444444469</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C40" s="1">
         <f t="shared" si="10"/>
         <v>45943.802777777804</v>
       </c>
-      <c r="D36">
+      <c r="D40">
         <v>10.95</v>
       </c>
-      <c r="E36">
+      <c r="E40">
         <f t="shared" si="0"/>
         <v>2.0999999999999996</v>
       </c>
-      <c r="F36">
+      <c r="F40">
         <v>-144.5</v>
       </c>
-      <c r="G36">
+      <c r="G40">
         <f t="shared" si="1"/>
         <v>0.86935212236281723</v>
       </c>
-      <c r="H36">
+      <c r="H40">
         <v>1.36</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>424</v>
+      </c>
+      <c r="B41" s="1">
+        <f>C40</f>
+        <v>45943.802777777804</v>
+      </c>
+      <c r="C41" s="1">
+        <f>DATE(2025,10,13)+19.5/24 +6/24</f>
+        <v>45944.0625</v>
+      </c>
+      <c r="D41">
+        <v>19.22</v>
+      </c>
+      <c r="E41">
+        <f>(D41-6.75)/6</f>
+        <v>2.0783333333333331</v>
+      </c>
+      <c r="F41">
+        <v>-146.19999999999999</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>0.91920415548990675</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>459</v>
+      </c>
+      <c r="B42" s="1">
+        <f>C41</f>
+        <v>45944.0625</v>
+      </c>
+      <c r="C42" s="1">
+        <f>B42+6/24</f>
+        <v>45944.3125</v>
+      </c>
+      <c r="D42">
+        <v>18.809999999999999</v>
+      </c>
+      <c r="E42">
+        <f>(D42-6.75)/6</f>
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>460</v>
+      </c>
+      <c r="B43" s="1">
+        <f>C42</f>
+        <v>45944.3125</v>
+      </c>
+      <c r="C43" s="1">
+        <f>B43+6/24</f>
+        <v>45944.5625</v>
+      </c>
+      <c r="D43">
+        <v>18.75</v>
+      </c>
+      <c r="E43">
+        <f>(D43-6.75)/6</f>
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <v>0.42</v>
+      </c>
+      <c r="I43">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="J43">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>425</v>
       </c>
-      <c r="B37" s="1">
-        <f t="shared" si="9"/>
-        <v>45943.802777777804</v>
-      </c>
-      <c r="C37" s="1">
-        <f t="shared" si="10"/>
-        <v>45943.88611111114</v>
-      </c>
-      <c r="G37">
+      <c r="B44" s="1">
+        <v>45942.886111111111</v>
+      </c>
+      <c r="C44" s="1">
+        <f>B44+2/24</f>
+        <v>45942.969444444447</v>
+      </c>
+      <c r="D44">
+        <v>10.64</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>1.9450000000000003</v>
+      </c>
+      <c r="G44">
         <f t="shared" si="1"/>
         <v>7.6E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>426</v>
       </c>
-      <c r="B38" s="1">
-        <v>45942.886111111111</v>
-      </c>
-      <c r="C38" s="1">
-        <f>B38+2/24</f>
+      <c r="B45" s="1">
+        <f>C44</f>
         <v>45942.969444444447</v>
       </c>
-      <c r="D38">
-        <v>10.64</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="0"/>
-        <v>1.9450000000000003</v>
-      </c>
-      <c r="G38">
+      <c r="C45" s="1">
+        <f>B45+2/24</f>
+        <v>45943.052777777782</v>
+      </c>
+      <c r="D45">
+        <v>10.68</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>1.9649999999999999</v>
+      </c>
+      <c r="G45">
         <f t="shared" si="1"/>
         <v>7.6E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>427</v>
       </c>
-      <c r="B39" s="1">
-        <f>C38</f>
-        <v>45942.969444444447</v>
-      </c>
-      <c r="C39" s="1">
-        <f>B39+2/24</f>
+      <c r="B46" s="1">
+        <f t="shared" ref="B46:B54" si="11">C45</f>
         <v>45943.052777777782</v>
       </c>
-      <c r="D39">
+      <c r="C46" s="1">
+        <f t="shared" ref="C46:C54" si="12">B46+2/24</f>
+        <v>45943.136111111118</v>
+      </c>
+      <c r="D46">
         <v>10.68</v>
       </c>
-      <c r="E39">
+      <c r="E46">
         <f t="shared" si="0"/>
         <v>1.9649999999999999</v>
       </c>
-      <c r="G39">
+      <c r="G46">
         <f t="shared" si="1"/>
         <v>7.6E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>428</v>
       </c>
-      <c r="B40" s="1">
-        <f t="shared" ref="B40:B49" si="11">C39</f>
-        <v>45943.052777777782</v>
-      </c>
-      <c r="C40" s="1">
-        <f t="shared" ref="C40:C49" si="12">B40+2/24</f>
-        <v>45943.136111111118</v>
-      </c>
-      <c r="D40">
-        <v>10.68</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="0"/>
-        <v>1.9649999999999999</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="1"/>
-        <v>7.6E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>429</v>
-      </c>
-      <c r="B41" s="1">
+      <c r="B47" s="1">
         <f t="shared" si="11"/>
         <v>45943.136111111118</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C47" s="1">
         <f t="shared" si="12"/>
         <v>45943.219444444454</v>
       </c>
-      <c r="D41">
+      <c r="D47">
         <v>10.76</v>
       </c>
-      <c r="E41">
+      <c r="E47">
         <f t="shared" si="0"/>
         <v>2.0049999999999999</v>
       </c>
-      <c r="G41">
+      <c r="G47">
         <f t="shared" si="1"/>
         <v>7.6E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>430</v>
-      </c>
-      <c r="B42" s="1">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>429</v>
+      </c>
+      <c r="B48" s="1">
         <f t="shared" si="11"/>
         <v>45943.219444444454</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C48" s="1">
         <f t="shared" si="12"/>
         <v>45943.30277777779</v>
       </c>
-      <c r="D42">
+      <c r="D48">
         <v>10.67</v>
       </c>
-      <c r="E42">
+      <c r="E48">
         <f t="shared" si="0"/>
         <v>1.96</v>
       </c>
-      <c r="G42">
+      <c r="G48">
         <f t="shared" si="1"/>
         <v>7.6E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>431</v>
-      </c>
-      <c r="B43" s="1">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>430</v>
+      </c>
+      <c r="B49" s="1">
         <f t="shared" si="11"/>
         <v>45943.30277777779</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C49" s="1">
         <f t="shared" si="12"/>
         <v>45943.386111111126</v>
       </c>
-      <c r="D43">
+      <c r="D49">
         <v>10.66</v>
       </c>
-      <c r="E43">
+      <c r="E49">
         <f t="shared" si="0"/>
         <v>1.9550000000000001</v>
       </c>
-      <c r="G43">
+      <c r="G49">
         <f t="shared" si="1"/>
         <v>7.6E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>432</v>
-      </c>
-      <c r="B44" s="1">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>431</v>
+      </c>
+      <c r="B50" s="1">
         <f t="shared" si="11"/>
         <v>45943.386111111126</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C50" s="1">
         <f t="shared" si="12"/>
         <v>45943.469444444461</v>
       </c>
-      <c r="D44">
+      <c r="D50">
         <v>10.73</v>
       </c>
-      <c r="E44">
+      <c r="E50">
         <f t="shared" si="0"/>
         <v>1.9900000000000002</v>
       </c>
-      <c r="G44">
+      <c r="G50">
         <f t="shared" si="1"/>
         <v>7.6E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>433</v>
-      </c>
-      <c r="B45" s="1">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>432</v>
+      </c>
+      <c r="B51" s="1">
         <f t="shared" si="11"/>
         <v>45943.469444444461</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C51" s="1">
         <f t="shared" si="12"/>
         <v>45943.552777777797</v>
       </c>
-      <c r="D45">
+      <c r="D51">
         <v>10.64</v>
       </c>
-      <c r="E45">
+      <c r="E51">
         <f t="shared" si="0"/>
         <v>1.9450000000000003</v>
       </c>
-      <c r="G45">
+      <c r="G51">
         <f t="shared" si="1"/>
         <v>7.6E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>434</v>
-      </c>
-      <c r="B46" s="1">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>433</v>
+      </c>
+      <c r="B52" s="1">
         <f t="shared" si="11"/>
         <v>45943.552777777797</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C52" s="1">
         <f t="shared" si="12"/>
         <v>45943.636111111133</v>
       </c>
-      <c r="D46">
+      <c r="D52">
         <v>10.71</v>
       </c>
-      <c r="E46">
+      <c r="E52">
         <f t="shared" si="0"/>
         <v>1.9800000000000004</v>
       </c>
-      <c r="G46">
+      <c r="G52">
         <f t="shared" si="1"/>
         <v>7.6E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>435</v>
-      </c>
-      <c r="B47" s="1">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>434</v>
+      </c>
+      <c r="B53" s="1">
         <f t="shared" si="11"/>
         <v>45943.636111111133</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C53" s="1">
         <f t="shared" si="12"/>
         <v>45943.719444444469</v>
       </c>
-      <c r="D47">
+      <c r="D53">
         <v>10.69</v>
       </c>
-      <c r="E47">
+      <c r="E53">
         <f t="shared" si="0"/>
         <v>1.9699999999999998</v>
       </c>
-      <c r="G47">
+      <c r="G53">
         <f t="shared" si="1"/>
         <v>7.6E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>436</v>
-      </c>
-      <c r="B48" s="1">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>435</v>
+      </c>
+      <c r="B54" s="1">
         <f t="shared" si="11"/>
         <v>45943.719444444469</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C54" s="1">
         <f t="shared" si="12"/>
         <v>45943.802777777804</v>
       </c>
-      <c r="D48">
+      <c r="D54">
         <v>10.66</v>
       </c>
-      <c r="E48">
+      <c r="E54">
         <f t="shared" si="0"/>
         <v>1.9550000000000001</v>
       </c>
-      <c r="G48">
+      <c r="G54">
         <f t="shared" si="1"/>
         <v>7.6E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>437</v>
-      </c>
-      <c r="B49" s="1">
-        <f t="shared" si="11"/>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>436</v>
+      </c>
+      <c r="B55" s="1">
+        <f>C54</f>
         <v>45943.802777777804</v>
       </c>
-      <c r="C49" s="1">
-        <f t="shared" si="12"/>
-        <v>45943.88611111114</v>
-      </c>
-      <c r="G49">
+      <c r="C55" s="1">
+        <f>DATE(2025,10,13)+19.5/24 +6/24</f>
+        <v>45944.0625</v>
+      </c>
+      <c r="D55">
+        <v>18.96</v>
+      </c>
+      <c r="E55">
+        <f>(D55-6.75)/6</f>
+        <v>2.0350000000000001</v>
+      </c>
+      <c r="G55">
         <f t="shared" si="1"/>
         <v>7.6E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>461</v>
+      </c>
+      <c r="B56" s="1">
+        <f>C55</f>
+        <v>45944.0625</v>
+      </c>
+      <c r="C56" s="1">
+        <f>B56+6/24</f>
+        <v>45944.3125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>462</v>
+      </c>
+      <c r="B57" s="1">
+        <f>C56</f>
+        <v>45944.3125</v>
+      </c>
+      <c r="C57" s="1">
+        <f>B57+6/24</f>
+        <v>45944.5625</v>
+      </c>
+      <c r="D57">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="E57">
+        <f>(D57-6.75)/6</f>
+        <v>1.968333333333333</v>
+      </c>
+      <c r="I57">
+        <v>7.87</v>
+      </c>
+      <c r="J57">
+        <v>605</v>
       </c>
     </row>
   </sheetData>
@@ -14447,6 +15991,1657 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B29AE47-36C1-4E4A-B6A1-36A1EEEF94CD}">
+  <dimension ref="A1:AB61"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8" customWidth="1"/>
+    <col min="26" max="26" width="10.33203125" customWidth="1"/>
+    <col min="27" max="27" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1" t="s">
+        <v>386</v>
+      </c>
+      <c r="H1" t="s">
+        <v>387</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>166</v>
+      </c>
+      <c r="L1" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R1" t="s">
+        <v>168</v>
+      </c>
+      <c r="W1" t="s">
+        <v>441</v>
+      </c>
+      <c r="X1" t="s">
+        <v>440</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>442</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>443</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>444</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45942.886111111111</v>
+      </c>
+      <c r="C2" s="1">
+        <f>B2+2/24</f>
+        <v>45942.969444444447</v>
+      </c>
+      <c r="D2">
+        <v>10.65</v>
+      </c>
+      <c r="E2">
+        <f>(D2-6.75)/2</f>
+        <v>1.9500000000000002</v>
+      </c>
+      <c r="H2">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="Q2">
+        <v>2</v>
+      </c>
+      <c r="R2">
+        <v>-161.30000000000001</v>
+      </c>
+      <c r="S2">
+        <f>-1*R2</f>
+        <v>161.30000000000001</v>
+      </c>
+      <c r="W2">
+        <v>10</v>
+      </c>
+      <c r="X2">
+        <v>50</v>
+      </c>
+      <c r="Y2">
+        <f>Z2*W2*X2/1000</f>
+        <v>51.445000000000007</v>
+      </c>
+      <c r="Z2">
+        <v>102.89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>390</v>
+      </c>
+      <c r="B3" s="1">
+        <f>C2</f>
+        <v>45942.969444444447</v>
+      </c>
+      <c r="C3" s="1">
+        <f>B3+2/24</f>
+        <v>45943.052777777782</v>
+      </c>
+      <c r="D3">
+        <v>10.55</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E57" si="0">(D3-6.75)/2</f>
+        <v>1.9000000000000004</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>-143.6</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S8" si="1">-1*R3</f>
+        <v>143.6</v>
+      </c>
+      <c r="W3">
+        <v>2</v>
+      </c>
+      <c r="X3">
+        <v>8</v>
+      </c>
+      <c r="AA3">
+        <f>W3/W2*X3</f>
+        <v>1.6</v>
+      </c>
+      <c r="AB3">
+        <f>X3-AA3</f>
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B4" s="1">
+        <f t="shared" ref="B4:B12" si="2">C3</f>
+        <v>45943.052777777782</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" ref="C4:C12" si="3">B4+2/24</f>
+        <v>45943.136111111118</v>
+      </c>
+      <c r="D4">
+        <v>10.56</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1.9050000000000002</v>
+      </c>
+      <c r="F4">
+        <v>-53</v>
+      </c>
+      <c r="G4">
+        <f>0.0074*EXP(0.0341*-F4)</f>
+        <v>4.5095388927673813E-2</v>
+      </c>
+      <c r="Q4">
+        <v>0.5</v>
+      </c>
+      <c r="R4">
+        <v>-125.2</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="1"/>
+        <v>125.2</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>8</v>
+      </c>
+      <c r="AA4">
+        <f>W4/$W$2*X4</f>
+        <v>0.8</v>
+      </c>
+      <c r="AB4">
+        <f>X4-AA4</f>
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" si="2"/>
+        <v>45943.136111111118</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="3"/>
+        <v>45943.219444444454</v>
+      </c>
+      <c r="D5">
+        <v>10.64</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1.9450000000000003</v>
+      </c>
+      <c r="F5">
+        <v>-76.400000000000006</v>
+      </c>
+      <c r="G5">
+        <f>0.0074*EXP(0.0341*-F5)</f>
+        <v>0.10015510158047575</v>
+      </c>
+      <c r="Q5">
+        <v>0.25</v>
+      </c>
+      <c r="R5">
+        <v>-106.5</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="1"/>
+        <v>106.5</v>
+      </c>
+      <c r="W5">
+        <v>0.5</v>
+      </c>
+      <c r="X5">
+        <v>8</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" ref="AA5:AA7" si="4">W5/$W$2*X5</f>
+        <v>0.4</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" ref="AB5:AB7" si="5">X5-AA5</f>
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>393</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" si="2"/>
+        <v>45943.219444444454</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="3"/>
+        <v>45943.30277777779</v>
+      </c>
+      <c r="D6">
+        <v>10.61</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>1.9299999999999997</v>
+      </c>
+      <c r="F6">
+        <v>-121.3</v>
+      </c>
+      <c r="G6">
+        <f>0.0074*EXP(0.0341*-F6)</f>
+        <v>0.46303840564813892</v>
+      </c>
+      <c r="H6">
+        <v>4.49</v>
+      </c>
+      <c r="Q6">
+        <v>0.1</v>
+      </c>
+      <c r="R6">
+        <v>-47.1</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="1"/>
+        <v>47.1</v>
+      </c>
+      <c r="W6">
+        <v>0.25</v>
+      </c>
+      <c r="X6">
+        <v>8</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="5"/>
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>394</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="2"/>
+        <v>45943.30277777779</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="3"/>
+        <v>45943.386111111126</v>
+      </c>
+      <c r="D7">
+        <v>10.57</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1.9100000000000001</v>
+      </c>
+      <c r="Q7">
+        <v>0.05</v>
+      </c>
+      <c r="R7">
+        <v>-45.8</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="1"/>
+        <v>45.8</v>
+      </c>
+      <c r="W7">
+        <v>0.1</v>
+      </c>
+      <c r="X7">
+        <v>4</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="5"/>
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>395</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="2"/>
+        <v>45943.386111111126</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="3"/>
+        <v>45943.469444444461</v>
+      </c>
+      <c r="D8">
+        <v>10.63</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>1.9400000000000004</v>
+      </c>
+      <c r="F8">
+        <v>-140.4</v>
+      </c>
+      <c r="G8">
+        <f>0.0074*EXP(0.0341*-F8)</f>
+        <v>0.88813166216923523</v>
+      </c>
+      <c r="Q8">
+        <v>0.01</v>
+      </c>
+      <c r="R8">
+        <v>-44.8</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="1"/>
+        <v>44.8</v>
+      </c>
+      <c r="AA8">
+        <f>SUM(AA3:AA7)</f>
+        <v>3.0400000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>396</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="2"/>
+        <v>45943.469444444461</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="3"/>
+        <v>45943.552777777797</v>
+      </c>
+      <c r="D9">
+        <v>10.57</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>1.9100000000000001</v>
+      </c>
+      <c r="F9">
+        <v>-143.5</v>
+      </c>
+      <c r="G9">
+        <f>0.0074*EXP(0.0341*-F9)</f>
+        <v>0.98715789391462605</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>397</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="2"/>
+        <v>45943.552777777797</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="3"/>
+        <v>45943.636111111133</v>
+      </c>
+      <c r="D10">
+        <v>10.58</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>1.915</v>
+      </c>
+      <c r="F10">
+        <v>-144</v>
+      </c>
+      <c r="G10">
+        <f>0.0074*EXP(0.0341*-F10)</f>
+        <v>1.0041332395985327</v>
+      </c>
+      <c r="H10">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>398</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="2"/>
+        <v>45943.636111111133</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="3"/>
+        <v>45943.719444444469</v>
+      </c>
+      <c r="D11">
+        <v>10.71</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>1.9800000000000004</v>
+      </c>
+      <c r="F11">
+        <v>-144.5</v>
+      </c>
+      <c r="G11">
+        <f>0.0074*EXP(0.0341*-F11)</f>
+        <v>1.0214004963970273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>399</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="2"/>
+        <v>45943.719444444469</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="3"/>
+        <v>45943.802777777804</v>
+      </c>
+      <c r="D12">
+        <v>10.54</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>1.8949999999999996</v>
+      </c>
+      <c r="H12">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>400</v>
+      </c>
+      <c r="B13" s="1">
+        <f>C12</f>
+        <v>45943.802777777804</v>
+      </c>
+      <c r="C13" s="1">
+        <f>DATE(2025,10,13)+19.5/24 +6/24</f>
+        <v>45944.0625</v>
+      </c>
+      <c r="D13">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="E13">
+        <f>(D13-6.75)/6</f>
+        <v>1.8583333333333332</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>455</v>
+      </c>
+      <c r="B14" s="1">
+        <f>C13</f>
+        <v>45944.0625</v>
+      </c>
+      <c r="C14" s="1">
+        <f>B14+6/24</f>
+        <v>45944.3125</v>
+      </c>
+      <c r="D14">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="E14">
+        <f>(D14-6.75)/6</f>
+        <v>1.8999999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>456</v>
+      </c>
+      <c r="B15" s="1">
+        <f>C14</f>
+        <v>45944.3125</v>
+      </c>
+      <c r="C15" s="1">
+        <f>B15+6/24</f>
+        <v>45944.5625</v>
+      </c>
+      <c r="D15">
+        <v>18.2</v>
+      </c>
+      <c r="E15">
+        <f>(D15-6.75)/6</f>
+        <v>1.9083333333333332</v>
+      </c>
+      <c r="H15">
+        <v>0.871</v>
+      </c>
+      <c r="I15">
+        <v>8</v>
+      </c>
+      <c r="J15">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>463</v>
+      </c>
+      <c r="B16" s="1">
+        <v>45945.440972222219</v>
+      </c>
+      <c r="C16" s="1">
+        <v>45945.600694444445</v>
+      </c>
+      <c r="D16">
+        <v>14.33</v>
+      </c>
+      <c r="E16">
+        <f>(D16-6.75)/4</f>
+        <v>1.895</v>
+      </c>
+      <c r="H16">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>401</v>
+      </c>
+      <c r="B17" s="1">
+        <v>45942.886111111111</v>
+      </c>
+      <c r="C17" s="1">
+        <f>B17+2/24</f>
+        <v>45942.969444444447</v>
+      </c>
+      <c r="D17">
+        <v>10.67</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>1.96</v>
+      </c>
+      <c r="H17">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>402</v>
+      </c>
+      <c r="B18" s="1">
+        <f>C17</f>
+        <v>45942.969444444447</v>
+      </c>
+      <c r="C18" s="1">
+        <f>B18+2/24</f>
+        <v>45943.052777777782</v>
+      </c>
+      <c r="D18">
+        <v>11.05</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>2.1500000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>403</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" ref="B19:B27" si="6">C18</f>
+        <v>45943.052777777782</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" ref="C19:C27" si="7">B19+2/24</f>
+        <v>45943.136111111118</v>
+      </c>
+      <c r="D19">
+        <v>10.63</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>1.9400000000000004</v>
+      </c>
+      <c r="F19">
+        <v>-75.400000000000006</v>
+      </c>
+      <c r="G19">
+        <f>0.0074*EXP(0.0341*-F19)</f>
+        <v>9.6797387009058794E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>404</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" si="6"/>
+        <v>45943.136111111118</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="7"/>
+        <v>45943.219444444454</v>
+      </c>
+      <c r="D20">
+        <v>10.8</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>2.0250000000000004</v>
+      </c>
+      <c r="F20">
+        <v>-107.8</v>
+      </c>
+      <c r="G20">
+        <f>0.0074*EXP(0.0341*-F20)</f>
+        <v>0.29220628262862869</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>405</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" si="6"/>
+        <v>45943.219444444454</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="7"/>
+        <v>45943.30277777779</v>
+      </c>
+      <c r="D21">
+        <v>10.66</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>1.9550000000000001</v>
+      </c>
+      <c r="F21">
+        <v>-127</v>
+      </c>
+      <c r="G21">
+        <f>0.0074*EXP(0.0341*-F21)</f>
+        <v>0.56238124973553894</v>
+      </c>
+      <c r="H21">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>406</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" si="6"/>
+        <v>45943.30277777779</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="7"/>
+        <v>45943.386111111126</v>
+      </c>
+      <c r="D22">
+        <v>10.83</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>407</v>
+      </c>
+      <c r="B23" s="1">
+        <f t="shared" si="6"/>
+        <v>45943.386111111126</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" si="7"/>
+        <v>45943.469444444461</v>
+      </c>
+      <c r="D23">
+        <v>10.88</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>2.0650000000000004</v>
+      </c>
+      <c r="F23">
+        <v>-140.6</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ref="G23:G24" si="8">0.0074*EXP(0.0341*-F23)</f>
+        <v>0.89420942170767537</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>408</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" si="6"/>
+        <v>45943.469444444461</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" si="7"/>
+        <v>45943.552777777797</v>
+      </c>
+      <c r="D24">
+        <v>10.63</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>1.9400000000000004</v>
+      </c>
+      <c r="F24">
+        <v>-146.69999999999999</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="8"/>
+        <v>1.1009734260203785</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>409</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" si="6"/>
+        <v>45943.552777777797</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="7"/>
+        <v>45943.636111111133</v>
+      </c>
+      <c r="D25">
+        <v>9.5</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>1.375</v>
+      </c>
+      <c r="H25">
+        <v>0.86799999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>410</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" si="6"/>
+        <v>45943.636111111133</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="7"/>
+        <v>45943.719444444469</v>
+      </c>
+      <c r="D26">
+        <v>11.24</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>2.2450000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>411</v>
+      </c>
+      <c r="B27" s="1">
+        <f t="shared" si="6"/>
+        <v>45943.719444444469</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="7"/>
+        <v>45943.802777777804</v>
+      </c>
+      <c r="D27">
+        <v>10.76</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>2.0049999999999999</v>
+      </c>
+      <c r="F27">
+        <v>-143.6</v>
+      </c>
+      <c r="G27">
+        <f>0.0074*EXP(0.0341*-F27)</f>
+        <v>0.99052984824756096</v>
+      </c>
+      <c r="H27">
+        <v>0.39200000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>412</v>
+      </c>
+      <c r="B28" s="1">
+        <f>C27</f>
+        <v>45943.802777777804</v>
+      </c>
+      <c r="C28" s="1">
+        <f>DATE(2025,10,13)+19.5/24 +6/24</f>
+        <v>45944.0625</v>
+      </c>
+      <c r="D28">
+        <v>18.940000000000001</v>
+      </c>
+      <c r="E28">
+        <f>(D28-6.75)/6</f>
+        <v>2.0316666666666667</v>
+      </c>
+      <c r="F28">
+        <v>-144.6</v>
+      </c>
+      <c r="G28">
+        <f>0.0074*EXP(0.0341*-F28)</f>
+        <v>1.0248894173191203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>457</v>
+      </c>
+      <c r="B29" s="1">
+        <f>C28</f>
+        <v>45944.0625</v>
+      </c>
+      <c r="C29" s="1">
+        <f>B29+6/24</f>
+        <v>45944.3125</v>
+      </c>
+      <c r="D29">
+        <v>18.850000000000001</v>
+      </c>
+      <c r="E29">
+        <f>(D29-6.75)/6</f>
+        <v>2.0166666666666671</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>458</v>
+      </c>
+      <c r="B30" s="1">
+        <f>C29</f>
+        <v>45944.3125</v>
+      </c>
+      <c r="C30" s="1">
+        <f>B30+6/24</f>
+        <v>45944.5625</v>
+      </c>
+      <c r="D30">
+        <v>18.78</v>
+      </c>
+      <c r="E30">
+        <f>(D30-6.75)/6</f>
+        <v>2.0050000000000003</v>
+      </c>
+      <c r="H30">
+        <v>0.254</v>
+      </c>
+      <c r="I30">
+        <v>8.1</v>
+      </c>
+      <c r="J30">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>464</v>
+      </c>
+      <c r="B31" s="1">
+        <v>45945.440972222219</v>
+      </c>
+      <c r="C31" s="1">
+        <v>45945.600694444445</v>
+      </c>
+      <c r="D31">
+        <v>14.7</v>
+      </c>
+      <c r="E31">
+        <f>(D31-6.75)/4</f>
+        <v>1.9874999999999998</v>
+      </c>
+      <c r="H31">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>413</v>
+      </c>
+      <c r="B32" s="1">
+        <v>45942.886111111111</v>
+      </c>
+      <c r="C32" s="1">
+        <f>B32+2/24</f>
+        <v>45942.969444444447</v>
+      </c>
+      <c r="D32">
+        <v>10.81</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>2.0300000000000002</v>
+      </c>
+      <c r="H32">
+        <v>8.42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>414</v>
+      </c>
+      <c r="B33" s="1">
+        <f>C32</f>
+        <v>45942.969444444447</v>
+      </c>
+      <c r="C33" s="1">
+        <f>B33+2/24</f>
+        <v>45943.052777777782</v>
+      </c>
+      <c r="D33">
+        <v>10.67</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>415</v>
+      </c>
+      <c r="B34" s="1">
+        <f t="shared" ref="B34:B42" si="9">C33</f>
+        <v>45943.052777777782</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" ref="C34:C42" si="10">B34+2/24</f>
+        <v>45943.136111111118</v>
+      </c>
+      <c r="D34">
+        <v>10.8</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>2.0250000000000004</v>
+      </c>
+      <c r="F34">
+        <v>-67.5</v>
+      </c>
+      <c r="G34">
+        <f>0.0074*EXP(0.0341*-F34)</f>
+        <v>7.393822891433087E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>416</v>
+      </c>
+      <c r="B35" s="1">
+        <f t="shared" si="9"/>
+        <v>45943.136111111118</v>
+      </c>
+      <c r="C35" s="1">
+        <f t="shared" si="10"/>
+        <v>45943.219444444454</v>
+      </c>
+      <c r="D35">
+        <v>10.83</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>2.04</v>
+      </c>
+      <c r="F35">
+        <v>-108.5</v>
+      </c>
+      <c r="G35">
+        <f>0.0074*EXP(0.0341*-F35)</f>
+        <v>0.29926515912372864</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>417</v>
+      </c>
+      <c r="B36" s="1">
+        <f t="shared" si="9"/>
+        <v>45943.219444444454</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" si="10"/>
+        <v>45943.30277777779</v>
+      </c>
+      <c r="D36">
+        <v>10.78</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>2.0149999999999997</v>
+      </c>
+      <c r="F36">
+        <v>-131.30000000000001</v>
+      </c>
+      <c r="G36">
+        <f>0.0074*EXP(0.0341*-F36)</f>
+        <v>0.65119556242691201</v>
+      </c>
+      <c r="H36">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>418</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="9"/>
+        <v>45943.30277777779</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="10"/>
+        <v>45943.386111111126</v>
+      </c>
+      <c r="D37">
+        <v>10.66</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>1.9550000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>419</v>
+      </c>
+      <c r="B38" s="1">
+        <f t="shared" si="9"/>
+        <v>45943.386111111126</v>
+      </c>
+      <c r="C38" s="1">
+        <f t="shared" si="10"/>
+        <v>45943.469444444461</v>
+      </c>
+      <c r="D38">
+        <v>10.83</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>2.04</v>
+      </c>
+      <c r="F38">
+        <v>-141.30000000000001</v>
+      </c>
+      <c r="G38">
+        <f>0.0074*EXP(0.0341*-F38)</f>
+        <v>0.91581098965415086</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>420</v>
+      </c>
+      <c r="B39" s="1">
+        <f t="shared" si="9"/>
+        <v>45943.469444444461</v>
+      </c>
+      <c r="C39" s="1">
+        <f t="shared" si="10"/>
+        <v>45943.552777777797</v>
+      </c>
+      <c r="D39">
+        <v>10.67</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>1.96</v>
+      </c>
+      <c r="F39">
+        <v>-142.80000000000001</v>
+      </c>
+      <c r="G39">
+        <f>0.0074*EXP(0.0341*-F39)</f>
+        <v>0.96387344050645218</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>421</v>
+      </c>
+      <c r="B40" s="1">
+        <f t="shared" si="9"/>
+        <v>45943.552777777797</v>
+      </c>
+      <c r="C40" s="1">
+        <f t="shared" si="10"/>
+        <v>45943.636111111133</v>
+      </c>
+      <c r="D40">
+        <v>10.7</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>1.9749999999999996</v>
+      </c>
+      <c r="H40">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>422</v>
+      </c>
+      <c r="B41" s="1">
+        <f t="shared" si="9"/>
+        <v>45943.636111111133</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" si="10"/>
+        <v>45943.719444444469</v>
+      </c>
+      <c r="D41">
+        <v>9.98</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>1.6150000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>423</v>
+      </c>
+      <c r="B42" s="1">
+        <f t="shared" si="9"/>
+        <v>45943.719444444469</v>
+      </c>
+      <c r="C42" s="1">
+        <f t="shared" si="10"/>
+        <v>45943.802777777804</v>
+      </c>
+      <c r="D42">
+        <v>10.95</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>2.0999999999999996</v>
+      </c>
+      <c r="F42">
+        <v>-144</v>
+      </c>
+      <c r="G42">
+        <f>0.0074*EXP(0.0341*-F42)</f>
+        <v>1.0041332395985327</v>
+      </c>
+      <c r="H42">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>424</v>
+      </c>
+      <c r="B43" s="1">
+        <f>C42</f>
+        <v>45943.802777777804</v>
+      </c>
+      <c r="C43" s="1">
+        <f>DATE(2025,10,13)+19.5/24 +6/24</f>
+        <v>45944.0625</v>
+      </c>
+      <c r="D43">
+        <v>19.22</v>
+      </c>
+      <c r="E43">
+        <f>(D43-6.75)/6</f>
+        <v>2.0783333333333331</v>
+      </c>
+      <c r="F43">
+        <v>-144.4</v>
+      </c>
+      <c r="G43">
+        <f>0.0074*EXP(0.0341*-F43)</f>
+        <v>1.0179234524335554</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>459</v>
+      </c>
+      <c r="B44" s="1">
+        <f>C43</f>
+        <v>45944.0625</v>
+      </c>
+      <c r="C44" s="1">
+        <f>B44+6/24</f>
+        <v>45944.3125</v>
+      </c>
+      <c r="D44">
+        <v>18.809999999999999</v>
+      </c>
+      <c r="E44">
+        <f>(D44-6.75)/6</f>
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>460</v>
+      </c>
+      <c r="B45" s="1">
+        <f>C44</f>
+        <v>45944.3125</v>
+      </c>
+      <c r="C45" s="1">
+        <f>B45+6/24</f>
+        <v>45944.5625</v>
+      </c>
+      <c r="D45">
+        <v>18.75</v>
+      </c>
+      <c r="E45">
+        <f>(D45-6.75)/6</f>
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <v>0.42</v>
+      </c>
+      <c r="I45">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="J45">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>465</v>
+      </c>
+      <c r="B46" s="1">
+        <v>45945.440972222219</v>
+      </c>
+      <c r="C46" s="1">
+        <v>45945.600694444445</v>
+      </c>
+      <c r="D46">
+        <v>14.48</v>
+      </c>
+      <c r="E46">
+        <f>(D46-6.75)/4</f>
+        <v>1.9325000000000001</v>
+      </c>
+      <c r="H46">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>425</v>
+      </c>
+      <c r="B47" s="1">
+        <v>45942.886111111111</v>
+      </c>
+      <c r="C47" s="1">
+        <f>B47+2/24</f>
+        <v>45942.969444444447</v>
+      </c>
+      <c r="D47">
+        <v>10.64</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>1.9450000000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>426</v>
+      </c>
+      <c r="B48" s="1">
+        <f>C47</f>
+        <v>45942.969444444447</v>
+      </c>
+      <c r="C48" s="1">
+        <f>B48+2/24</f>
+        <v>45943.052777777782</v>
+      </c>
+      <c r="D48">
+        <v>10.68</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>1.9649999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>427</v>
+      </c>
+      <c r="B49" s="1">
+        <f t="shared" ref="B49:B57" si="11">C48</f>
+        <v>45943.052777777782</v>
+      </c>
+      <c r="C49" s="1">
+        <f t="shared" ref="C49:C57" si="12">B49+2/24</f>
+        <v>45943.136111111118</v>
+      </c>
+      <c r="D49">
+        <v>10.68</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>1.9649999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>428</v>
+      </c>
+      <c r="B50" s="1">
+        <f t="shared" si="11"/>
+        <v>45943.136111111118</v>
+      </c>
+      <c r="C50" s="1">
+        <f t="shared" si="12"/>
+        <v>45943.219444444454</v>
+      </c>
+      <c r="D50">
+        <v>10.76</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>2.0049999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>429</v>
+      </c>
+      <c r="B51" s="1">
+        <f t="shared" si="11"/>
+        <v>45943.219444444454</v>
+      </c>
+      <c r="C51" s="1">
+        <f t="shared" si="12"/>
+        <v>45943.30277777779</v>
+      </c>
+      <c r="D51">
+        <v>10.67</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>430</v>
+      </c>
+      <c r="B52" s="1">
+        <f t="shared" si="11"/>
+        <v>45943.30277777779</v>
+      </c>
+      <c r="C52" s="1">
+        <f t="shared" si="12"/>
+        <v>45943.386111111126</v>
+      </c>
+      <c r="D52">
+        <v>10.66</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>1.9550000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>431</v>
+      </c>
+      <c r="B53" s="1">
+        <f t="shared" si="11"/>
+        <v>45943.386111111126</v>
+      </c>
+      <c r="C53" s="1">
+        <f t="shared" si="12"/>
+        <v>45943.469444444461</v>
+      </c>
+      <c r="D53">
+        <v>10.73</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>1.9900000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>432</v>
+      </c>
+      <c r="B54" s="1">
+        <f t="shared" si="11"/>
+        <v>45943.469444444461</v>
+      </c>
+      <c r="C54" s="1">
+        <f t="shared" si="12"/>
+        <v>45943.552777777797</v>
+      </c>
+      <c r="D54">
+        <v>10.64</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>1.9450000000000003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>433</v>
+      </c>
+      <c r="B55" s="1">
+        <f t="shared" si="11"/>
+        <v>45943.552777777797</v>
+      </c>
+      <c r="C55" s="1">
+        <f t="shared" si="12"/>
+        <v>45943.636111111133</v>
+      </c>
+      <c r="D55">
+        <v>10.71</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>1.9800000000000004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>434</v>
+      </c>
+      <c r="B56" s="1">
+        <f t="shared" si="11"/>
+        <v>45943.636111111133</v>
+      </c>
+      <c r="C56" s="1">
+        <f t="shared" si="12"/>
+        <v>45943.719444444469</v>
+      </c>
+      <c r="D56">
+        <v>10.69</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>1.9699999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>435</v>
+      </c>
+      <c r="B57" s="1">
+        <f t="shared" si="11"/>
+        <v>45943.719444444469</v>
+      </c>
+      <c r="C57" s="1">
+        <f t="shared" si="12"/>
+        <v>45943.802777777804</v>
+      </c>
+      <c r="D57">
+        <v>10.66</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>1.9550000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>436</v>
+      </c>
+      <c r="B58" s="1">
+        <f>C57</f>
+        <v>45943.802777777804</v>
+      </c>
+      <c r="C58" s="1">
+        <f>DATE(2025,10,13)+19.5/24 +6/24</f>
+        <v>45944.0625</v>
+      </c>
+      <c r="D58">
+        <v>18.96</v>
+      </c>
+      <c r="E58">
+        <f>(D58-6.75)/6</f>
+        <v>2.0350000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>461</v>
+      </c>
+      <c r="B59" s="1">
+        <f>C58</f>
+        <v>45944.0625</v>
+      </c>
+      <c r="C59" s="1">
+        <f>B59+6/24</f>
+        <v>45944.3125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>462</v>
+      </c>
+      <c r="B60" s="1">
+        <f>C59</f>
+        <v>45944.3125</v>
+      </c>
+      <c r="C60" s="1">
+        <f>B60+6/24</f>
+        <v>45944.5625</v>
+      </c>
+      <c r="D60">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="E60">
+        <f>(D60-6.75)/6</f>
+        <v>1.968333333333333</v>
+      </c>
+      <c r="I60">
+        <v>7.87</v>
+      </c>
+      <c r="J60">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>466</v>
+      </c>
+      <c r="B61" s="1">
+        <v>45945.440972222219</v>
+      </c>
+      <c r="C61" s="1">
+        <v>45945.600694444445</v>
+      </c>
+      <c r="D61">
+        <v>15.04</v>
+      </c>
+      <c r="E61">
+        <f>(D61-6.75)/4</f>
+        <v>2.0724999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16994493-3AAA-0649-9876-DE782407159B}">
   <dimension ref="A1:L17"/>
   <sheetViews>
@@ -14471,27 +17666,27 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E1" t="s">
         <v>295</v>
       </c>
-      <c r="E1" t="s">
-        <v>296</v>
-      </c>
       <c r="G1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H1" t="s">
         <v>168</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>169</v>
       </c>
-      <c r="I1" t="s">
-        <v>170</v>
-      </c>
       <c r="L1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1">
         <v>45924.666666666664</v>
@@ -14515,7 +17710,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1">
         <v>45924.666666666664</v>
@@ -14539,7 +17734,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1">
         <v>45924.666666666664</v>
@@ -14563,7 +17758,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1">
         <v>45924.666666666664</v>
@@ -14587,7 +17782,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="1">
         <v>45926.600694444445</v>
@@ -14605,7 +17800,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="1">
         <v>45926.600694444445</v>
@@ -14623,7 +17818,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="1">
         <v>45926.600694444445</v>
@@ -14641,7 +17836,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="1">
         <v>45926.600694444445</v>
@@ -14659,7 +17854,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B10" s="1">
         <v>45931.552083333336</v>
@@ -14677,7 +17872,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B11" s="1">
         <v>45931.552083333336</v>
@@ -14695,7 +17890,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B12" s="1">
         <v>45931.552083333336</v>
@@ -14713,7 +17908,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B13" s="1">
         <v>45931.552083333336</v>
@@ -14731,7 +17926,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B14" s="1">
         <v>45936.59375</v>
@@ -14749,7 +17944,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B15" s="1">
         <v>45936.59375</v>
@@ -14767,7 +17962,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B16" s="1">
         <v>45936.59375</v>
@@ -14785,7 +17980,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B17" s="1">
         <v>45936.59375</v>
@@ -14807,7 +18002,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5BDF59F-AB87-404D-AFD3-7683E8E88CAC}">
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -14848,7 +18043,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A1C8F7-0C5B-6045-992F-0FD6B0162923}">
   <dimension ref="A1:J81"/>
   <sheetViews>
@@ -14863,34 +18058,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" t="s">
         <v>163</v>
-      </c>
-      <c r="B1" t="s">
-        <v>164</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" t="s">
         <v>165</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>166</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>167</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>168</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>169</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>170</v>
-      </c>
-      <c r="J1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -14898,7 +18093,7 @@
         <v>12.09</v>
       </c>
       <c r="B2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C2" t="str">
         <f>_xlfn.CONCAT("F",B2,"-",A2)</f>
@@ -14933,7 +18128,7 @@
         <v>12.09</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C13" si="0">_xlfn.CONCAT("F",B3,"-",A3)</f>
@@ -14968,7 +18163,7 @@
         <v>12.09</v>
       </c>
       <c r="B4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -15003,7 +18198,7 @@
         <v>12.09</v>
       </c>
       <c r="B5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -15038,7 +18233,7 @@
         <v>12.09</v>
       </c>
       <c r="B6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -15073,7 +18268,7 @@
         <v>12.09</v>
       </c>
       <c r="B7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -15108,7 +18303,7 @@
         <v>12.09</v>
       </c>
       <c r="B8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -15143,7 +18338,7 @@
         <v>12.09</v>
       </c>
       <c r="B9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -15178,7 +18373,7 @@
         <v>12.09</v>
       </c>
       <c r="B10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -15200,7 +18395,7 @@
         <v>12.09</v>
       </c>
       <c r="B11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -15217,7 +18412,7 @@
         <v>0.9923410071942409</v>
       </c>
       <c r="I11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J11">
         <f>SLOPE(G2:G9,J2:J9)</f>
@@ -15229,7 +18424,7 @@
         <v>12.09</v>
       </c>
       <c r="B12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -15246,7 +18441,7 @@
         <v>7.4016978417266159</v>
       </c>
       <c r="I12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J12">
         <f>INTERCEPT(G2:G9,J2:J9)</f>
@@ -15258,7 +18453,7 @@
         <v>14.09</v>
       </c>
       <c r="B13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -15277,7 +18472,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D14">
         <v>0.126</v>
@@ -15307,7 +18502,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16">
         <v>0.19</v>
@@ -15322,7 +18517,7 @@
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D17">
         <v>0.17899999999999999</v>
@@ -15337,7 +18532,7 @@
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D18">
         <v>0.19700000000000001</v>
@@ -15352,7 +18547,7 @@
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D19">
         <v>0.183</v>
@@ -15367,7 +18562,7 @@
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D20">
         <v>3.5000000000000003E-2</v>
@@ -15397,7 +18592,7 @@
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22">
         <v>0.68300000000000005</v>
@@ -15412,7 +18607,7 @@
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D23">
         <v>0.51</v>
@@ -15427,7 +18622,7 @@
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D24">
         <v>0.38200000000000001</v>
@@ -15442,7 +18637,7 @@
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D25">
         <v>0.31</v>
@@ -15457,7 +18652,7 @@
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D26">
         <v>4.2000000000000003E-2</v>
@@ -15487,7 +18682,7 @@
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D28">
         <v>0.629</v>
@@ -15502,7 +18697,7 @@
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D29">
         <v>0.80700000000000005</v>
@@ -15517,7 +18712,7 @@
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D30">
         <v>0.626</v>
@@ -15532,7 +18727,7 @@
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D31">
         <v>0.55800000000000005</v>
@@ -15547,7 +18742,7 @@
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C32" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D32">
         <v>5.5E-2</v>
@@ -15577,7 +18772,7 @@
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C34" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D34">
         <v>3.5000000000000003E-2</v>
@@ -15592,7 +18787,7 @@
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C35" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D35">
         <v>3.6999999999999998E-2</v>
@@ -15607,7 +18802,7 @@
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C36" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D36">
         <v>3.7999999999999999E-2</v>
@@ -15622,7 +18817,7 @@
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C37" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D37">
         <v>3.4000000000000002E-2</v>
@@ -15637,7 +18832,7 @@
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C38" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D38">
         <v>0.159</v>
@@ -15652,7 +18847,7 @@
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C39" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D39">
         <v>0.16500000000000001</v>
@@ -15667,7 +18862,7 @@
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C40" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D40">
         <v>0.22900000000000001</v>
@@ -15682,7 +18877,7 @@
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C41" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D41">
         <v>0.126</v>
@@ -15697,7 +18892,7 @@
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C42" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42">
         <v>0.84599999999999997</v>
@@ -15712,7 +18907,7 @@
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C43" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D43">
         <v>0.79</v>
@@ -15727,7 +18922,7 @@
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C44" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D44">
         <v>3.1E-2</v>
@@ -15742,7 +18937,7 @@
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C45" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D45">
         <v>3.1E-2</v>
@@ -15757,7 +18952,7 @@
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C46" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D46">
         <v>0.51100000000000001</v>
@@ -15772,7 +18967,7 @@
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C47" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D47">
         <v>0.48199999999999998</v>
@@ -15787,7 +18982,7 @@
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C48" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D48">
         <v>0.193</v>
@@ -15802,7 +18997,7 @@
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C49" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D49">
         <v>0.29399999999999998</v>
@@ -15817,7 +19012,7 @@
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C50" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D50">
         <v>0.67100000000000004</v>
@@ -15832,7 +19027,7 @@
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C51" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D51">
         <v>0.59399999999999997</v>
@@ -15847,7 +19042,7 @@
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C52" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D52">
         <v>3.5000000000000003E-2</v>
@@ -15862,7 +19057,7 @@
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C53" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D53">
         <v>3.1E-2</v>
@@ -15877,7 +19072,7 @@
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C54" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D54">
         <v>0.48399999999999999</v>
@@ -15892,7 +19087,7 @@
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C55" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D55">
         <v>0.58799999999999997</v>
@@ -15907,7 +19102,7 @@
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C56" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D56">
         <v>0.82299999999999995</v>
@@ -15922,7 +19117,7 @@
     </row>
     <row r="57" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C57" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D57">
         <v>3.5999999999999997E-2</v>
@@ -15937,7 +19132,7 @@
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C58" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D58">
         <v>0.67900000000000005</v>
@@ -15952,7 +19147,7 @@
     </row>
     <row r="59" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C59" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D59">
         <v>0.66900000000000004</v>
@@ -15967,7 +19162,7 @@
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C60" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D60">
         <v>0.64300000000000002</v>
@@ -15982,7 +19177,7 @@
     </row>
     <row r="61" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C61" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D61">
         <v>0.627</v>
@@ -15997,7 +19192,7 @@
     </row>
     <row r="62" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C62" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D62">
         <v>0.61399999999999999</v>
@@ -16012,7 +19207,7 @@
     </row>
     <row r="63" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C63" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D63">
         <v>0.53400000000000003</v>
@@ -16027,7 +19222,7 @@
     </row>
     <row r="64" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C64" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D64">
         <v>0.43099999999999999</v>
@@ -16042,7 +19237,7 @@
     </row>
     <row r="65" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C65" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D65">
         <v>0.38100000000000001</v>
@@ -16057,7 +19252,7 @@
     </row>
     <row r="66" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C66" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D66">
         <v>0.48699999999999999</v>
@@ -16072,7 +19267,7 @@
     </row>
     <row r="67" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C67" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D67">
         <v>0.64100000000000001</v>
@@ -16087,7 +19282,7 @@
     </row>
     <row r="68" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C68" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D68">
         <v>0.31900000000000001</v>
@@ -16102,7 +19297,7 @@
     </row>
     <row r="69" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C69" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D69">
         <v>2.9000000000000001E-2</v>
@@ -16117,7 +19312,7 @@
     </row>
     <row r="70" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C70" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D70">
         <v>0.48</v>
@@ -16132,7 +19327,7 @@
     </row>
     <row r="71" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C71" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D71">
         <v>0.504</v>
@@ -16147,7 +19342,7 @@
     </row>
     <row r="72" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C72" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D72">
         <v>0.51700000000000002</v>
@@ -16162,7 +19357,7 @@
     </row>
     <row r="73" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C73" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D73">
         <v>0.68500000000000005</v>
@@ -16177,7 +19372,7 @@
     </row>
     <row r="74" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C74" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D74">
         <v>0.72</v>
@@ -16192,7 +19387,7 @@
     </row>
     <row r="75" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C75" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D75">
         <v>0.746</v>
@@ -16207,7 +19402,7 @@
     </row>
     <row r="76" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C76" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D76">
         <v>0.313</v>
@@ -16222,7 +19417,7 @@
     </row>
     <row r="77" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C77" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D77">
         <v>0.253</v>
@@ -16237,7 +19432,7 @@
     </row>
     <row r="78" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C78" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D78">
         <v>0.24199999999999999</v>
@@ -16252,7 +19447,7 @@
     </row>
     <row r="79" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C79" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D79">
         <v>3.1E-2</v>
@@ -16267,7 +19462,7 @@
     </row>
     <row r="80" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C80" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D80">
         <v>3.1E-2</v>
@@ -16282,7 +19477,7 @@
     </row>
     <row r="81" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C81" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D81">
         <v>3.7999999999999999E-2</v>
@@ -16293,310 +19488,6 @@
       <c r="F81">
         <f t="shared" si="3"/>
         <v>-0.18368776978417678</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2002340C-AD4C-5C4F-8F00-4A8EC30B67C5}">
-  <dimension ref="A1:M13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="6" max="6" width="19.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G1" t="s">
-        <v>193</v>
-      </c>
-      <c r="I1" t="s">
-        <v>168</v>
-      </c>
-      <c r="J1" t="s">
-        <v>169</v>
-      </c>
-      <c r="K1" t="s">
-        <v>170</v>
-      </c>
-      <c r="L1" t="s">
-        <v>194</v>
-      </c>
-      <c r="M1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2">
-        <v>3.9E-2</v>
-      </c>
-      <c r="G2">
-        <f>AVERAGE(D2:E2)*$K$11 + $K$12</f>
-        <v>-3.2082434215761744</v>
-      </c>
-      <c r="I2">
-        <v>1000</v>
-      </c>
-      <c r="J2">
-        <v>1.556</v>
-      </c>
-      <c r="K2">
-        <v>1.548</v>
-      </c>
-      <c r="M2">
-        <f t="shared" ref="M2:M7" si="0">AVERAGE(J2:L2)</f>
-        <v>1.552</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G13" si="1">AVERAGE(D3:E3)*$K$11 + $K$12</f>
-        <v>8.3261041095816779E-2</v>
-      </c>
-      <c r="I3">
-        <v>500</v>
-      </c>
-      <c r="J3">
-        <v>0.81799999999999995</v>
-      </c>
-      <c r="K3">
-        <v>0.83099999999999996</v>
-      </c>
-      <c r="M3">
-        <f t="shared" si="0"/>
-        <v>0.82450000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D4">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="1"/>
-        <v>-1.2333407439729775</v>
-      </c>
-      <c r="I4">
-        <v>250</v>
-      </c>
-      <c r="J4">
-        <v>0.42099999999999999</v>
-      </c>
-      <c r="K4">
-        <v>0.43099999999999999</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="0"/>
-        <v>0.42599999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="1"/>
-        <v>-5.1831460991793712</v>
-      </c>
-      <c r="I5">
-        <v>100</v>
-      </c>
-      <c r="J5">
-        <v>0.189</v>
-      </c>
-      <c r="K5">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="0"/>
-        <v>0.1915</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6">
-        <v>0.04</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="1"/>
-        <v>-2.5499425290417754</v>
-      </c>
-      <c r="I6">
-        <v>50</v>
-      </c>
-      <c r="J6">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="K6">
-        <v>0.12</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="0"/>
-        <v>0.11899999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
-        <v>197</v>
-      </c>
-      <c r="D7">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="1"/>
-        <v>-4.5248452066449723</v>
-      </c>
-      <c r="I7">
-        <v>25</v>
-      </c>
-      <c r="J7">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="K7">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="0"/>
-        <v>7.7499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="1"/>
-        <v>2.716464611233409</v>
-      </c>
-      <c r="I8">
-        <v>10</v>
-      </c>
-      <c r="J8">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="K8">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="M8">
-        <f>AVERAGE(J8:L8)</f>
-        <v>5.5999999999999994E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="1"/>
-        <v>8.3261041095816779E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>198</v>
-      </c>
-      <c r="D10">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="1"/>
-        <v>1.3998628261646147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="1"/>
-        <v>1.3998628261646147</v>
-      </c>
-      <c r="J11" t="s">
-        <v>195</v>
-      </c>
-      <c r="K11">
-        <f>SLOPE(I2:I8,M2:M8)</f>
-        <v>658.30089253439814</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="1"/>
-        <v>-4.5248452066449723</v>
-      </c>
-      <c r="K12">
-        <f>INTERCEPT(I2:I8,M2:M8)</f>
-        <v>-28.881978230417701</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
-        <v>199</v>
-      </c>
-      <c r="D13">
-        <v>0.04</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="1"/>
-        <v>-2.5499425290417754</v>
       </c>
     </row>
   </sheetData>
